--- a/DocumentazioneEsterna/PianoDiQualifica/res/ResocontoAttivitaDiVerifica/res/metriche/grafici/qualitàProdotto/qualitàProdotto.xlsx
+++ b/DocumentazioneEsterna/PianoDiQualifica/res/ResocontoAttivitaDiVerifica/res/metriche/grafici/qualitàProdotto/qualitàProdotto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Università\Terzo anno\SWE\Progetto\Documentazione\DocumentazioneEsterna\PianoDiQualifica\res\ResocontoAttivitaDiVerifica\res\metriche\grafici\qualitàProdotto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2C09A1-BFAC-4FAA-85E1-30668D5E2DB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F50CB2-6294-4E94-9923-00018FBBB413}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E6A987FF-90E1-49FC-8E34-192DB323E80C}"/>
   </bookViews>
@@ -33,15 +33,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="72">
   <si>
     <t>Periodo</t>
   </si>
   <si>
     <t>Ottimale</t>
-  </si>
-  <si>
-    <t>A</t>
   </si>
   <si>
     <t>Completezza informazioni</t>
@@ -107,12 +104,6 @@
     <t>numero funzioni</t>
   </si>
   <si>
-    <t>Funzione</t>
-  </si>
-  <si>
-    <t>numero parametri</t>
-  </si>
-  <si>
     <t>SF</t>
   </si>
   <si>
@@ -123,6 +114,141 @@
   </si>
   <si>
     <t>Minuti</t>
+  </si>
+  <si>
+    <t>CartListSection</t>
+  </si>
+  <si>
+    <t>CartProductList</t>
+  </si>
+  <si>
+    <t>PayButton</t>
+  </si>
+  <si>
+    <t>PayButtonContent</t>
+  </si>
+  <si>
+    <t>CategoryList</t>
+  </si>
+  <si>
+    <t>CategoryListSection</t>
+  </si>
+  <si>
+    <t>DashboardLinks</t>
+  </si>
+  <si>
+    <t>ModifyProductForm</t>
+  </si>
+  <si>
+    <t>NewCategoryForm</t>
+  </si>
+  <si>
+    <t>NewProductForm</t>
+  </si>
+  <si>
+    <t>OldProductInformations</t>
+  </si>
+  <si>
+    <t>OrderList</t>
+  </si>
+  <si>
+    <t>OrderSection</t>
+  </si>
+  <si>
+    <t>ProductList</t>
+  </si>
+  <si>
+    <t>ProductSection</t>
+  </si>
+  <si>
+    <t>OrderDetails</t>
+  </si>
+  <si>
+    <t>CartSection</t>
+  </si>
+  <si>
+    <t>AddToCartList</t>
+  </si>
+  <si>
+    <t>CategoryProductList</t>
+  </si>
+  <si>
+    <t>ListingSection</t>
+  </si>
+  <si>
+    <t>ModifyProfileForm</t>
+  </si>
+  <si>
+    <t>ProfileButton</t>
+  </si>
+  <si>
+    <t>ProfileInfoForm</t>
+  </si>
+  <si>
+    <t>SearchBar</t>
+  </si>
+  <si>
+    <t>SearchBarSection</t>
+  </si>
+  <si>
+    <t>Fetcher</t>
+  </si>
+  <si>
+    <t>ModifyProducPage</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
+  </si>
+  <si>
+    <t>OrderPage</t>
+  </si>
+  <si>
+    <t>ProducPage</t>
+  </si>
+  <si>
+    <t>ProductListingPage</t>
+  </si>
+  <si>
+    <t>EditProfile</t>
+  </si>
+  <si>
+    <t>ProfilePage</t>
+  </si>
+  <si>
+    <t>SearchPage</t>
+  </si>
+  <si>
+    <t>CategoryListHome</t>
+  </si>
+  <si>
+    <t>JustCreateProduct</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>ProductImage</t>
+  </si>
+  <si>
+    <t>ProductInCart</t>
+  </si>
+  <si>
+    <t>Profile</t>
+  </si>
+  <si>
+    <t>StoredProduct</t>
+  </si>
+  <si>
+    <t>Cart</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>User</t>
   </si>
 </sst>
 </file>
@@ -185,7 +311,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -208,11 +334,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -228,6 +365,7 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -2499,52 +2637,43 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Sviluppo!$C$137:$C$147</c:f>
+              <c:f>Sviluppo!$C$137:$C$144</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>44250</c:v>
+                  <c:v>44265</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44251</c:v>
+                  <c:v>44270</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44252</c:v>
+                  <c:v>44275</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44253</c:v>
+                  <c:v>44280</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44254</c:v>
+                  <c:v>44285</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44255</c:v>
+                  <c:v>44290</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44256</c:v>
+                  <c:v>44295</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44257</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44258</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44259</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44260</c:v>
+                  <c:v>44300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$F$137:$F$147</c:f>
+              <c:f>Sviluppo!$F$137:$F$144</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>15</c:v>
                 </c:pt>
@@ -2567,15 +2696,6 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
@@ -2629,52 +2749,43 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Sviluppo!$C$137:$C$147</c:f>
+              <c:f>Sviluppo!$C$137:$C$144</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>44250</c:v>
+                  <c:v>44265</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44251</c:v>
+                  <c:v>44270</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44252</c:v>
+                  <c:v>44275</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44253</c:v>
+                  <c:v>44280</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44254</c:v>
+                  <c:v>44285</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44255</c:v>
+                  <c:v>44290</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44256</c:v>
+                  <c:v>44295</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44257</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44258</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44259</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44260</c:v>
+                  <c:v>44300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$E$137:$E$147</c:f>
+              <c:f>Sviluppo!$E$137:$E$144</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -2697,15 +2808,6 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -2769,86 +2871,126 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sviluppo!$C$137:$C$147</c:f>
+              <c:f>Sviluppo!$C$137:$C$144</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>44250</c:v>
+                  <c:v>44265</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44251</c:v>
+                  <c:v>44270</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44252</c:v>
+                  <c:v>44275</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44253</c:v>
+                  <c:v>44280</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44254</c:v>
+                  <c:v>44285</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44255</c:v>
+                  <c:v>44290</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44256</c:v>
+                  <c:v>44295</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44257</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44258</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44259</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44260</c:v>
+                  <c:v>44300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$D$137:$D$147</c:f>
+              <c:f>Sviluppo!$D$137:$D$144</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
+                  <c:v>1.8181818181818181</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>1.6923076923076923</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>1.7333333333333334</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>1.6818181818181819</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15</c:v>
+                  <c:v>1.5714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>1.5526315789473684</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15</c:v>
+                  <c:v>1.3777777777777778</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15</c:v>
+                  <c:v>1.3777777777777778</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2977,6 +3119,8 @@
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
+        <c:majorUnit val="5"/>
+        <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
         <c:axId val="365909112"/>
@@ -3254,52 +3398,43 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Sviluppo!$C$187:$C$197</c:f>
+              <c:f>Sviluppo!$C$187:$C$194</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>44250</c:v>
+                  <c:v>44265</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44251</c:v>
+                  <c:v>44270</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44252</c:v>
+                  <c:v>44275</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44253</c:v>
+                  <c:v>44280</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44254</c:v>
+                  <c:v>44285</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44255</c:v>
+                  <c:v>44290</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44256</c:v>
+                  <c:v>44295</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44257</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44258</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44259</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44260</c:v>
+                  <c:v>44300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$F$187:$F$197</c:f>
+              <c:f>Sviluppo!$F$187:$F$194</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>15</c:v>
                 </c:pt>
@@ -3322,15 +3457,6 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
@@ -3384,52 +3510,43 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Sviluppo!$C$187:$C$197</c:f>
+              <c:f>Sviluppo!$C$187:$C$194</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>44250</c:v>
+                  <c:v>44265</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44251</c:v>
+                  <c:v>44270</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44252</c:v>
+                  <c:v>44275</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44253</c:v>
+                  <c:v>44280</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44254</c:v>
+                  <c:v>44285</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44255</c:v>
+                  <c:v>44290</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44256</c:v>
+                  <c:v>44295</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44257</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44258</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44259</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44260</c:v>
+                  <c:v>44300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$E$187:$E$197</c:f>
+              <c:f>Sviluppo!$E$187:$E$194</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -3452,15 +3569,6 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -3524,86 +3632,126 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sviluppo!$C$187:$C$197</c:f>
+              <c:f>Sviluppo!$C$187:$C$194</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>44250</c:v>
+                  <c:v>44265</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44251</c:v>
+                  <c:v>44270</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44252</c:v>
+                  <c:v>44275</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44253</c:v>
+                  <c:v>44280</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44254</c:v>
+                  <c:v>44285</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44255</c:v>
+                  <c:v>44290</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44256</c:v>
+                  <c:v>44295</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44257</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44258</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44259</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44260</c:v>
+                  <c:v>44300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$D$187:$D$197</c:f>
+              <c:f>Sviluppo!$D$187:$D$194</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3732,6 +3880,8 @@
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
+        <c:majorUnit val="5"/>
+        <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
         <c:axId val="365909112"/>
@@ -4009,52 +4159,43 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Sviluppo!$C$251:$C$261</c:f>
+              <c:f>Sviluppo!$C$251:$C$258</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>44250</c:v>
+                  <c:v>44265</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44251</c:v>
+                  <c:v>44270</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44252</c:v>
+                  <c:v>44275</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44253</c:v>
+                  <c:v>44280</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44254</c:v>
+                  <c:v>44285</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44255</c:v>
+                  <c:v>44290</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44256</c:v>
+                  <c:v>44295</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44257</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44258</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44259</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44260</c:v>
+                  <c:v>44300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$F$251:$F$261</c:f>
+              <c:f>Sviluppo!$F$251:$F$258</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -4077,15 +4218,6 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
@@ -4139,52 +4271,43 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Sviluppo!$C$251:$C$261</c:f>
+              <c:f>Sviluppo!$C$251:$C$258</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>44250</c:v>
+                  <c:v>44265</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44251</c:v>
+                  <c:v>44270</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44252</c:v>
+                  <c:v>44275</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44253</c:v>
+                  <c:v>44280</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44254</c:v>
+                  <c:v>44285</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44255</c:v>
+                  <c:v>44290</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44256</c:v>
+                  <c:v>44295</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44257</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44258</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44259</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44260</c:v>
+                  <c:v>44300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$E$251:$E$261</c:f>
+              <c:f>Sviluppo!$E$251:$E$258</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -4207,15 +4330,6 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
@@ -4279,86 +4393,126 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sviluppo!$C$251:$C$261</c:f>
+              <c:f>Sviluppo!$C$251:$C$258</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>44250</c:v>
+                  <c:v>44265</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44251</c:v>
+                  <c:v>44270</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44252</c:v>
+                  <c:v>44275</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44253</c:v>
+                  <c:v>44280</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44254</c:v>
+                  <c:v>44285</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44255</c:v>
+                  <c:v>44290</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44256</c:v>
+                  <c:v>44295</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44257</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44258</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44259</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44260</c:v>
+                  <c:v>44300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$D$251:$D$261</c:f>
+              <c:f>Sviluppo!$D$251:$D$258</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
+                  <c:v>0.70588235294117652</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>1.2857142857142858</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>1.553191489361702</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>1.56</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15</c:v>
+                  <c:v>1.5535714285714286</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>1.5614035087719298</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15</c:v>
+                  <c:v>1.523076923076923</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15</c:v>
+                  <c:v>1.5074626865671641</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4487,6 +4641,8 @@
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
+        <c:majorUnit val="5"/>
+        <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
         <c:axId val="365909112"/>
@@ -4769,37 +4925,28 @@
                 <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>44250</c:v>
+                  <c:v>44265</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44251</c:v>
+                  <c:v>44270</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44252</c:v>
+                  <c:v>44275</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44253</c:v>
+                  <c:v>44280</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44254</c:v>
+                  <c:v>44285</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44255</c:v>
+                  <c:v>44290</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44256</c:v>
+                  <c:v>44295</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44257</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44258</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44259</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44260</c:v>
+                  <c:v>44300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4832,15 +4979,6 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
@@ -4899,37 +5037,28 @@
                 <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>44250</c:v>
+                  <c:v>44265</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44251</c:v>
+                  <c:v>44270</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44252</c:v>
+                  <c:v>44275</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44253</c:v>
+                  <c:v>44280</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44254</c:v>
+                  <c:v>44285</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44255</c:v>
+                  <c:v>44290</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44256</c:v>
+                  <c:v>44295</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44257</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44258</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44259</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44260</c:v>
+                  <c:v>44300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4962,15 +5091,6 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
@@ -5034,6 +5154,64 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Sviluppo!$C$308:$C$318</c:f>
@@ -5041,37 +5219,28 @@
                 <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>44250</c:v>
+                  <c:v>44265</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44251</c:v>
+                  <c:v>44270</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44252</c:v>
+                  <c:v>44275</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44253</c:v>
+                  <c:v>44280</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44254</c:v>
+                  <c:v>44285</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44255</c:v>
+                  <c:v>44290</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44256</c:v>
+                  <c:v>44295</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44257</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44258</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44259</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44260</c:v>
+                  <c:v>44300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5083,37 +5252,28 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
+                  <c:v>0.91304347826086951</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>1.0689655172413792</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>0.91666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>1.4098360655737705</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15</c:v>
+                  <c:v>1.4098360655737705</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>1.4098360655737705</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5242,6 +5402,8 @@
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
+        <c:majorUnit val="5"/>
+        <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
         <c:axId val="365909112"/>
@@ -10791,7 +10953,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>297480</xdr:colOff>
+      <xdr:colOff>68580</xdr:colOff>
       <xdr:row>175</xdr:row>
       <xdr:rowOff>156960</xdr:rowOff>
     </xdr:to>
@@ -10828,8 +10990,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>297480</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1554480</xdr:colOff>
       <xdr:row>223</xdr:row>
       <xdr:rowOff>156960</xdr:rowOff>
     </xdr:to>
@@ -10867,7 +11029,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>297480</xdr:colOff>
+      <xdr:colOff>22860</xdr:colOff>
       <xdr:row>290</xdr:row>
       <xdr:rowOff>156960</xdr:rowOff>
     </xdr:to>
@@ -10905,7 +11067,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>373680</xdr:colOff>
+      <xdr:colOff>60960</xdr:colOff>
       <xdr:row>349</xdr:row>
       <xdr:rowOff>73140</xdr:rowOff>
     </xdr:to>
@@ -11272,10 +11434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4F4DE7-87B1-4CD4-B318-8D739C70AC78}">
-  <dimension ref="C6:K379"/>
+  <dimension ref="C6:L379"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B64" workbookViewId="0">
-      <selection activeCell="J53" sqref="J53"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="G343" sqref="G343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11283,15 +11445,16 @@
     <col min="3" max="3" width="37" customWidth="1"/>
     <col min="6" max="6" width="23.6640625" customWidth="1"/>
     <col min="7" max="7" width="24.77734375" customWidth="1"/>
-    <col min="8" max="8" width="18.88671875" customWidth="1"/>
+    <col min="8" max="8" width="22.5546875" customWidth="1"/>
     <col min="9" max="9" width="16.88671875" customWidth="1"/>
     <col min="10" max="10" width="14.33203125" customWidth="1"/>
     <col min="11" max="11" width="18.77734375" customWidth="1"/>
+    <col min="12" max="12" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -11302,16 +11465,16 @@
         <v>0</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>5</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>6</v>
       </c>
       <c r="H7" s="7"/>
     </row>
@@ -11358,7 +11521,7 @@
         <v>44275</v>
       </c>
       <c r="D10" s="6">
-        <f t="shared" ref="D10:D18" si="0">(1-F10/G10)</f>
+        <f t="shared" ref="D10:D15" si="0">(1-F10/G10)</f>
         <v>0.53</v>
       </c>
       <c r="E10" s="6">
@@ -11486,7 +11649,7 @@
     </row>
     <row r="44" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -11497,19 +11660,19 @@
         <v>0</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>1</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G45" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H45" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="46" spans="3:8" x14ac:dyDescent="0.3">
@@ -11538,7 +11701,7 @@
         <v>44270</v>
       </c>
       <c r="D47" s="6">
-        <f t="shared" ref="D47:D56" si="1">(G47/H47)</f>
+        <f t="shared" ref="D47:D53" si="1">(G47/H47)</f>
         <v>0.1</v>
       </c>
       <c r="E47" s="6">
@@ -11706,7 +11869,7 @@
     </row>
     <row r="88" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -11717,13 +11880,13 @@
         <v>0</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E89" s="5" t="s">
         <v>1</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G89" s="7"/>
       <c r="H89" s="7"/>
@@ -11906,7 +12069,7 @@
     </row>
     <row r="135" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C135" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -11916,28 +12079,28 @@
         <v>0</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E136" s="5" t="s">
         <v>1</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G136" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H136" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="H136" s="5" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="137" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C137" s="10">
-        <v>44250</v>
+        <v>44265</v>
       </c>
       <c r="D137" s="9">
         <f>G137/H137</f>
-        <v>15</v>
+        <v>1.8181818181818181</v>
       </c>
       <c r="E137" s="9">
         <v>10</v>
@@ -11946,21 +12109,21 @@
         <v>15</v>
       </c>
       <c r="G137" s="9">
-        <f>G138</f>
-        <v>165</v>
+        <f>SUM(L161:L171)</f>
+        <v>20</v>
       </c>
       <c r="H137" s="9">
-        <f>COUNTA(H161:H171)</f>
+        <f>COUNTA(K161:K171)</f>
         <v>11</v>
       </c>
     </row>
     <row r="138" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C138" s="10">
-        <v>44251</v>
+        <v>44270</v>
       </c>
       <c r="D138" s="9">
         <f t="shared" ref="D138:D147" si="2">G138/H138</f>
-        <v>15</v>
+        <v>1.6923076923076923</v>
       </c>
       <c r="E138" s="9">
         <v>10</v>
@@ -11969,21 +12132,21 @@
         <v>15</v>
       </c>
       <c r="G138" s="9">
-        <f>SUM(I161:I171)</f>
-        <v>165</v>
+        <f>SUM(L161:L173)</f>
+        <v>22</v>
       </c>
       <c r="H138" s="9">
-        <f>COUNTA(H161:H171)</f>
-        <v>11</v>
+        <f>COUNTA(K161:K173)</f>
+        <v>13</v>
       </c>
     </row>
     <row r="139" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C139" s="10">
-        <v>44252</v>
+        <v>44275</v>
       </c>
       <c r="D139" s="9">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>1.7333333333333334</v>
       </c>
       <c r="E139" s="9">
         <v>10</v>
@@ -11992,21 +12155,21 @@
         <v>15</v>
       </c>
       <c r="G139" s="9">
-        <f>SUM(I161:I171)</f>
-        <v>165</v>
+        <f>SUM(L161:L175)</f>
+        <v>26</v>
       </c>
       <c r="H139" s="9">
-        <f>COUNTA(H161:H171)</f>
-        <v>11</v>
+        <f>COUNTA(K161:K175)</f>
+        <v>15</v>
       </c>
     </row>
     <row r="140" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C140" s="10">
-        <v>44253</v>
+        <v>44280</v>
       </c>
       <c r="D140" s="9">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>1.6818181818181819</v>
       </c>
       <c r="E140" s="9">
         <v>10</v>
@@ -12015,21 +12178,21 @@
         <v>15</v>
       </c>
       <c r="G140" s="9">
-        <f>SUM(I161:I171)</f>
-        <v>165</v>
+        <f>SUM(L161:L182)</f>
+        <v>37</v>
       </c>
       <c r="H140" s="9">
-        <f>COUNTA(H161:H171)</f>
-        <v>11</v>
+        <f>COUNTA(K161:K182)</f>
+        <v>22</v>
       </c>
     </row>
     <row r="141" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C141" s="10">
-        <v>44254</v>
+        <v>44285</v>
       </c>
       <c r="D141" s="9">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>1.5714285714285714</v>
       </c>
       <c r="E141" s="9">
         <v>10</v>
@@ -12038,21 +12201,21 @@
         <v>15</v>
       </c>
       <c r="G141" s="9">
-        <f>SUM(I161:I171)</f>
-        <v>165</v>
+        <f>SUM(L161:L195)</f>
+        <v>55</v>
       </c>
       <c r="H141" s="9">
-        <f>COUNTA(H161:H171)</f>
-        <v>11</v>
+        <f>COUNTA(K161:K195)</f>
+        <v>35</v>
       </c>
     </row>
     <row r="142" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C142" s="10">
-        <v>44255</v>
+        <v>44290</v>
       </c>
       <c r="D142" s="9">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>1.5526315789473684</v>
       </c>
       <c r="E142" s="9">
         <v>10</v>
@@ -12061,21 +12224,21 @@
         <v>15</v>
       </c>
       <c r="G142" s="9">
-        <f>SUM(I161:I171)</f>
-        <v>165</v>
+        <f>SUM(L161:L198)</f>
+        <v>59</v>
       </c>
       <c r="H142" s="9">
-        <f>COUNTA(H161:H171)</f>
-        <v>11</v>
+        <f>COUNTA(K161:K198)</f>
+        <v>38</v>
       </c>
     </row>
     <row r="143" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C143" s="10">
-        <v>44256</v>
+        <v>44295</v>
       </c>
       <c r="D143" s="9">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>1.3777777777777778</v>
       </c>
       <c r="E143" s="9">
         <v>10</v>
@@ -12084,21 +12247,21 @@
         <v>15</v>
       </c>
       <c r="G143" s="9">
-        <f>SUM(I161:I171)</f>
-        <v>165</v>
+        <f>SUM(L161:L205)</f>
+        <v>62</v>
       </c>
       <c r="H143" s="9">
-        <f>COUNTA(H161:H171)</f>
-        <v>11</v>
+        <f>COUNTA(K161:K205)</f>
+        <v>45</v>
       </c>
     </row>
     <row r="144" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C144" s="10">
-        <v>44257</v>
+        <v>44300</v>
       </c>
       <c r="D144" s="9">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>1.3777777777777778</v>
       </c>
       <c r="E144" s="9">
         <v>10</v>
@@ -12107,213 +12270,284 @@
         <v>15</v>
       </c>
       <c r="G144" s="9">
-        <f>SUM(I161:I171)</f>
-        <v>165</v>
+        <f>SUM(L161:L205)</f>
+        <v>62</v>
       </c>
       <c r="H144" s="9">
-        <f>COUNTA(H161:H171)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="145" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C145" s="10">
-        <v>44258</v>
-      </c>
-      <c r="D145" s="9">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="E145" s="9">
-        <v>10</v>
-      </c>
-      <c r="F145" s="9">
-        <v>15</v>
-      </c>
-      <c r="G145" s="9">
-        <f>SUM(I161:I171)</f>
-        <v>165</v>
-      </c>
-      <c r="H145" s="9">
-        <f>COUNTA(H161:H171)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="146" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C146" s="10">
-        <v>44259</v>
-      </c>
-      <c r="D146" s="9">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="E146" s="9">
-        <v>10</v>
-      </c>
-      <c r="F146" s="9">
-        <v>15</v>
-      </c>
-      <c r="G146" s="9">
-        <f>SUM(I161:I171)</f>
-        <v>165</v>
-      </c>
-      <c r="H146" s="9">
-        <f>COUNTA(H161:H171)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="147" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C147" s="10">
-        <v>44260</v>
-      </c>
-      <c r="D147" s="9">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="E147" s="9">
-        <v>10</v>
-      </c>
-      <c r="F147" s="9">
-        <v>15</v>
-      </c>
-      <c r="G147" s="9">
-        <f>SUM(I161:I171)</f>
-        <v>165</v>
-      </c>
-      <c r="H147" s="9">
-        <f>COUNTA(H161:H171)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="160" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="H160" s="5" t="s">
+        <f>COUNTA(K161:K205)</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="145" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C145" s="10"/>
+      <c r="D145" s="9"/>
+      <c r="E145" s="9"/>
+      <c r="F145" s="9"/>
+      <c r="G145" s="9"/>
+      <c r="H145" s="9"/>
+    </row>
+    <row r="146" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C146" s="10"/>
+      <c r="D146" s="9"/>
+      <c r="E146" s="9"/>
+      <c r="F146" s="9"/>
+      <c r="G146" s="9"/>
+      <c r="H146" s="9"/>
+    </row>
+    <row r="147" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C147" s="10"/>
+      <c r="D147" s="9"/>
+      <c r="E147" s="9"/>
+      <c r="F147" s="9"/>
+      <c r="G147" s="9"/>
+      <c r="H147" s="9"/>
+    </row>
+    <row r="160" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="K160" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L160" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I160" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="161" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H161" s="9" t="s">
+    </row>
+    <row r="161" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K161" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L161" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K162" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L162" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K163" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L163" s="9">
         <v>2</v>
       </c>
-      <c r="I161" s="9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="162" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H162" s="9" t="s">
+    </row>
+    <row r="164" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K164" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L164" s="9">
         <v>2</v>
       </c>
-      <c r="I162" s="9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="163" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H163" s="9" t="s">
+    </row>
+    <row r="165" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K165" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L165" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K166" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L166" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K167" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L167" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K168" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L168" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K169" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L169" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K170" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="L170" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K171" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="L171" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K172" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="L172" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K173" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="L173" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K174" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L174" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K175" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L175" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K176" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="L176" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="K177" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="L177" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="K178" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="L178" s="15">
         <v>2</v>
       </c>
-      <c r="I163" s="9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="164" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H164" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="I164" s="9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="165" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H165" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="I165" s="9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="166" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H166" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="I166" s="9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="167" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H167" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="I167" s="9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="168" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H168" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="I168" s="9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="169" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H169" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="I169" s="9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="170" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H170" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="I170" s="9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="171" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H171" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="I171" s="9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="185" spans="3:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="179" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="K179" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L179" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="K180" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="L180" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="K181" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="L181" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="K182" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="L182" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="K183" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="L183" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="K184" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="L184" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C185" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
-    </row>
-    <row r="186" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="K185" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="L185" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C186" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D186" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E186" s="5" t="s">
         <v>1</v>
       </c>
       <c r="F186" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G186" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H186" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H186" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="187" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="K186" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="L186" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C187" s="10">
-        <v>44250</v>
+        <v>44265</v>
       </c>
       <c r="D187" s="9">
         <f>G187/H187</f>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E187" s="9">
         <v>10</v>
@@ -12322,21 +12556,27 @@
         <v>15</v>
       </c>
       <c r="G187" s="9">
-        <f>SUM(I206:I216)</f>
-        <v>165</v>
+        <f>SUM(L210)</f>
+        <v>11</v>
       </c>
       <c r="H187" s="9">
-        <f>COUNTA(H206:H216)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="188" spans="3:8" x14ac:dyDescent="0.3">
+        <f>COUNTA(K210)</f>
+        <v>1</v>
+      </c>
+      <c r="K187" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="L187" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C188" s="10">
-        <v>44251</v>
+        <v>44270</v>
       </c>
       <c r="D188" s="9">
         <f t="shared" ref="D188:D197" si="3">G188/H188</f>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E188" s="9">
         <v>10</v>
@@ -12345,21 +12585,27 @@
         <v>15</v>
       </c>
       <c r="G188" s="9">
-        <f>SUM(I206:I216)</f>
-        <v>165</v>
+        <f>SUM(L210)</f>
+        <v>11</v>
       </c>
       <c r="H188" s="9">
-        <f>COUNTA(H161:H171)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="189" spans="3:8" x14ac:dyDescent="0.3">
+        <f>COUNTA(K210)</f>
+        <v>1</v>
+      </c>
+      <c r="K188" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="L188" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C189" s="10">
-        <v>44252</v>
+        <v>44275</v>
       </c>
       <c r="D189" s="9">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>6.5</v>
       </c>
       <c r="E189" s="9">
         <v>10</v>
@@ -12368,21 +12614,27 @@
         <v>15</v>
       </c>
       <c r="G189" s="9">
-        <f>SUM(I206:I216)</f>
-        <v>165</v>
+        <f>SUM(L210:L211)</f>
+        <v>13</v>
       </c>
       <c r="H189" s="9">
-        <f>COUNTA(H161:H171)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="190" spans="3:8" x14ac:dyDescent="0.3">
+        <f>COUNTA(K210:K211)</f>
+        <v>2</v>
+      </c>
+      <c r="K189" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="L189" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C190" s="10">
-        <v>44253</v>
+        <v>44280</v>
       </c>
       <c r="D190" s="9">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E190" s="9">
         <v>10</v>
@@ -12391,21 +12643,27 @@
         <v>15</v>
       </c>
       <c r="G190" s="9">
-        <f>SUM(I206:I216)</f>
-        <v>165</v>
+        <f>SUM(L210:L212)</f>
+        <v>15</v>
       </c>
       <c r="H190" s="9">
-        <f>COUNTA(H161:H171)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="191" spans="3:8" x14ac:dyDescent="0.3">
+        <f>COUNTA(L210:L212)</f>
+        <v>3</v>
+      </c>
+      <c r="K190" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="L190" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C191" s="10">
-        <v>44254</v>
+        <v>44285</v>
       </c>
       <c r="D191" s="9">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E191" s="9">
         <v>10</v>
@@ -12414,21 +12672,27 @@
         <v>15</v>
       </c>
       <c r="G191" s="9">
-        <f>SUM(I206:I216)</f>
-        <v>165</v>
+        <f>SUM(L210:L212)</f>
+        <v>15</v>
       </c>
       <c r="H191" s="9">
-        <f>COUNTA(H161:H171)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="192" spans="3:8" x14ac:dyDescent="0.3">
+        <f>COUNTA(L210:L212)</f>
+        <v>3</v>
+      </c>
+      <c r="K191" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="L191" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C192" s="10">
-        <v>44255</v>
+        <v>44290</v>
       </c>
       <c r="D192" s="9">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E192" s="9">
         <v>10</v>
@@ -12437,21 +12701,27 @@
         <v>15</v>
       </c>
       <c r="G192" s="9">
-        <f>SUM(I206:I216)</f>
-        <v>165</v>
+        <f>SUM(L210:L212)</f>
+        <v>15</v>
       </c>
       <c r="H192" s="9">
-        <f>COUNTA(H161:H171)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="193" spans="3:9" x14ac:dyDescent="0.3">
+        <f>COUNTA(K210:K212)</f>
+        <v>3</v>
+      </c>
+      <c r="K192" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="L192" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C193" s="10">
-        <v>44256</v>
+        <v>44295</v>
       </c>
       <c r="D193" s="9">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E193" s="9">
         <v>10</v>
@@ -12460,21 +12730,27 @@
         <v>15</v>
       </c>
       <c r="G193" s="9">
-        <f>SUM(I206:I216)</f>
-        <v>165</v>
+        <f>SUM(L210:L214)</f>
+        <v>20</v>
       </c>
       <c r="H193" s="9">
-        <f>COUNTA(H161:H171)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="194" spans="3:9" x14ac:dyDescent="0.3">
+        <f>COUNTA(K210:K214)</f>
+        <v>5</v>
+      </c>
+      <c r="K193" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="L193" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C194" s="10">
-        <v>44257</v>
+        <v>44300</v>
       </c>
       <c r="D194" s="9">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E194" s="9">
         <v>10</v>
@@ -12483,182 +12759,201 @@
         <v>15</v>
       </c>
       <c r="G194" s="9">
-        <f>SUM(I206:I216)</f>
-        <v>165</v>
+        <f>SUM(L210:L214)</f>
+        <v>20</v>
       </c>
       <c r="H194" s="9">
-        <f>COUNTA(H161:H171)</f>
+        <f>COUNTA(K210:K214)</f>
+        <v>5</v>
+      </c>
+      <c r="K194" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="L194" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C195" s="10"/>
+      <c r="D195" s="9"/>
+      <c r="E195" s="9"/>
+      <c r="F195" s="9"/>
+      <c r="G195" s="9"/>
+      <c r="H195" s="9"/>
+      <c r="K195" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="L195" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C196" s="10"/>
+      <c r="D196" s="9"/>
+      <c r="E196" s="9"/>
+      <c r="F196" s="9"/>
+      <c r="G196" s="9"/>
+      <c r="H196" s="9"/>
+      <c r="K196" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="L196" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C197" s="10"/>
+      <c r="D197" s="9"/>
+      <c r="E197" s="9"/>
+      <c r="F197" s="9"/>
+      <c r="G197" s="9"/>
+      <c r="H197" s="9"/>
+      <c r="K197" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="L197" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="K198" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="L198" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="K199" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="L199" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="K200" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="L200" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="K201" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="L201" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="K202" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L202" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="K203" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="L203" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="K204" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="L204" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="K205" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="L205" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K209" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L209" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="210" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K210" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L210" s="9">
         <v>11</v>
       </c>
     </row>
-    <row r="195" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C195" s="10">
-        <v>44258</v>
-      </c>
-      <c r="D195" s="9">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="E195" s="9">
-        <v>10</v>
-      </c>
-      <c r="F195" s="9">
-        <v>15</v>
-      </c>
-      <c r="G195" s="9">
-        <f>SUM(I206:I216)</f>
-        <v>165</v>
-      </c>
-      <c r="H195" s="9">
-        <f>COUNTA(H161:H171)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="196" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C196" s="10">
-        <v>44259</v>
-      </c>
-      <c r="D196" s="9">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="E196" s="9">
-        <v>10</v>
-      </c>
-      <c r="F196" s="9">
-        <v>15</v>
-      </c>
-      <c r="G196" s="9">
-        <f>SUM(I206:I216)</f>
-        <v>165</v>
-      </c>
-      <c r="H196" s="9">
-        <f>COUNTA(H161:H171)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="197" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C197" s="10">
-        <v>44260</v>
-      </c>
-      <c r="D197" s="9">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="E197" s="9">
-        <v>10</v>
-      </c>
-      <c r="F197" s="9">
-        <v>15</v>
-      </c>
-      <c r="G197" s="9">
-        <f>SUM(I206:I216)</f>
-        <v>165</v>
-      </c>
-      <c r="H197" s="9">
-        <f>COUNTA(H161:H171)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="205" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="H205" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I205" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="206" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="H206" s="9" t="s">
+    <row r="211" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K211" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="L211" s="9">
         <v>2</v>
       </c>
-      <c r="I206" s="9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="207" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="H207" s="9" t="s">
+    </row>
+    <row r="212" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K212" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L212" s="9">
         <v>2</v>
       </c>
-      <c r="I207" s="9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="208" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="H208" s="9" t="s">
+    </row>
+    <row r="213" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K213" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="L213" s="9">
         <v>2</v>
       </c>
-      <c r="I208" s="9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="209" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H209" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="I209" s="9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="210" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H210" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="I210" s="9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="211" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H211" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="I211" s="9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="212" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H212" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="I212" s="9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="213" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H213" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="I213" s="9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="214" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H214" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="I214" s="9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="215" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H215" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="I215" s="9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="216" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H216" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="I216" s="9">
-        <v>15</v>
-      </c>
+    </row>
+    <row r="214" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K214" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="L214" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K215" s="9"/>
+      <c r="L215" s="9"/>
+    </row>
+    <row r="216" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K216" s="9"/>
+      <c r="L216" s="9"/>
+    </row>
+    <row r="217" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K217" s="9"/>
+      <c r="L217" s="9"/>
+    </row>
+    <row r="218" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K218" s="9"/>
+      <c r="L218" s="9"/>
+    </row>
+    <row r="219" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K219" s="9"/>
+      <c r="L219" s="9"/>
+    </row>
+    <row r="220" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K220" s="9"/>
+      <c r="L220" s="9"/>
     </row>
     <row r="249" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C249" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D249" s="2"/>
       <c r="E249" s="2"/>
@@ -12668,34 +12963,30 @@
         <v>0</v>
       </c>
       <c r="D250" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E250" s="5" t="s">
         <v>1</v>
       </c>
       <c r="F250" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G250" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H250" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H250" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J250" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K250" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="J250" s="7"/>
+      <c r="K250" s="7"/>
     </row>
     <row r="251" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C251" s="10">
-        <v>44250</v>
+        <v>44265</v>
       </c>
       <c r="D251" s="9">
         <f>G251/H251</f>
-        <v>15</v>
+        <v>0.70588235294117652</v>
       </c>
       <c r="E251" s="9">
         <v>3</v>
@@ -12704,27 +12995,21 @@
         <v>6</v>
       </c>
       <c r="G251" s="9">
-        <f>SUM(K251:K261)</f>
-        <v>165</v>
+        <v>12</v>
       </c>
       <c r="H251" s="9">
-        <f>COUNTA(J251:J261)</f>
-        <v>11</v>
-      </c>
-      <c r="J251" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="K251" s="9">
-        <v>15</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="J251" s="11"/>
+      <c r="K251" s="11"/>
     </row>
     <row r="252" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C252" s="10">
-        <v>44251</v>
+        <v>44270</v>
       </c>
       <c r="D252" s="9">
         <f t="shared" ref="D252:D261" si="4">G252/H252</f>
-        <v>15</v>
+        <v>1.2857142857142858</v>
       </c>
       <c r="E252" s="9">
         <v>3</v>
@@ -12733,27 +13018,21 @@
         <v>6</v>
       </c>
       <c r="G252" s="9">
-        <f>SUM(K251:K261)</f>
-        <v>165</v>
+        <v>36</v>
       </c>
       <c r="H252" s="9">
-        <f>COUNTA(J251:J261)</f>
-        <v>11</v>
-      </c>
-      <c r="J252" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="K252" s="9">
-        <v>15</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="J252" s="11"/>
+      <c r="K252" s="11"/>
     </row>
     <row r="253" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C253" s="10">
-        <v>44252</v>
+        <v>44275</v>
       </c>
       <c r="D253" s="9">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>1.553191489361702</v>
       </c>
       <c r="E253" s="9">
         <v>3</v>
@@ -12762,27 +13041,23 @@
         <v>6</v>
       </c>
       <c r="G253" s="9">
-        <f>SUM(K251:K261)</f>
-        <v>165</v>
+        <f>37+36</f>
+        <v>73</v>
       </c>
       <c r="H253" s="9">
-        <f>COUNTA(J251:J261)</f>
-        <v>11</v>
-      </c>
-      <c r="J253" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="K253" s="9">
-        <v>15</v>
-      </c>
+        <f>19+28</f>
+        <v>47</v>
+      </c>
+      <c r="J253" s="11"/>
+      <c r="K253" s="11"/>
     </row>
     <row r="254" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C254" s="10">
-        <v>44253</v>
+        <v>44280</v>
       </c>
       <c r="D254" s="9">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>1.56</v>
       </c>
       <c r="E254" s="9">
         <v>3</v>
@@ -12791,27 +13066,23 @@
         <v>6</v>
       </c>
       <c r="G254" s="9">
-        <f>SUM(K251:K261)</f>
-        <v>165</v>
+        <f>78</f>
+        <v>78</v>
       </c>
       <c r="H254" s="9">
-        <f>COUNTA(J251:J261)</f>
-        <v>11</v>
-      </c>
-      <c r="J254" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="K254" s="9">
-        <v>15</v>
-      </c>
+        <f>50</f>
+        <v>50</v>
+      </c>
+      <c r="J254" s="11"/>
+      <c r="K254" s="11"/>
     </row>
     <row r="255" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C255" s="10">
-        <v>44254</v>
+        <v>44285</v>
       </c>
       <c r="D255" s="9">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>1.5535714285714286</v>
       </c>
       <c r="E255" s="9">
         <v>3</v>
@@ -12820,27 +13091,23 @@
         <v>6</v>
       </c>
       <c r="G255" s="9">
-        <f>SUM(K251:K261)</f>
-        <v>165</v>
+        <f>78+9</f>
+        <v>87</v>
       </c>
       <c r="H255" s="9">
-        <f>COUNTA(J251:J261)</f>
-        <v>11</v>
-      </c>
-      <c r="J255" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="K255" s="9">
-        <v>15</v>
-      </c>
+        <f>56</f>
+        <v>56</v>
+      </c>
+      <c r="J255" s="11"/>
+      <c r="K255" s="11"/>
     </row>
     <row r="256" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C256" s="10">
-        <v>44255</v>
+        <v>44290</v>
       </c>
       <c r="D256" s="9">
         <f>G256/H256</f>
-        <v>15</v>
+        <v>1.5614035087719298</v>
       </c>
       <c r="E256" s="9">
         <v>3</v>
@@ -12849,27 +13116,23 @@
         <v>6</v>
       </c>
       <c r="G256" s="9">
-        <f>SUM(K251:K261)</f>
-        <v>165</v>
+        <f>89</f>
+        <v>89</v>
       </c>
       <c r="H256" s="9">
-        <f>COUNTA(J251:J261)</f>
-        <v>11</v>
-      </c>
-      <c r="J256" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="K256" s="9">
-        <v>15</v>
-      </c>
+        <f>57</f>
+        <v>57</v>
+      </c>
+      <c r="J256" s="11"/>
+      <c r="K256" s="11"/>
     </row>
     <row r="257" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C257" s="10">
-        <v>44256</v>
+        <v>44295</v>
       </c>
       <c r="D257" s="9">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>1.523076923076923</v>
       </c>
       <c r="E257" s="9">
         <v>3</v>
@@ -12878,27 +13141,23 @@
         <v>6</v>
       </c>
       <c r="G257" s="9">
-        <f>SUM(K251:K261)</f>
-        <v>165</v>
+        <f>99</f>
+        <v>99</v>
       </c>
       <c r="H257" s="9">
-        <f>COUNTA(J251:J261)</f>
-        <v>11</v>
-      </c>
-      <c r="J257" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="K257" s="9">
-        <v>15</v>
-      </c>
+        <f>57+8</f>
+        <v>65</v>
+      </c>
+      <c r="J257" s="11"/>
+      <c r="K257" s="11"/>
     </row>
     <row r="258" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C258" s="10">
-        <v>44257</v>
+        <v>44300</v>
       </c>
       <c r="D258" s="9">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>1.5074626865671641</v>
       </c>
       <c r="E258" s="9">
         <v>3</v>
@@ -12907,110 +13166,49 @@
         <v>6</v>
       </c>
       <c r="G258" s="9">
-        <f>SUM(K251:K261)</f>
-        <v>165</v>
+        <f>101</f>
+        <v>101</v>
       </c>
       <c r="H258" s="9">
-        <f>COUNTA(J251:J261)</f>
-        <v>11</v>
-      </c>
-      <c r="J258" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="K258" s="9">
-        <v>15</v>
-      </c>
+        <f>67</f>
+        <v>67</v>
+      </c>
+      <c r="J258" s="11"/>
+      <c r="K258" s="11"/>
     </row>
     <row r="259" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C259" s="10">
-        <v>44258</v>
-      </c>
-      <c r="D259" s="9">
-        <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-      <c r="E259" s="9">
-        <v>3</v>
-      </c>
-      <c r="F259" s="9">
-        <v>6</v>
-      </c>
-      <c r="G259" s="9">
-        <f>SUM(K251:K261)</f>
-        <v>165</v>
-      </c>
-      <c r="H259" s="9">
-        <f>COUNTA(J251:J261)</f>
-        <v>11</v>
-      </c>
-      <c r="J259" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="K259" s="9">
-        <v>15</v>
-      </c>
+      <c r="C259" s="10"/>
+      <c r="D259" s="9"/>
+      <c r="E259" s="9"/>
+      <c r="F259" s="9"/>
+      <c r="G259" s="9"/>
+      <c r="H259" s="9"/>
+      <c r="J259" s="11"/>
+      <c r="K259" s="11"/>
     </row>
     <row r="260" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C260" s="10">
-        <v>44259</v>
-      </c>
-      <c r="D260" s="9">
-        <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-      <c r="E260" s="9">
-        <v>3</v>
-      </c>
-      <c r="F260" s="9">
-        <v>6</v>
-      </c>
-      <c r="G260" s="9">
-        <f>SUM(K251:K261)</f>
-        <v>165</v>
-      </c>
-      <c r="H260" s="9">
-        <f>COUNTA(J251:J261)</f>
-        <v>11</v>
-      </c>
-      <c r="J260" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="K260" s="9">
-        <v>15</v>
-      </c>
+      <c r="C260" s="10"/>
+      <c r="D260" s="9"/>
+      <c r="E260" s="9"/>
+      <c r="F260" s="9"/>
+      <c r="G260" s="9"/>
+      <c r="H260" s="9"/>
+      <c r="J260" s="11"/>
+      <c r="K260" s="11"/>
     </row>
     <row r="261" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C261" s="10">
-        <v>44260</v>
-      </c>
-      <c r="D261" s="9">
-        <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-      <c r="E261" s="9">
-        <v>3</v>
-      </c>
-      <c r="F261" s="9">
-        <v>6</v>
-      </c>
-      <c r="G261" s="9">
-        <f>SUM(K251:K261)</f>
-        <v>165</v>
-      </c>
-      <c r="H261" s="9">
-        <f>COUNTA(J251:J261)</f>
-        <v>11</v>
-      </c>
-      <c r="J261" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="K261" s="9">
-        <v>15</v>
-      </c>
+      <c r="C261" s="10"/>
+      <c r="D261" s="9"/>
+      <c r="E261" s="9"/>
+      <c r="F261" s="9"/>
+      <c r="G261" s="9"/>
+      <c r="H261" s="9"/>
+      <c r="J261" s="11"/>
+      <c r="K261" s="11"/>
     </row>
     <row r="306" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C306" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D306" s="2"/>
       <c r="E306" s="2"/>
@@ -13020,34 +13218,30 @@
         <v>0</v>
       </c>
       <c r="D307" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E307" s="5" t="s">
         <v>1</v>
       </c>
       <c r="F307" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G307" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H307" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H307" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J307" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K307" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="J307" s="7"/>
+      <c r="K307" s="7"/>
     </row>
     <row r="308" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C308" s="10">
-        <v>44250</v>
+        <v>44265</v>
       </c>
       <c r="D308" s="9">
         <f>G308/H308</f>
-        <v>15</v>
+        <v>0.91304347826086951</v>
       </c>
       <c r="E308" s="9">
         <v>3</v>
@@ -13056,27 +13250,21 @@
         <v>6</v>
       </c>
       <c r="G308" s="9">
-        <f>SUM(K308:K318)</f>
-        <v>165</v>
+        <v>21</v>
       </c>
       <c r="H308" s="9">
-        <f>COUNTA(J308:J318)</f>
-        <v>11</v>
-      </c>
-      <c r="J308" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="K308" s="9">
-        <v>15</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="J308" s="11"/>
+      <c r="K308" s="11"/>
     </row>
     <row r="309" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C309" s="10">
-        <v>44251</v>
+        <v>44270</v>
       </c>
       <c r="D309" s="9">
         <f t="shared" ref="D309:D312" si="5">G309/H309</f>
-        <v>15</v>
+        <v>1.0689655172413792</v>
       </c>
       <c r="E309" s="9">
         <v>3</v>
@@ -13085,27 +13273,21 @@
         <v>6</v>
       </c>
       <c r="G309" s="9">
-        <f>SUM(K308:K318)</f>
-        <v>165</v>
+        <v>31</v>
       </c>
       <c r="H309" s="9">
-        <f>COUNTA(J308:J318)</f>
-        <v>11</v>
-      </c>
-      <c r="J309" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="K309" s="9">
-        <v>15</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="J309" s="11"/>
+      <c r="K309" s="11"/>
     </row>
     <row r="310" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C310" s="10">
-        <v>44252</v>
+        <v>44275</v>
       </c>
       <c r="D310" s="9">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E310" s="9">
         <v>3</v>
@@ -13114,27 +13296,22 @@
         <v>6</v>
       </c>
       <c r="G310" s="9">
-        <f>SUM(K308:K318)</f>
-        <v>165</v>
+        <v>44</v>
       </c>
       <c r="H310" s="9">
-        <f>COUNTA(J308:J318)</f>
-        <v>11</v>
-      </c>
-      <c r="J310" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="K310" s="9">
-        <v>15</v>
-      </c>
+        <f>29+19</f>
+        <v>48</v>
+      </c>
+      <c r="J310" s="11"/>
+      <c r="K310" s="11"/>
     </row>
     <row r="311" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C311" s="10">
-        <v>44253</v>
+        <v>44280</v>
       </c>
       <c r="D311" s="9">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>1.4098360655737705</v>
       </c>
       <c r="E311" s="9">
         <v>3</v>
@@ -13143,27 +13320,23 @@
         <v>6</v>
       </c>
       <c r="G311" s="9">
-        <f>SUM(K308:K318)</f>
-        <v>165</v>
+        <f>86</f>
+        <v>86</v>
       </c>
       <c r="H311" s="9">
-        <f>COUNTA(J308:J318)</f>
-        <v>11</v>
-      </c>
-      <c r="J311" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="K311" s="9">
-        <v>15</v>
-      </c>
+        <f>48+13</f>
+        <v>61</v>
+      </c>
+      <c r="J311" s="11"/>
+      <c r="K311" s="11"/>
     </row>
     <row r="312" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C312" s="10">
-        <v>44254</v>
+        <v>44285</v>
       </c>
       <c r="D312" s="9">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>1.4098360655737705</v>
       </c>
       <c r="E312" s="9">
         <v>3</v>
@@ -13172,27 +13345,22 @@
         <v>6</v>
       </c>
       <c r="G312" s="9">
-        <f>SUM(K308:K318)</f>
-        <v>165</v>
+        <f>86</f>
+        <v>86</v>
       </c>
       <c r="H312" s="9">
-        <f>COUNTA(J308:J318)</f>
-        <v>11</v>
-      </c>
-      <c r="J312" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="K312" s="9">
-        <v>15</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="J312" s="11"/>
+      <c r="K312" s="11"/>
     </row>
     <row r="313" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C313" s="10">
-        <v>44255</v>
+        <v>44290</v>
       </c>
       <c r="D313" s="9">
         <f>G313/H313</f>
-        <v>15</v>
+        <v>1.4098360655737705</v>
       </c>
       <c r="E313" s="9">
         <v>3</v>
@@ -13201,27 +13369,22 @@
         <v>6</v>
       </c>
       <c r="G313" s="9">
-        <f>SUM(K308:K318)</f>
-        <v>165</v>
+        <f>86</f>
+        <v>86</v>
       </c>
       <c r="H313" s="9">
-        <f>COUNTA(J308:J318)</f>
-        <v>11</v>
-      </c>
-      <c r="J313" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="K313" s="9">
-        <v>15</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="J313" s="11"/>
+      <c r="K313" s="11"/>
     </row>
     <row r="314" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C314" s="10">
-        <v>44256</v>
+        <v>44295</v>
       </c>
       <c r="D314" s="9">
         <f t="shared" ref="D314:D318" si="6">G314/H314</f>
-        <v>15</v>
+        <v>1.5</v>
       </c>
       <c r="E314" s="9">
         <v>3</v>
@@ -13230,27 +13393,21 @@
         <v>6</v>
       </c>
       <c r="G314" s="9">
-        <f>SUM(K308:K318)</f>
-        <v>165</v>
+        <v>96</v>
       </c>
       <c r="H314" s="9">
-        <f>COUNTA(J308:J318)</f>
-        <v>11</v>
-      </c>
-      <c r="J314" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="K314" s="9">
-        <v>15</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="J314" s="11"/>
+      <c r="K314" s="11"/>
     </row>
     <row r="315" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C315" s="10">
-        <v>44257</v>
+        <v>44300</v>
       </c>
       <c r="D315" s="9">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>1.5</v>
       </c>
       <c r="E315" s="9">
         <v>3</v>
@@ -13259,110 +13416,47 @@
         <v>6</v>
       </c>
       <c r="G315" s="9">
-        <f>SUM(K308:K318)</f>
-        <v>165</v>
+        <v>96</v>
       </c>
       <c r="H315" s="9">
-        <f>COUNTA(J308:J318)</f>
-        <v>11</v>
-      </c>
-      <c r="J315" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="K315" s="9">
-        <v>15</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="J315" s="11"/>
+      <c r="K315" s="11"/>
     </row>
     <row r="316" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C316" s="10">
-        <v>44258</v>
-      </c>
-      <c r="D316" s="9">
-        <f t="shared" si="6"/>
-        <v>15</v>
-      </c>
-      <c r="E316" s="9">
-        <v>3</v>
-      </c>
-      <c r="F316" s="9">
-        <v>6</v>
-      </c>
-      <c r="G316" s="9">
-        <f>SUM(K308:K318)</f>
-        <v>165</v>
-      </c>
-      <c r="H316" s="9">
-        <f>COUNTA(J308:J318)</f>
-        <v>11</v>
-      </c>
-      <c r="J316" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="K316" s="9">
-        <v>15</v>
-      </c>
+      <c r="C316" s="10"/>
+      <c r="D316" s="9"/>
+      <c r="E316" s="9"/>
+      <c r="F316" s="9"/>
+      <c r="G316" s="9"/>
+      <c r="H316" s="9"/>
+      <c r="J316" s="11"/>
+      <c r="K316" s="11"/>
     </row>
     <row r="317" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C317" s="10">
-        <v>44259</v>
-      </c>
-      <c r="D317" s="9">
-        <f t="shared" si="6"/>
-        <v>15</v>
-      </c>
-      <c r="E317" s="9">
-        <v>3</v>
-      </c>
-      <c r="F317" s="9">
-        <v>6</v>
-      </c>
-      <c r="G317" s="9">
-        <f>SUM(K308:K318)</f>
-        <v>165</v>
-      </c>
-      <c r="H317" s="9">
-        <f>COUNTA(J308:J318)</f>
-        <v>11</v>
-      </c>
-      <c r="J317" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="K317" s="9">
-        <v>15</v>
-      </c>
+      <c r="C317" s="10"/>
+      <c r="D317" s="9"/>
+      <c r="E317" s="9"/>
+      <c r="F317" s="9"/>
+      <c r="G317" s="9"/>
+      <c r="H317" s="9"/>
+      <c r="J317" s="11"/>
+      <c r="K317" s="11"/>
     </row>
     <row r="318" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C318" s="10">
-        <v>44260</v>
-      </c>
-      <c r="D318" s="9">
-        <f t="shared" si="6"/>
-        <v>15</v>
-      </c>
-      <c r="E318" s="9">
-        <v>3</v>
-      </c>
-      <c r="F318" s="9">
-        <v>6</v>
-      </c>
-      <c r="G318" s="9">
-        <f>SUM(K308:K318)</f>
-        <v>165</v>
-      </c>
-      <c r="H318" s="9">
-        <f>COUNTA(J308:J318)</f>
-        <v>11</v>
-      </c>
-      <c r="J318" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="K318" s="9">
-        <v>15</v>
-      </c>
+      <c r="C318" s="10"/>
+      <c r="D318" s="9"/>
+      <c r="E318" s="9"/>
+      <c r="F318" s="9"/>
+      <c r="G318" s="9"/>
+      <c r="H318" s="9"/>
+      <c r="J318" s="11"/>
+      <c r="K318" s="11"/>
     </row>
     <row r="367" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C367" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D367" s="2"/>
       <c r="E367" s="2"/>
@@ -13372,13 +13466,13 @@
         <v>0</v>
       </c>
       <c r="D368" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E368" s="5" t="s">
         <v>1</v>
       </c>
       <c r="F368" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="369" spans="3:6" x14ac:dyDescent="0.3">

--- a/DocumentazioneEsterna/PianoDiQualifica/res/ResocontoAttivitaDiVerifica/res/metriche/grafici/qualitàProdotto/qualitàProdotto.xlsx
+++ b/DocumentazioneEsterna/PianoDiQualifica/res/ResocontoAttivitaDiVerifica/res/metriche/grafici/qualitàProdotto/qualitàProdotto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Università\Terzo anno\SWE\Progetto\Documentazione\DocumentazioneEsterna\PianoDiQualifica\res\ResocontoAttivitaDiVerifica\res\metriche\grafici\qualitàProdotto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F50CB2-6294-4E94-9923-00018FBBB413}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C42E1AB-133D-4134-B1C9-463BBD87C4CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E6A987FF-90E1-49FC-8E34-192DB323E80C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="81">
   <si>
     <t>Periodo</t>
   </si>
@@ -250,6 +250,33 @@
   <si>
     <t>User</t>
   </si>
+  <si>
+    <t>Dimensione gerarchia</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>PD</t>
+  </si>
+  <si>
+    <t>VC</t>
+  </si>
+  <si>
+    <t>Accettabile</t>
+  </si>
+  <si>
+    <t>Sito per utente non loggato</t>
+  </si>
+  <si>
+    <t>Sito per cliente</t>
+  </si>
+  <si>
+    <t>Sito per venditore</t>
+  </si>
 </sst>
 </file>
 
@@ -311,7 +338,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -345,11 +372,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -366,6 +406,15 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1056,10 +1105,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Sviluppo!$C$46:$C$56</c:f>
+              <c:f>Sviluppo!$C$46:$C$53</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>44265</c:v>
                 </c:pt>
@@ -1089,10 +1138,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$F$46:$F$56</c:f>
+              <c:f>Sviluppo!$F$46:$F$53</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0.15</c:v>
                 </c:pt>
@@ -1238,10 +1287,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sviluppo!$C$46:$C$56</c:f>
+              <c:f>Sviluppo!$C$46:$C$53</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>44265</c:v>
                 </c:pt>
@@ -1271,33 +1320,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$D$46:$D$56</c:f>
+              <c:f>Sviluppo!$D$46:$D$53</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.1</c:v>
+                  <c:v>0.1111111111111111</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1</c:v>
+                  <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1</c:v>
+                  <c:v>9.6774193548387094E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1</c:v>
+                  <c:v>4.8387096774193547E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1</c:v>
+                  <c:v>1.282051282051282E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.1</c:v>
+                  <c:v>2.2222222222222223E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1337,10 +1386,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sviluppo!$C$46:$C$56</c:f>
+              <c:f>Sviluppo!$C$46:$C$53</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>44265</c:v>
                 </c:pt>
@@ -1370,10 +1419,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$E$46:$E$56</c:f>
+              <c:f>Sviluppo!$E$46:$E$53</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1525,6 +1574,8 @@
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
+        <c:majorUnit val="5"/>
+        <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
         <c:axId val="365909112"/>
@@ -1769,52 +1820,43 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Sviluppo!$C$90:$C$100</c:f>
+              <c:f>Sviluppo!$C$90:$C$97</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>44250</c:v>
+                  <c:v>44265</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44251</c:v>
+                  <c:v>44270</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44252</c:v>
+                  <c:v>44275</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44253</c:v>
+                  <c:v>44280</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44254</c:v>
+                  <c:v>44285</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44255</c:v>
+                  <c:v>44290</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44256</c:v>
+                  <c:v>44295</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44257</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44258</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44259</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44260</c:v>
+                  <c:v>44300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$F$90:$F$100</c:f>
+              <c:f>Sviluppo!$F$90:$F$97</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>15</c:v>
                 </c:pt>
@@ -1837,15 +1879,6 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
@@ -1899,52 +1932,43 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Sviluppo!$C$90:$C$100</c:f>
+              <c:f>Sviluppo!$C$90:$C$97</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>44250</c:v>
+                  <c:v>44265</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44251</c:v>
+                  <c:v>44270</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44252</c:v>
+                  <c:v>44275</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44253</c:v>
+                  <c:v>44280</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44254</c:v>
+                  <c:v>44285</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44255</c:v>
+                  <c:v>44290</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44256</c:v>
+                  <c:v>44295</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44257</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44258</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44259</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44260</c:v>
+                  <c:v>44300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$E$90:$E$100</c:f>
+              <c:f>Sviluppo!$E$90:$E$97</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -1967,15 +1991,6 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -2099,52 +2114,43 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sviluppo!$C$90:$C$100</c:f>
+              <c:f>Sviluppo!$C$90:$C$97</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>44250</c:v>
+                  <c:v>44265</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44251</c:v>
+                  <c:v>44270</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44252</c:v>
+                  <c:v>44275</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44253</c:v>
+                  <c:v>44280</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44254</c:v>
+                  <c:v>44285</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44255</c:v>
+                  <c:v>44290</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44256</c:v>
+                  <c:v>44295</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44257</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44258</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44259</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44260</c:v>
+                  <c:v>44300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$D$90:$D$100</c:f>
+              <c:f>Sviluppo!$D$90:$D$97</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -2152,31 +2158,22 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2305,6 +2302,8 @@
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
+        <c:majorUnit val="5"/>
+        <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
         <c:axId val="365909112"/>
@@ -5686,37 +5685,28 @@
                 <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>44250</c:v>
+                  <c:v>44265</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44251</c:v>
+                  <c:v>44270</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44252</c:v>
+                  <c:v>44275</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44253</c:v>
+                  <c:v>44280</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44254</c:v>
+                  <c:v>44285</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44255</c:v>
+                  <c:v>44290</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44256</c:v>
+                  <c:v>44295</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44257</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44258</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44259</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44260</c:v>
+                  <c:v>44300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5749,15 +5739,6 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
@@ -5816,37 +5797,28 @@
                 <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>44250</c:v>
+                  <c:v>44265</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44251</c:v>
+                  <c:v>44270</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44252</c:v>
+                  <c:v>44275</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44253</c:v>
+                  <c:v>44280</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44254</c:v>
+                  <c:v>44285</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44255</c:v>
+                  <c:v>44290</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44256</c:v>
+                  <c:v>44295</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44257</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44258</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44259</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44260</c:v>
+                  <c:v>44300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5879,15 +5851,6 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
@@ -5951,6 +5914,64 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Sviluppo!$C$369:$C$379</c:f>
@@ -5958,37 +5979,28 @@
                 <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>44250</c:v>
+                  <c:v>44265</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44251</c:v>
+                  <c:v>44270</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44252</c:v>
+                  <c:v>44275</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44253</c:v>
+                  <c:v>44280</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44254</c:v>
+                  <c:v>44285</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44255</c:v>
+                  <c:v>44290</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44256</c:v>
+                  <c:v>44295</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44257</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44258</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44259</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44260</c:v>
+                  <c:v>44300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6000,19 +6012,19 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2</c:v>
@@ -6021,15 +6033,6 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -6159,6 +6162,8 @@
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
+        <c:majorUnit val="5"/>
+        <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
         <c:axId val="365909112"/>
@@ -6368,6 +6373,775 @@
     <a:p>
       <a:pPr>
         <a:defRPr u="none"/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Dimensione</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t> gerarchia</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Accettabile</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sviluppo!$C$418:$C$420</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Sito per utente non loggato</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sito per cliente</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sito per venditore</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sviluppo!$I$418:$I$420</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-226D-4965-9E16-F2F95E63B02D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="365907192"/>
+        <c:axId val="365909112"/>
+      </c:areaChart>
+      <c:areaChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Ottimale</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sviluppo!$C$418:$C$420</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Sito per utente non loggato</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sito per cliente</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sito per venditore</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sviluppo!$H$418:$H$420</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-226D-4965-9E16-F2F95E63B02D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="498492048"/>
+        <c:axId val="498490768"/>
+      </c:areaChart>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>A</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sviluppo!$C$418:$C$420</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Sito per utente non loggato</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sito per cliente</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sito per venditore</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sviluppo!$D$418:$D$420</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-226D-4965-9E16-F2F95E63B02D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>PA</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sviluppo!$C$418:$C$420</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Sito per utente non loggato</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sito per cliente</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sito per venditore</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sviluppo!$E$418:$E$420</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-226D-4965-9E16-F2F95E63B02D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>PD</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sviluppo!$C$418:$C$420</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Sito per utente non loggato</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sito per cliente</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sito per venditore</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sviluppo!$F$418:$F$420</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-226D-4965-9E16-F2F95E63B02D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>VC</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sviluppo!$C$418:$C$420</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Sito per utente non loggato</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sito per cliente</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sito per venditore</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sviluppo!$G$418:$G$420</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-226D-4965-9E16-F2F95E63B02D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="500"/>
+        <c:overlap val="100"/>
+        <c:axId val="365907192"/>
+        <c:axId val="365909112"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="365907192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="365909112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="365909112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Profondità</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="365907192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="498490768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="498492048"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="498492048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="498490768"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="0"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
       </a:pPr>
       <a:endParaRPr lang="it-IT"/>
     </a:p>
@@ -6700,6 +7474,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
   <cs:axisTitle>
@@ -10313,6 +11127,522 @@
 </file>
 
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10876,8 +12206,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>297480</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1569720</xdr:colOff>
       <xdr:row>78</xdr:row>
       <xdr:rowOff>156960</xdr:rowOff>
     </xdr:to>
@@ -11134,6 +12464,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>427</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1310640</xdr:colOff>
+      <xdr:row>446</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Grafico 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BCAF00D-E5D6-4F7F-972D-F45864F6F3C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -11434,10 +12802,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4F4DE7-87B1-4CD4-B318-8D739C70AC78}">
-  <dimension ref="C6:L379"/>
+  <dimension ref="C6:L429"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="G343" sqref="G343"/>
+    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11681,7 +13049,7 @@
       </c>
       <c r="D46" s="6">
         <f>(G46/H46)</f>
-        <v>0.1</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E46" s="6">
         <v>0</v>
@@ -11690,10 +13058,10 @@
         <v>0.15</v>
       </c>
       <c r="G46" s="9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H46" s="9">
-        <v>100</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="3:8" x14ac:dyDescent="0.3">
@@ -11702,7 +13070,7 @@
       </c>
       <c r="D47" s="6">
         <f t="shared" ref="D47:D53" si="1">(G47/H47)</f>
-        <v>0.1</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="E47" s="6">
         <v>0</v>
@@ -11711,10 +13079,10 @@
         <v>0.15</v>
       </c>
       <c r="G47" s="9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H47" s="9">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="3:8" x14ac:dyDescent="0.3">
@@ -11723,7 +13091,7 @@
       </c>
       <c r="D48" s="6">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>9.6774193548387094E-2</v>
       </c>
       <c r="E48" s="6">
         <v>0</v>
@@ -11732,10 +13100,10 @@
         <v>0.15</v>
       </c>
       <c r="G48" s="9">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H48" s="9">
-        <v>100</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="3:8" x14ac:dyDescent="0.3">
@@ -11744,7 +13112,7 @@
       </c>
       <c r="D49" s="6">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>4.8387096774193547E-2</v>
       </c>
       <c r="E49" s="6">
         <v>0</v>
@@ -11753,10 +13121,10 @@
         <v>0.15</v>
       </c>
       <c r="G49" s="9">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H49" s="9">
-        <v>100</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="3:8" x14ac:dyDescent="0.3">
@@ -11765,7 +13133,7 @@
       </c>
       <c r="D50" s="6">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E50" s="6">
         <v>0</v>
@@ -11774,10 +13142,10 @@
         <v>0.15</v>
       </c>
       <c r="G50" s="9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H50" s="9">
-        <v>100</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="3:8" x14ac:dyDescent="0.3">
@@ -11786,7 +13154,7 @@
       </c>
       <c r="D51" s="6">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>1.282051282051282E-2</v>
       </c>
       <c r="E51" s="6">
         <v>0</v>
@@ -11795,10 +13163,10 @@
         <v>0.15</v>
       </c>
       <c r="G51" s="9">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H51" s="9">
-        <v>100</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52" spans="3:8" x14ac:dyDescent="0.3">
@@ -11807,7 +13175,7 @@
       </c>
       <c r="D52" s="6">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E52" s="6">
         <v>0</v>
@@ -11816,10 +13184,10 @@
         <v>0.15</v>
       </c>
       <c r="G52" s="9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H52" s="9">
-        <v>100</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53" spans="3:8" x14ac:dyDescent="0.3">
@@ -11828,7 +13196,7 @@
       </c>
       <c r="D53" s="6">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>2.2222222222222223E-2</v>
       </c>
       <c r="E53" s="6">
         <v>0</v>
@@ -11837,10 +13205,10 @@
         <v>0.15</v>
       </c>
       <c r="G53" s="9">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H53" s="9">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54" spans="3:8" x14ac:dyDescent="0.3">
@@ -11893,7 +13261,7 @@
     </row>
     <row r="90" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C90" s="10">
-        <v>44250</v>
+        <v>44265</v>
       </c>
       <c r="D90" s="9">
         <v>2</v>
@@ -11909,7 +13277,7 @@
     </row>
     <row r="91" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C91" s="10">
-        <v>44251</v>
+        <v>44270</v>
       </c>
       <c r="D91" s="9">
         <v>2</v>
@@ -11925,10 +13293,10 @@
     </row>
     <row r="92" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C92" s="10">
-        <v>44252</v>
+        <v>44275</v>
       </c>
       <c r="D92" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E92" s="9">
         <v>10</v>
@@ -11941,10 +13309,10 @@
     </row>
     <row r="93" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C93" s="10">
-        <v>44253</v>
+        <v>44280</v>
       </c>
       <c r="D93" s="9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E93" s="9">
         <v>10</v>
@@ -11957,10 +13325,10 @@
     </row>
     <row r="94" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C94" s="10">
-        <v>44254</v>
+        <v>44285</v>
       </c>
       <c r="D94" s="9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E94" s="9">
         <v>10</v>
@@ -11973,10 +13341,10 @@
     </row>
     <row r="95" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C95" s="10">
-        <v>44255</v>
+        <v>44290</v>
       </c>
       <c r="D95" s="9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E95" s="9">
         <v>10</v>
@@ -11989,10 +13357,10 @@
     </row>
     <row r="96" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C96" s="10">
-        <v>44256</v>
+        <v>44295</v>
       </c>
       <c r="D96" s="9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E96" s="9">
         <v>10</v>
@@ -12004,66 +13372,42 @@
       <c r="H96" s="11"/>
     </row>
     <row r="97" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C97" s="10">
-        <v>44257</v>
-      </c>
-      <c r="D97" s="9">
-        <v>2</v>
-      </c>
-      <c r="E97" s="9">
+      <c r="C97" s="23">
+        <v>44300</v>
+      </c>
+      <c r="D97" s="24">
+        <v>7</v>
+      </c>
+      <c r="E97" s="24">
         <v>10</v>
       </c>
-      <c r="F97" s="9">
+      <c r="F97" s="24">
         <v>15</v>
       </c>
       <c r="G97" s="11"/>
       <c r="H97" s="11"/>
     </row>
     <row r="98" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C98" s="10">
-        <v>44258</v>
-      </c>
-      <c r="D98" s="9">
-        <v>2</v>
-      </c>
-      <c r="E98" s="9">
-        <v>10</v>
-      </c>
-      <c r="F98" s="9">
-        <v>15</v>
-      </c>
+      <c r="C98" s="21"/>
+      <c r="D98" s="22"/>
+      <c r="E98" s="22"/>
+      <c r="F98" s="22"/>
       <c r="G98" s="11"/>
       <c r="H98" s="11"/>
     </row>
     <row r="99" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C99" s="10">
-        <v>44259</v>
-      </c>
-      <c r="D99" s="9">
-        <v>2</v>
-      </c>
-      <c r="E99" s="9">
-        <v>10</v>
-      </c>
-      <c r="F99" s="9">
-        <v>15</v>
-      </c>
+      <c r="C99" s="21"/>
+      <c r="D99" s="22"/>
+      <c r="E99" s="22"/>
+      <c r="F99" s="22"/>
       <c r="G99" s="11"/>
       <c r="H99" s="11"/>
     </row>
     <row r="100" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C100" s="10">
-        <v>44260</v>
-      </c>
-      <c r="D100" s="9">
-        <v>2</v>
-      </c>
-      <c r="E100" s="9">
-        <v>10</v>
-      </c>
-      <c r="F100" s="9">
-        <v>15</v>
-      </c>
+      <c r="C100" s="21"/>
+      <c r="D100" s="22"/>
+      <c r="E100" s="22"/>
+      <c r="F100" s="22"/>
       <c r="G100" s="11"/>
       <c r="H100" s="11"/>
     </row>
@@ -12122,7 +13466,7 @@
         <v>44270</v>
       </c>
       <c r="D138" s="9">
-        <f t="shared" ref="D138:D147" si="2">G138/H138</f>
+        <f t="shared" ref="D138:D144" si="2">G138/H138</f>
         <v>1.6923076923076923</v>
       </c>
       <c r="E138" s="9">
@@ -12575,7 +13919,7 @@
         <v>44270</v>
       </c>
       <c r="D188" s="9">
-        <f t="shared" ref="D188:D197" si="3">G188/H188</f>
+        <f t="shared" ref="D188:D194" si="3">G188/H188</f>
         <v>11</v>
       </c>
       <c r="E188" s="9">
@@ -13008,7 +14352,7 @@
         <v>44270</v>
       </c>
       <c r="D252" s="9">
-        <f t="shared" ref="D252:D261" si="4">G252/H252</f>
+        <f t="shared" ref="D252:D258" si="4">G252/H252</f>
         <v>1.2857142857142858</v>
       </c>
       <c r="E252" s="9">
@@ -13383,7 +14727,7 @@
         <v>44295</v>
       </c>
       <c r="D314" s="9">
-        <f t="shared" ref="D314:D318" si="6">G314/H314</f>
+        <f t="shared" ref="D314:D315" si="6">G314/H314</f>
         <v>1.5</v>
       </c>
       <c r="E314" s="9">
@@ -13477,10 +14821,10 @@
     </row>
     <row r="369" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C369" s="10">
-        <v>44250</v>
+        <v>44265</v>
       </c>
       <c r="D369" s="9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E369" s="9">
         <v>6</v>
@@ -13491,10 +14835,10 @@
     </row>
     <row r="370" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C370" s="10">
-        <v>44251</v>
+        <v>44270</v>
       </c>
       <c r="D370" s="9">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E370" s="9">
         <v>6</v>
@@ -13505,10 +14849,10 @@
     </row>
     <row r="371" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C371" s="10">
-        <v>44252</v>
+        <v>44275</v>
       </c>
       <c r="D371" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E371" s="9">
         <v>6</v>
@@ -13519,10 +14863,10 @@
     </row>
     <row r="372" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C372" s="10">
-        <v>44253</v>
+        <v>44280</v>
       </c>
       <c r="D372" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E372" s="9">
         <v>6</v>
@@ -13533,10 +14877,10 @@
     </row>
     <row r="373" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C373" s="10">
-        <v>44254</v>
+        <v>44285</v>
       </c>
       <c r="D373" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E373" s="9">
         <v>6</v>
@@ -13547,7 +14891,7 @@
     </row>
     <row r="374" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C374" s="10">
-        <v>44255</v>
+        <v>44290</v>
       </c>
       <c r="D374" s="9">
         <v>2</v>
@@ -13561,7 +14905,7 @@
     </row>
     <row r="375" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C375" s="10">
-        <v>44256</v>
+        <v>44295</v>
       </c>
       <c r="D375" s="9">
         <v>2</v>
@@ -13575,7 +14919,7 @@
     </row>
     <row r="376" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C376" s="10">
-        <v>44257</v>
+        <v>44300</v>
       </c>
       <c r="D376" s="9">
         <v>2</v>
@@ -13588,46 +14932,177 @@
       </c>
     </row>
     <row r="377" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C377" s="10">
-        <v>44258</v>
-      </c>
-      <c r="D377" s="9">
-        <v>2</v>
-      </c>
-      <c r="E377" s="9">
-        <v>6</v>
-      </c>
-      <c r="F377" s="9">
+      <c r="C377" s="10"/>
+      <c r="D377" s="9"/>
+      <c r="E377" s="9"/>
+      <c r="F377" s="9"/>
+    </row>
+    <row r="378" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C378" s="10"/>
+      <c r="D378" s="9"/>
+      <c r="E378" s="9"/>
+      <c r="F378" s="9"/>
+    </row>
+    <row r="379" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C379" s="10"/>
+      <c r="D379" s="9"/>
+      <c r="E379" s="9"/>
+      <c r="F379" s="9"/>
+    </row>
+    <row r="417" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C417" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D417" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E417" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F417" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G417" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H417" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I417" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="418" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C418" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D418" s="17"/>
+      <c r="E418" s="17"/>
+      <c r="F418" s="17">
+        <v>4</v>
+      </c>
+      <c r="G418" s="17"/>
+      <c r="H418" s="17">
+        <v>5</v>
+      </c>
+      <c r="I418" s="17">
         <v>8</v>
       </c>
     </row>
-    <row r="378" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C378" s="10">
-        <v>44259</v>
-      </c>
-      <c r="D378" s="9">
-        <v>2</v>
-      </c>
-      <c r="E378" s="9">
-        <v>6</v>
-      </c>
-      <c r="F378" s="9">
+    <row r="419" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C419" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D419" s="17"/>
+      <c r="E419" s="17"/>
+      <c r="F419" s="17">
+        <v>4</v>
+      </c>
+      <c r="G419" s="17"/>
+      <c r="H419" s="17">
+        <v>5</v>
+      </c>
+      <c r="I419" s="17">
         <v>8</v>
       </c>
     </row>
-    <row r="379" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C379" s="10">
-        <v>44260</v>
-      </c>
-      <c r="D379" s="9">
-        <v>2</v>
-      </c>
-      <c r="E379" s="9">
-        <v>6</v>
-      </c>
-      <c r="F379" s="9">
+    <row r="420" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C420" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D420" s="19"/>
+      <c r="E420" s="19"/>
+      <c r="F420" s="17">
+        <v>4</v>
+      </c>
+      <c r="G420" s="19"/>
+      <c r="H420" s="19">
+        <v>5</v>
+      </c>
+      <c r="I420" s="19">
         <v>8</v>
       </c>
+    </row>
+    <row r="421" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C421" s="20"/>
+      <c r="D421" s="20"/>
+      <c r="E421" s="20"/>
+      <c r="F421" s="20"/>
+      <c r="G421" s="20"/>
+      <c r="H421" s="19"/>
+      <c r="I421" s="20"/>
+    </row>
+    <row r="422" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C422" s="7"/>
+      <c r="D422" s="20"/>
+      <c r="E422" s="20"/>
+      <c r="F422" s="20"/>
+      <c r="G422" s="20"/>
+      <c r="H422" s="20"/>
+      <c r="I422" s="20"/>
+    </row>
+    <row r="423" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C423" s="21"/>
+      <c r="D423" s="20"/>
+      <c r="E423" s="20"/>
+      <c r="F423" s="20"/>
+      <c r="G423" s="20"/>
+      <c r="H423" s="20"/>
+      <c r="I423" s="20"/>
+    </row>
+    <row r="424" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C424" s="21"/>
+      <c r="D424" s="20"/>
+      <c r="E424" s="20"/>
+      <c r="F424" s="20"/>
+      <c r="G424" s="20"/>
+      <c r="H424" s="20"/>
+      <c r="I424" s="20"/>
+    </row>
+    <row r="425" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C425" s="21"/>
+      <c r="D425" s="20"/>
+      <c r="E425" s="20"/>
+      <c r="F425" s="20"/>
+      <c r="G425" s="20"/>
+      <c r="H425" s="20"/>
+      <c r="I425" s="20"/>
+    </row>
+    <row r="426" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C426" s="21"/>
+      <c r="D426" s="20"/>
+      <c r="E426" s="20"/>
+      <c r="F426" s="20"/>
+      <c r="G426" s="20"/>
+      <c r="H426" s="20"/>
+      <c r="I426" s="20"/>
+    </row>
+    <row r="427" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C427" s="21"/>
+      <c r="D427" s="20"/>
+      <c r="E427" s="20"/>
+      <c r="F427" s="20"/>
+      <c r="G427" s="20"/>
+      <c r="H427" s="20"/>
+      <c r="I427" s="20"/>
+    </row>
+    <row r="428" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C428" s="21"/>
+      <c r="D428" s="22"/>
+      <c r="E428" s="22"/>
+      <c r="F428" s="22"/>
+      <c r="G428" s="20"/>
+      <c r="H428" s="20"/>
+      <c r="I428" s="20"/>
+    </row>
+    <row r="429" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C429" s="21"/>
+      <c r="D429" s="22"/>
+      <c r="E429" s="22"/>
+      <c r="F429" s="22"/>
+      <c r="G429" s="20"/>
+      <c r="H429" s="20"/>
+      <c r="I429" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DocumentazioneEsterna/PianoDiQualifica/res/ResocontoAttivitaDiVerifica/res/metriche/grafici/qualitàProdotto/qualitàProdotto.xlsx
+++ b/DocumentazioneEsterna/PianoDiQualifica/res/ResocontoAttivitaDiVerifica/res/metriche/grafici/qualitàProdotto/qualitàProdotto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Università\Terzo anno\SWE\Progetto\Documentazione\DocumentazioneEsterna\PianoDiQualifica\res\ResocontoAttivitaDiVerifica\res\metriche\grafici\qualitàProdotto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C42E1AB-133D-4134-B1C9-463BBD87C4CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E399C9A3-6A4B-4F9F-83A6-FF8906CEB4FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E6A987FF-90E1-49FC-8E34-192DB323E80C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="85">
   <si>
     <t>Periodo</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>DE</t>
-  </si>
-  <si>
-    <t>Accettable</t>
   </si>
   <si>
     <t>Facilità utilizzo</t>
@@ -276,6 +273,21 @@
   </si>
   <si>
     <t>Sito per venditore</t>
+  </si>
+  <si>
+    <t>Facilità comprensione FE</t>
+  </si>
+  <si>
+    <t>FC</t>
+  </si>
+  <si>
+    <t>linee commenti</t>
+  </si>
+  <si>
+    <t>linee codice</t>
+  </si>
+  <si>
+    <t>Facilità comprensione BE</t>
   </si>
 </sst>
 </file>
@@ -805,6 +817,1479 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Data</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="yyyy\-mm\-dd;@" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="365909112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+        <c:majorUnit val="5"/>
+        <c:majorTimeUnit val="days"/>
+        <c:minorUnit val="5"/>
+        <c:minorTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="365909112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="365907192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="0"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Facilità</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t> comprensione Front-end</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.27264703707811172"/>
+          <c:y val="2.2650197170030157E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sviluppo!$D$464</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sviluppo!$C$465:$C$472</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>44265</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44270</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44275</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44280</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44285</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44290</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44295</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sviluppo!$D$465:$D$472</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.6666666666666666E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6207455429497569E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.9675850891410053E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.13371150729335493</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4B33-42F6-852F-DA376FF23324}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sviluppo!$E$464</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ottimale</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sviluppo!$C$465:$C$472</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>44265</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44270</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44275</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44280</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44285</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44290</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44295</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sviluppo!$E$465:$E$472</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-4B33-42F6-852F-DA376FF23324}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sviluppo!$F$464</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accettabile</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sviluppo!$C$465:$C$472</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>44265</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44270</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44275</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44280</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44285</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44290</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44295</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sviluppo!$F$465:$F$472</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-4B33-42F6-852F-DA376FF23324}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="365907192"/>
+        <c:axId val="365909112"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="365907192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Data</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="yyyy\-mm\-dd;@" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="365909112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+        <c:majorUnit val="5"/>
+        <c:majorTimeUnit val="days"/>
+        <c:minorUnit val="5"/>
+        <c:minorTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="365909112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="365907192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="0"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Facilità</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t> comprensione Back-end</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.27264703707811172"/>
+          <c:y val="2.2650197170030157E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sviluppo!$D$516</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sviluppo!$C$517:$C$524</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>44265</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44270</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44275</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44280</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44285</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44290</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44295</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sviluppo!$D$517:$D$524</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8571428571428571E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12857142857142856</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.9664053751399778E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.7322239031770051E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.10337972166998012</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.11530815109343936</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5A5A-4990-8C9A-42CB0C98D324}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sviluppo!$E$516</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ottimale</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sviluppo!$C$517:$C$524</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>44265</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44270</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44275</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44280</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44285</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44290</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44295</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sviluppo!$E$517:$E$524</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5A5A-4990-8C9A-42CB0C98D324}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sviluppo!$F$516</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accettabile</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sviluppo!$C$517:$C$524</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>44265</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44270</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44275</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44280</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44285</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44290</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44295</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sviluppo!$F$517:$F$524</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5A5A-4990-8C9A-42CB0C98D324}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="365907192"/>
+        <c:axId val="365909112"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="365907192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Data</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="yyyy\-mm\-dd;@" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1023,7 +2508,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="it-IT" baseline="0"/>
-              <a:t> errori</a:t>
+              <a:t> degli errori</a:t>
             </a:r>
             <a:endParaRPr lang="it-IT"/>
           </a:p>
@@ -1081,7 +2566,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Accettable</c:v>
+                  <c:v>Accettabile</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1744,7 +3229,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="it-IT"/>
-              <a:t>Facilità utilizzo</a:t>
+              <a:t>Facilità di utilizzo</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1801,7 +3286,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Accettable</c:v>
+                  <c:v>Accettabile</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2560,7 +4045,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="it-IT"/>
-              <a:t>Semplicità classi FE</a:t>
+              <a:t>Semplicità classi Front-end</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2569,7 +4054,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.39084760093003595"/>
+          <c:x val="0.35122056421269027"/>
           <c:y val="2.2650197170030157E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -2617,7 +4102,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Accettable</c:v>
+                  <c:v>Accettabile</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3321,7 +4806,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="it-IT"/>
-              <a:t>Semplicità classi BE</a:t>
+              <a:t>Semplicità classi Back-end</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3330,7 +4815,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.39084760093003595"/>
+          <c:x val="0.33345873014079841"/>
           <c:y val="2.2650197170030157E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -3378,7 +4863,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Accettable</c:v>
+                  <c:v>Accettabile</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4082,7 +5567,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="it-IT"/>
-              <a:t>Semplicità funzioni FE</a:t>
+              <a:t>Semplicità funzioni Front-end</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4091,7 +5576,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.39084760093003595"/>
+          <c:x val="0.33913148902931556"/>
           <c:y val="2.2650197170030157E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -4139,7 +5624,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Accettable</c:v>
+                  <c:v>Accettabile</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4843,7 +6328,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="it-IT"/>
-              <a:t>Semplicità funzioni BE</a:t>
+              <a:t>Semplicità funzioni Back-end</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4852,7 +6337,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.39084760093003595"/>
+          <c:x val="0.31982484788833215"/>
           <c:y val="2.2650197170030157E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -4900,7 +6385,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Accettable</c:v>
+                  <c:v>Accettabile</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5604,7 +7089,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="it-IT"/>
-              <a:t>Facilità apprendimento</a:t>
+              <a:t>Facilità di apprendimento</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5661,7 +7146,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Accettable</c:v>
+                  <c:v>Accettabile</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7194,6 +8679,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -7515,6 +9080,1038 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12502,6 +15099,82 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>484</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>502</xdr:row>
+      <xdr:rowOff>156960</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Grafico 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A24661C5-9D12-40D2-83D5-53275C236C7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>541</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>559</xdr:row>
+      <xdr:rowOff>156960</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Grafico 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7916D9BA-D237-4026-9289-949E7C79B8EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12802,10 +15475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4F4DE7-87B1-4CD4-B318-8D739C70AC78}">
-  <dimension ref="C6:L429"/>
+  <dimension ref="C6:L527"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:C15"/>
+    <sheetView tabSelected="1" topLeftCell="A254" workbookViewId="0">
+      <selection activeCell="H557" sqref="H557"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13017,7 +15690,7 @@
     </row>
     <row r="44" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -13034,7 +15707,7 @@
         <v>1</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>6</v>
@@ -13237,7 +15910,7 @@
     </row>
     <row r="88" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -13248,13 +15921,13 @@
         <v>0</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E89" s="5" t="s">
         <v>1</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="G89" s="7"/>
       <c r="H89" s="7"/>
@@ -13413,7 +16086,7 @@
     </row>
     <row r="135" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C135" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -13423,19 +16096,19 @@
         <v>0</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E136" s="5" t="s">
         <v>1</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="G136" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H136" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="H136" s="5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="137" spans="3:8" x14ac:dyDescent="0.3">
@@ -13648,15 +16321,15 @@
     </row>
     <row r="160" spans="3:12" x14ac:dyDescent="0.3">
       <c r="K160" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L160" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="L160" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="161" spans="11:12" x14ac:dyDescent="0.3">
       <c r="K161" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L161" s="9">
         <v>6</v>
@@ -13664,7 +16337,7 @@
     </row>
     <row r="162" spans="11:12" x14ac:dyDescent="0.3">
       <c r="K162" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L162" s="9">
         <v>1</v>
@@ -13672,7 +16345,7 @@
     </row>
     <row r="163" spans="11:12" x14ac:dyDescent="0.3">
       <c r="K163" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L163" s="9">
         <v>2</v>
@@ -13680,7 +16353,7 @@
     </row>
     <row r="164" spans="11:12" x14ac:dyDescent="0.3">
       <c r="K164" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L164" s="9">
         <v>2</v>
@@ -13688,7 +16361,7 @@
     </row>
     <row r="165" spans="11:12" x14ac:dyDescent="0.3">
       <c r="K165" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L165" s="9">
         <v>1</v>
@@ -13696,7 +16369,7 @@
     </row>
     <row r="166" spans="11:12" x14ac:dyDescent="0.3">
       <c r="K166" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L166" s="9">
         <v>3</v>
@@ -13704,7 +16377,7 @@
     </row>
     <row r="167" spans="11:12" x14ac:dyDescent="0.3">
       <c r="K167" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L167" s="9">
         <v>1</v>
@@ -13712,7 +16385,7 @@
     </row>
     <row r="168" spans="11:12" x14ac:dyDescent="0.3">
       <c r="K168" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L168" s="9">
         <v>1</v>
@@ -13720,7 +16393,7 @@
     </row>
     <row r="169" spans="11:12" x14ac:dyDescent="0.3">
       <c r="K169" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L169" s="9">
         <v>1</v>
@@ -13728,7 +16401,7 @@
     </row>
     <row r="170" spans="11:12" x14ac:dyDescent="0.3">
       <c r="K170" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L170" s="9">
         <v>1</v>
@@ -13736,7 +16409,7 @@
     </row>
     <row r="171" spans="11:12" x14ac:dyDescent="0.3">
       <c r="K171" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L171" s="9">
         <v>1</v>
@@ -13744,7 +16417,7 @@
     </row>
     <row r="172" spans="11:12" x14ac:dyDescent="0.3">
       <c r="K172" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L172" s="15">
         <v>1</v>
@@ -13752,7 +16425,7 @@
     </row>
     <row r="173" spans="11:12" x14ac:dyDescent="0.3">
       <c r="K173" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L173" s="15">
         <v>1</v>
@@ -13760,7 +16433,7 @@
     </row>
     <row r="174" spans="11:12" x14ac:dyDescent="0.3">
       <c r="K174" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L174" s="15">
         <v>1</v>
@@ -13768,7 +16441,7 @@
     </row>
     <row r="175" spans="11:12" x14ac:dyDescent="0.3">
       <c r="K175" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L175" s="15">
         <v>3</v>
@@ -13776,7 +16449,7 @@
     </row>
     <row r="176" spans="11:12" x14ac:dyDescent="0.3">
       <c r="K176" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L176" s="15">
         <v>1</v>
@@ -13784,7 +16457,7 @@
     </row>
     <row r="177" spans="3:12" x14ac:dyDescent="0.3">
       <c r="K177" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L177" s="15">
         <v>1</v>
@@ -13792,7 +16465,7 @@
     </row>
     <row r="178" spans="3:12" x14ac:dyDescent="0.3">
       <c r="K178" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L178" s="15">
         <v>2</v>
@@ -13800,7 +16473,7 @@
     </row>
     <row r="179" spans="3:12" x14ac:dyDescent="0.3">
       <c r="K179" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L179" s="15">
         <v>1</v>
@@ -13808,7 +16481,7 @@
     </row>
     <row r="180" spans="3:12" x14ac:dyDescent="0.3">
       <c r="K180" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L180" s="15">
         <v>1</v>
@@ -13816,7 +16489,7 @@
     </row>
     <row r="181" spans="3:12" x14ac:dyDescent="0.3">
       <c r="K181" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L181" s="15">
         <v>1</v>
@@ -13824,7 +16497,7 @@
     </row>
     <row r="182" spans="3:12" x14ac:dyDescent="0.3">
       <c r="K182" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L182" s="15">
         <v>4</v>
@@ -13832,7 +16505,7 @@
     </row>
     <row r="183" spans="3:12" x14ac:dyDescent="0.3">
       <c r="K183" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L183" s="15">
         <v>1</v>
@@ -13840,7 +16513,7 @@
     </row>
     <row r="184" spans="3:12" x14ac:dyDescent="0.3">
       <c r="K184" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L184" s="15">
         <v>1</v>
@@ -13848,12 +16521,12 @@
     </row>
     <row r="185" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C185" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
       <c r="K185" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L185" s="15">
         <v>1</v>
@@ -13864,22 +16537,22 @@
         <v>0</v>
       </c>
       <c r="D186" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E186" s="5" t="s">
         <v>1</v>
       </c>
       <c r="F186" s="5" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="G186" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H186" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H186" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="K186" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L186" s="15">
         <v>1</v>
@@ -13908,7 +16581,7 @@
         <v>1</v>
       </c>
       <c r="K187" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L187" s="15">
         <v>1</v>
@@ -13937,7 +16610,7 @@
         <v>1</v>
       </c>
       <c r="K188" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L188" s="15">
         <v>3</v>
@@ -13966,7 +16639,7 @@
         <v>2</v>
       </c>
       <c r="K189" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L189" s="15">
         <v>1</v>
@@ -13995,7 +16668,7 @@
         <v>3</v>
       </c>
       <c r="K190" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L190" s="15">
         <v>2</v>
@@ -14024,7 +16697,7 @@
         <v>3</v>
       </c>
       <c r="K191" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L191" s="15">
         <v>2</v>
@@ -14053,7 +16726,7 @@
         <v>3</v>
       </c>
       <c r="K192" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L192" s="15">
         <v>1</v>
@@ -14082,7 +16755,7 @@
         <v>5</v>
       </c>
       <c r="K193" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L193" s="15">
         <v>1</v>
@@ -14111,7 +16784,7 @@
         <v>5</v>
       </c>
       <c r="K194" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L194" s="15">
         <v>1</v>
@@ -14125,7 +16798,7 @@
       <c r="G195" s="9"/>
       <c r="H195" s="9"/>
       <c r="K195" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L195" s="15">
         <v>2</v>
@@ -14139,7 +16812,7 @@
       <c r="G196" s="9"/>
       <c r="H196" s="9"/>
       <c r="K196" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L196" s="15">
         <v>1</v>
@@ -14153,7 +16826,7 @@
       <c r="G197" s="9"/>
       <c r="H197" s="9"/>
       <c r="K197" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L197" s="15">
         <v>2</v>
@@ -14161,7 +16834,7 @@
     </row>
     <row r="198" spans="3:12" x14ac:dyDescent="0.3">
       <c r="K198" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L198" s="15">
         <v>1</v>
@@ -14169,7 +16842,7 @@
     </row>
     <row r="199" spans="3:12" x14ac:dyDescent="0.3">
       <c r="K199" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L199" s="15">
         <v>1</v>
@@ -14177,7 +16850,7 @@
     </row>
     <row r="200" spans="3:12" x14ac:dyDescent="0.3">
       <c r="K200" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L200" s="15">
         <v>0</v>
@@ -14185,7 +16858,7 @@
     </row>
     <row r="201" spans="3:12" x14ac:dyDescent="0.3">
       <c r="K201" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L201" s="15">
         <v>0</v>
@@ -14193,7 +16866,7 @@
     </row>
     <row r="202" spans="3:12" x14ac:dyDescent="0.3">
       <c r="K202" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L202" s="15">
         <v>0</v>
@@ -14201,7 +16874,7 @@
     </row>
     <row r="203" spans="3:12" x14ac:dyDescent="0.3">
       <c r="K203" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L203" s="15">
         <v>2</v>
@@ -14209,7 +16882,7 @@
     </row>
     <row r="204" spans="3:12" x14ac:dyDescent="0.3">
       <c r="K204" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L204" s="15">
         <v>0</v>
@@ -14217,7 +16890,7 @@
     </row>
     <row r="205" spans="3:12" x14ac:dyDescent="0.3">
       <c r="K205" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L205" s="15">
         <v>0</v>
@@ -14225,15 +16898,15 @@
     </row>
     <row r="209" spans="11:12" x14ac:dyDescent="0.3">
       <c r="K209" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L209" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="L209" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="210" spans="11:12" x14ac:dyDescent="0.3">
       <c r="K210" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L210" s="9">
         <v>11</v>
@@ -14241,7 +16914,7 @@
     </row>
     <row r="211" spans="11:12" x14ac:dyDescent="0.3">
       <c r="K211" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L211" s="9">
         <v>2</v>
@@ -14249,7 +16922,7 @@
     </row>
     <row r="212" spans="11:12" x14ac:dyDescent="0.3">
       <c r="K212" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L212" s="9">
         <v>2</v>
@@ -14257,7 +16930,7 @@
     </row>
     <row r="213" spans="11:12" x14ac:dyDescent="0.3">
       <c r="K213" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L213" s="9">
         <v>2</v>
@@ -14265,7 +16938,7 @@
     </row>
     <row r="214" spans="11:12" x14ac:dyDescent="0.3">
       <c r="K214" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L214" s="9">
         <v>3</v>
@@ -14297,7 +16970,7 @@
     </row>
     <row r="249" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C249" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D249" s="2"/>
       <c r="E249" s="2"/>
@@ -14307,19 +16980,19 @@
         <v>0</v>
       </c>
       <c r="D250" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E250" s="5" t="s">
         <v>1</v>
       </c>
       <c r="F250" s="5" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="G250" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H250" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="H250" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="J250" s="7"/>
       <c r="K250" s="7"/>
@@ -14552,7 +17225,7 @@
     </row>
     <row r="306" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C306" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D306" s="2"/>
       <c r="E306" s="2"/>
@@ -14562,19 +17235,19 @@
         <v>0</v>
       </c>
       <c r="D307" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E307" s="5" t="s">
         <v>1</v>
       </c>
       <c r="F307" s="5" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="G307" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H307" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="H307" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="J307" s="7"/>
       <c r="K307" s="7"/>
@@ -14800,7 +17473,7 @@
     </row>
     <row r="367" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C367" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D367" s="2"/>
       <c r="E367" s="2"/>
@@ -14810,13 +17483,13 @@
         <v>0</v>
       </c>
       <c r="D368" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E368" s="5" t="s">
         <v>1</v>
       </c>
       <c r="F368" s="5" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
     </row>
     <row r="369" spans="3:6" x14ac:dyDescent="0.3">
@@ -14951,30 +17624,30 @@
     </row>
     <row r="417" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C417" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D417" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D417" s="5" t="s">
+      <c r="E417" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E417" s="5" t="s">
+      <c r="F417" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F417" s="5" t="s">
+      <c r="G417" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="G417" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="H417" s="5" t="s">
         <v>1</v>
       </c>
       <c r="I417" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="418" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C418" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D418" s="17"/>
       <c r="E418" s="17"/>
@@ -14991,7 +17664,7 @@
     </row>
     <row r="419" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C419" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D419" s="17"/>
       <c r="E419" s="17"/>
@@ -15008,7 +17681,7 @@
     </row>
     <row r="420" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C420" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D420" s="19"/>
       <c r="E420" s="19"/>
@@ -15104,6 +17777,444 @@
       <c r="H429" s="20"/>
       <c r="I429" s="20"/>
     </row>
+    <row r="463" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C463" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D463" s="2"/>
+      <c r="E463" s="2"/>
+    </row>
+    <row r="464" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C464" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D464" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E464" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F464" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G464" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H464" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="465" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C465" s="10">
+        <v>44265</v>
+      </c>
+      <c r="D465" s="6">
+        <f>G465/H465</f>
+        <v>0.1</v>
+      </c>
+      <c r="E465" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="F465" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="G465" s="9">
+        <v>10</v>
+      </c>
+      <c r="H465" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="466" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C466" s="10">
+        <v>44270</v>
+      </c>
+      <c r="D466" s="6">
+        <f t="shared" ref="D466:D472" si="7">G466/H466</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="E466" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="F466" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="G466" s="9">
+        <v>10</v>
+      </c>
+      <c r="H466" s="9">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="467" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C467" s="10">
+        <v>44275</v>
+      </c>
+      <c r="D467" s="6">
+        <f t="shared" si="7"/>
+        <v>0.125</v>
+      </c>
+      <c r="E467" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="F467" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="G467" s="9">
+        <v>20</v>
+      </c>
+      <c r="H467" s="9">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="468" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C468" s="10">
+        <v>44280</v>
+      </c>
+      <c r="D468" s="6">
+        <f t="shared" si="7"/>
+        <v>0.1</v>
+      </c>
+      <c r="E468" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="F468" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="G468" s="9">
+        <v>20</v>
+      </c>
+      <c r="H468" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="469" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C469" s="10">
+        <v>44285</v>
+      </c>
+      <c r="D469" s="6">
+        <f t="shared" si="7"/>
+        <v>0.05</v>
+      </c>
+      <c r="E469" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="F469" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="G469" s="9">
+        <v>20</v>
+      </c>
+      <c r="H469" s="9">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="470" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C470" s="10">
+        <v>44290</v>
+      </c>
+      <c r="D470" s="6">
+        <f t="shared" si="7"/>
+        <v>1.6207455429497569E-2</v>
+      </c>
+      <c r="E470" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="F470" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="G470" s="9">
+        <v>20</v>
+      </c>
+      <c r="H470" s="9">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="471" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C471" s="10">
+        <v>44295</v>
+      </c>
+      <c r="D471" s="6">
+        <f t="shared" si="7"/>
+        <v>9.9675850891410053E-2</v>
+      </c>
+      <c r="E471" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="F471" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="G471" s="9">
+        <v>123</v>
+      </c>
+      <c r="H471" s="9">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="472" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C472" s="10">
+        <v>44300</v>
+      </c>
+      <c r="D472" s="6">
+        <f t="shared" si="7"/>
+        <v>0.13371150729335493</v>
+      </c>
+      <c r="E472" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="F472" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="G472" s="9">
+        <v>165</v>
+      </c>
+      <c r="H472" s="9">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="473" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C473" s="10"/>
+      <c r="D473" s="9"/>
+      <c r="E473" s="9"/>
+      <c r="F473" s="9"/>
+      <c r="G473" s="9"/>
+      <c r="H473" s="9"/>
+    </row>
+    <row r="474" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C474" s="10"/>
+      <c r="D474" s="9"/>
+      <c r="E474" s="9"/>
+      <c r="F474" s="9"/>
+      <c r="G474" s="9"/>
+      <c r="H474" s="9"/>
+    </row>
+    <row r="475" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C475" s="10"/>
+      <c r="D475" s="9"/>
+      <c r="E475" s="9"/>
+      <c r="F475" s="9"/>
+      <c r="G475" s="9"/>
+      <c r="H475" s="9"/>
+    </row>
+    <row r="515" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C515" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D515" s="2"/>
+      <c r="E515" s="2"/>
+    </row>
+    <row r="516" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C516" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D516" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E516" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F516" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G516" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H516" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="517" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C517" s="10">
+        <v>44265</v>
+      </c>
+      <c r="D517" s="6">
+        <f>G517/H517</f>
+        <v>0.05</v>
+      </c>
+      <c r="E517" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="F517" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="G517" s="9">
+        <v>10</v>
+      </c>
+      <c r="H517" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="518" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C518" s="10">
+        <v>44270</v>
+      </c>
+      <c r="D518" s="6">
+        <f t="shared" ref="D518:D524" si="8">G518/H518</f>
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="E518" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="F518" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="G518" s="9">
+        <v>10</v>
+      </c>
+      <c r="H518" s="9">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="519" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C519" s="10">
+        <v>44275</v>
+      </c>
+      <c r="D519" s="6">
+        <f t="shared" si="8"/>
+        <v>0.12857142857142856</v>
+      </c>
+      <c r="E519" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="F519" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="G519" s="9">
+        <v>45</v>
+      </c>
+      <c r="H519" s="9">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="520" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C520" s="10">
+        <v>44280</v>
+      </c>
+      <c r="D520" s="6">
+        <f t="shared" si="8"/>
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="E520" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="F520" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="G520" s="9">
+        <v>89</v>
+      </c>
+      <c r="H520" s="9">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="521" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C521" s="10">
+        <v>44285</v>
+      </c>
+      <c r="D521" s="6">
+        <f t="shared" si="8"/>
+        <v>9.9664053751399778E-2</v>
+      </c>
+      <c r="E521" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="F521" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="G521" s="9">
+        <v>89</v>
+      </c>
+      <c r="H521" s="9">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="522" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C522" s="10">
+        <v>44290</v>
+      </c>
+      <c r="D522" s="6">
+        <f t="shared" si="8"/>
+        <v>6.7322239031770051E-2</v>
+      </c>
+      <c r="E522" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="F522" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="G522" s="9">
+        <v>89</v>
+      </c>
+      <c r="H522" s="9">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="523" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C523" s="10">
+        <v>44295</v>
+      </c>
+      <c r="D523" s="6">
+        <f t="shared" si="8"/>
+        <v>0.10337972166998012</v>
+      </c>
+      <c r="E523" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="F523" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="G523" s="9">
+        <v>156</v>
+      </c>
+      <c r="H523" s="9">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="524" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C524" s="10">
+        <v>44300</v>
+      </c>
+      <c r="D524" s="6">
+        <f t="shared" si="8"/>
+        <v>0.11530815109343936</v>
+      </c>
+      <c r="E524" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="F524" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="G524" s="9">
+        <v>174</v>
+      </c>
+      <c r="H524" s="9">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="525" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C525" s="10"/>
+      <c r="D525" s="9"/>
+      <c r="E525" s="9"/>
+      <c r="F525" s="9"/>
+      <c r="G525" s="9"/>
+      <c r="H525" s="9"/>
+    </row>
+    <row r="526" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C526" s="10"/>
+      <c r="D526" s="9"/>
+      <c r="E526" s="9"/>
+      <c r="F526" s="9"/>
+      <c r="G526" s="9"/>
+      <c r="H526" s="9"/>
+    </row>
+    <row r="527" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C527" s="10"/>
+      <c r="D527" s="9"/>
+      <c r="E527" s="9"/>
+      <c r="F527" s="9"/>
+      <c r="G527" s="9"/>
+      <c r="H527" s="9"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DocumentazioneEsterna/PianoDiQualifica/res/ResocontoAttivitaDiVerifica/res/metriche/grafici/qualitàProdotto/qualitàProdotto.xlsx
+++ b/DocumentazioneEsterna/PianoDiQualifica/res/ResocontoAttivitaDiVerifica/res/metriche/grafici/qualitàProdotto/qualitàProdotto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Università\Terzo anno\SWE\Progetto\Documentazione\DocumentazioneEsterna\PianoDiQualifica\res\ResocontoAttivitaDiVerifica\res\metriche\grafici\qualitàProdotto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E399C9A3-6A4B-4F9F-83A6-FF8906CEB4FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E84287-FB8B-4D73-B20E-C5CBF4A78417}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E6A987FF-90E1-49FC-8E34-192DB323E80C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="91">
   <si>
     <t>Periodo</t>
   </si>
@@ -289,6 +289,24 @@
   <si>
     <t>Facilità comprensione BE</t>
   </si>
+  <si>
+    <t>Incremento 5</t>
+  </si>
+  <si>
+    <t>Incremento 6</t>
+  </si>
+  <si>
+    <t>Incremento 7</t>
+  </si>
+  <si>
+    <t>Incremento 8</t>
+  </si>
+  <si>
+    <t>Incremento 9</t>
+  </si>
+  <si>
+    <t>Incremento 10</t>
+  </si>
 </sst>
 </file>
 
@@ -401,7 +419,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -427,6 +445,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -612,44 +631,40 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
-              <c:f>Sviluppo!$C$8:$C$15</c:f>
-              <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
-                <c:ptCount val="8"/>
+            <c:strRef>
+              <c:f>Sviluppo!$C$8:$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>44265</c:v>
+                  <c:v>Incremento 5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44270</c:v>
+                  <c:v>Incremento 6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44275</c:v>
+                  <c:v>Incremento 7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44280</c:v>
+                  <c:v>Incremento 8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44285</c:v>
+                  <c:v>Incremento 9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44290</c:v>
+                  <c:v>Incremento 10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44295</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44300</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>PD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$D$8:$D$15</c:f>
+              <c:f>Sviluppo!$D$8:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.4</c:v>
                 </c:pt>
@@ -669,9 +684,6 @@
                   <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>0.95</c:v>
                 </c:pt>
               </c:numCache>
@@ -691,7 +703,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="0"/>
+        <c:gapWidth val="391"/>
         <c:axId val="365907192"/>
         <c:axId val="365909112"/>
       </c:barChart>
@@ -725,44 +737,40 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:numRef>
-              <c:f>Sviluppo!$C$8:$C$15</c:f>
-              <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
-                <c:ptCount val="8"/>
+            <c:strRef>
+              <c:f>Sviluppo!$C$8:$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>44265</c:v>
+                  <c:v>Incremento 5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44270</c:v>
+                  <c:v>Incremento 6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44275</c:v>
+                  <c:v>Incremento 7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44280</c:v>
+                  <c:v>Incremento 8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44285</c:v>
+                  <c:v>Incremento 9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44290</c:v>
+                  <c:v>Incremento 10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44295</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44300</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>PD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$E$8:$E$15</c:f>
+              <c:f>Sviluppo!$E$8:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -782,9 +790,6 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -838,7 +843,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="it-IT"/>
-                  <a:t>Data</a:t>
+                  <a:t>Periodo</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -872,7 +877,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="yyyy\-mm\-dd;@" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -914,7 +919,6 @@
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
-        <c:majorUnit val="5"/>
         <c:majorTimeUnit val="days"/>
         <c:minorUnit val="5"/>
         <c:minorTimeUnit val="days"/>
@@ -1236,44 +1240,40 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
-              <c:f>Sviluppo!$C$465:$C$472</c:f>
-              <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
-                <c:ptCount val="8"/>
+            <c:strRef>
+              <c:f>Sviluppo!$C$465:$C$471</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>44265</c:v>
+                  <c:v>Incremento 5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44270</c:v>
+                  <c:v>Incremento 6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44275</c:v>
+                  <c:v>Incremento 7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44280</c:v>
+                  <c:v>Incremento 8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44285</c:v>
+                  <c:v>Incremento 9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44290</c:v>
+                  <c:v>Incremento 10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44295</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44300</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>PD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$D$465:$D$472</c:f>
+              <c:f>Sviluppo!$D$465:$D$471</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.1</c:v>
                 </c:pt>
@@ -1287,16 +1287,13 @@
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.05</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1.6207455429497569E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>9.9675850891410053E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.13371150729335493</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1335,44 +1332,40 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:numRef>
-              <c:f>Sviluppo!$C$465:$C$472</c:f>
-              <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
-                <c:ptCount val="8"/>
+            <c:strRef>
+              <c:f>Sviluppo!$C$465:$C$471</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>44265</c:v>
+                  <c:v>Incremento 5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44270</c:v>
+                  <c:v>Incremento 6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44275</c:v>
+                  <c:v>Incremento 7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44280</c:v>
+                  <c:v>Incremento 8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44285</c:v>
+                  <c:v>Incremento 9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44290</c:v>
+                  <c:v>Incremento 10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44295</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44300</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>PD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$E$465:$E$472</c:f>
+              <c:f>Sviluppo!$E$465:$E$471</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.2</c:v>
                 </c:pt>
@@ -1392,9 +1385,6 @@
                   <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>0.2</c:v>
                 </c:pt>
               </c:numCache>
@@ -1434,44 +1424,40 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:numRef>
-              <c:f>Sviluppo!$C$465:$C$472</c:f>
-              <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
-                <c:ptCount val="8"/>
+            <c:strRef>
+              <c:f>Sviluppo!$C$465:$C$471</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>44265</c:v>
+                  <c:v>Incremento 5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44270</c:v>
+                  <c:v>Incremento 6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44275</c:v>
+                  <c:v>Incremento 7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44280</c:v>
+                  <c:v>Incremento 8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44285</c:v>
+                  <c:v>Incremento 9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44290</c:v>
+                  <c:v>Incremento 10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44295</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44300</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>PD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$F$465:$F$472</c:f>
+              <c:f>Sviluppo!$F$465:$F$471</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.1</c:v>
                 </c:pt>
@@ -1491,9 +1477,6 @@
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>0.1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1546,9 +1529,12 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="it-IT"/>
-                  <a:t>Data</a:t>
+                  <a:rPr lang="it-IT" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Periodo</a:t>
                 </a:r>
+                <a:endParaRPr lang="it-IT"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1581,7 +1567,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="yyyy\-mm\-dd;@" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -1623,7 +1609,6 @@
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
-        <c:majorUnit val="5"/>
         <c:majorTimeUnit val="days"/>
         <c:minorUnit val="5"/>
         <c:minorTimeUnit val="days"/>
@@ -1945,44 +1930,40 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
-              <c:f>Sviluppo!$C$517:$C$524</c:f>
-              <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
-                <c:ptCount val="8"/>
+            <c:strRef>
+              <c:f>Sviluppo!$C$517:$C$523</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>44265</c:v>
+                  <c:v>Incremento 5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44270</c:v>
+                  <c:v>Incremento 6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44275</c:v>
+                  <c:v>Incremento 7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44280</c:v>
+                  <c:v>Incremento 8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44285</c:v>
+                  <c:v>Incremento 9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44290</c:v>
+                  <c:v>Incremento 10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44295</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44300</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>PD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$D$517:$D$524</c:f>
+              <c:f>Sviluppo!$D$517:$D$523</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.05</c:v>
                 </c:pt>
@@ -1993,7 +1974,7 @@
                   <c:v>0.12857142857142856</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.17799999999999999</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>9.9664053751399778E-2</c:v>
@@ -2003,9 +1984,6 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.10337972166998012</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.11530815109343936</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2044,44 +2022,40 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:numRef>
-              <c:f>Sviluppo!$C$517:$C$524</c:f>
-              <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
-                <c:ptCount val="8"/>
+            <c:strRef>
+              <c:f>Sviluppo!$C$517:$C$523</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>44265</c:v>
+                  <c:v>Incremento 5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44270</c:v>
+                  <c:v>Incremento 6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44275</c:v>
+                  <c:v>Incremento 7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44280</c:v>
+                  <c:v>Incremento 8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44285</c:v>
+                  <c:v>Incremento 9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44290</c:v>
+                  <c:v>Incremento 10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44295</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44300</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>PD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$E$517:$E$524</c:f>
+              <c:f>Sviluppo!$E$517:$E$523</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.2</c:v>
                 </c:pt>
@@ -2101,9 +2075,6 @@
                   <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>0.2</c:v>
                 </c:pt>
               </c:numCache>
@@ -2143,44 +2114,40 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:numRef>
-              <c:f>Sviluppo!$C$517:$C$524</c:f>
-              <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
-                <c:ptCount val="8"/>
+            <c:strRef>
+              <c:f>Sviluppo!$C$517:$C$523</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>44265</c:v>
+                  <c:v>Incremento 5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44270</c:v>
+                  <c:v>Incremento 6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44275</c:v>
+                  <c:v>Incremento 7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44280</c:v>
+                  <c:v>Incremento 8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44285</c:v>
+                  <c:v>Incremento 9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44290</c:v>
+                  <c:v>Incremento 10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44295</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44300</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>PD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$F$517:$F$524</c:f>
+              <c:f>Sviluppo!$F$517:$F$523</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.1</c:v>
                 </c:pt>
@@ -2200,9 +2167,6 @@
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>0.1</c:v>
                 </c:pt>
               </c:numCache>
@@ -2255,9 +2219,12 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="it-IT"/>
-                  <a:t>Data</a:t>
+                  <a:rPr lang="it-IT" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Periodo</a:t>
                 </a:r>
+                <a:endParaRPr lang="it-IT"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2290,7 +2257,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="yyyy\-mm\-dd;@" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -2332,7 +2299,6 @@
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
-        <c:majorUnit val="5"/>
         <c:majorTimeUnit val="days"/>
         <c:minorUnit val="5"/>
         <c:minorTimeUnit val="days"/>
@@ -2589,44 +2555,40 @@
             <a:effectLst/>
           </c:spPr>
           <c:cat>
-            <c:numRef>
-              <c:f>Sviluppo!$C$46:$C$53</c:f>
-              <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
-                <c:ptCount val="8"/>
+            <c:strRef>
+              <c:f>Sviluppo!$C$46:$C$52</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>44265</c:v>
+                  <c:v>Incremento 5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44270</c:v>
+                  <c:v>Incremento 6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44275</c:v>
+                  <c:v>Incremento 7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44280</c:v>
+                  <c:v>Incremento 8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44285</c:v>
+                  <c:v>Incremento 9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44290</c:v>
+                  <c:v>Incremento 10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44295</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44300</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>PD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$F$46:$F$53</c:f>
+              <c:f>Sviluppo!$F$46:$F$52</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.15</c:v>
                 </c:pt>
@@ -2646,9 +2608,6 @@
                   <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>0.15</c:v>
                 </c:pt>
               </c:numCache>
@@ -2771,44 +2730,40 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
-              <c:f>Sviluppo!$C$46:$C$53</c:f>
-              <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
-                <c:ptCount val="8"/>
+            <c:strRef>
+              <c:f>Sviluppo!$C$46:$C$52</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>44265</c:v>
+                  <c:v>Incremento 5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44270</c:v>
+                  <c:v>Incremento 6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44275</c:v>
+                  <c:v>Incremento 7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44280</c:v>
+                  <c:v>Incremento 8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44285</c:v>
+                  <c:v>Incremento 9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44290</c:v>
+                  <c:v>Incremento 10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44295</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44300</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>PD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$D$46:$D$53</c:f>
+              <c:f>Sviluppo!$D$46:$D$52</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.1111111111111111</c:v>
                 </c:pt>
@@ -2822,16 +2777,13 @@
                   <c:v>4.8387096774193547E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>4.8387096774193547E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1.282051282051282E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.2222222222222223E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2870,44 +2822,40 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:numRef>
-              <c:f>Sviluppo!$C$46:$C$53</c:f>
-              <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
-                <c:ptCount val="8"/>
+            <c:strRef>
+              <c:f>Sviluppo!$C$46:$C$52</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>44265</c:v>
+                  <c:v>Incremento 5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44270</c:v>
+                  <c:v>Incremento 6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44275</c:v>
+                  <c:v>Incremento 7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44280</c:v>
+                  <c:v>Incremento 8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44285</c:v>
+                  <c:v>Incremento 9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44290</c:v>
+                  <c:v>Incremento 10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44295</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44300</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>PD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$E$46:$E$53</c:f>
+              <c:f>Sviluppo!$E$46:$E$52</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2927,9 +2875,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2955,7 +2900,7 @@
         <c:axId val="365907192"/>
         <c:axId val="365909112"/>
       </c:lineChart>
-      <c:dateAx>
+      <c:catAx>
         <c:axId val="365907192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -2983,7 +2928,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="it-IT"/>
-                  <a:t>Data</a:t>
+                  <a:t>Periodo</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3017,7 +2962,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="yyyy\-mm\-dd;@" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3057,11 +3002,10 @@
         <c:crossAx val="365909112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-        <c:majorUnit val="5"/>
-        <c:majorTimeUnit val="days"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
         <c:axId val="365909112"/>
         <c:scaling>
@@ -3304,44 +3248,40 @@
             <a:effectLst/>
           </c:spPr>
           <c:cat>
-            <c:numRef>
-              <c:f>Sviluppo!$C$90:$C$97</c:f>
-              <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
-                <c:ptCount val="8"/>
+            <c:strRef>
+              <c:f>Sviluppo!$C$90:$C$96</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>44265</c:v>
+                  <c:v>Incremento 5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44270</c:v>
+                  <c:v>Incremento 6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44275</c:v>
+                  <c:v>Incremento 7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44280</c:v>
+                  <c:v>Incremento 8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44285</c:v>
+                  <c:v>Incremento 9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44290</c:v>
+                  <c:v>Incremento 10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44295</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44300</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>PD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$F$90:$F$97</c:f>
+              <c:f>Sviluppo!$F$90:$F$96</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>15</c:v>
                 </c:pt>
@@ -3361,9 +3301,6 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
@@ -3416,44 +3353,40 @@
             <a:effectLst/>
           </c:spPr>
           <c:cat>
-            <c:numRef>
-              <c:f>Sviluppo!$C$90:$C$97</c:f>
-              <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
-                <c:ptCount val="8"/>
+            <c:strRef>
+              <c:f>Sviluppo!$C$90:$C$96</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>44265</c:v>
+                  <c:v>Incremento 5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44270</c:v>
+                  <c:v>Incremento 6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44275</c:v>
+                  <c:v>Incremento 7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44280</c:v>
+                  <c:v>Incremento 8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44285</c:v>
+                  <c:v>Incremento 9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44290</c:v>
+                  <c:v>Incremento 10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44295</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44300</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>PD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$E$90:$E$97</c:f>
+              <c:f>Sviluppo!$E$90:$E$96</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -3473,9 +3406,6 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -3598,44 +3528,40 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
-              <c:f>Sviluppo!$C$90:$C$97</c:f>
-              <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
-                <c:ptCount val="8"/>
+            <c:strRef>
+              <c:f>Sviluppo!$C$90:$C$96</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>44265</c:v>
+                  <c:v>Incremento 5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44270</c:v>
+                  <c:v>Incremento 6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44275</c:v>
+                  <c:v>Incremento 7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44280</c:v>
+                  <c:v>Incremento 8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44285</c:v>
+                  <c:v>Incremento 9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44290</c:v>
+                  <c:v>Incremento 10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44295</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44300</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>PD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$D$90:$D$97</c:f>
+              <c:f>Sviluppo!$D$90:$D$96</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -3656,9 +3582,6 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3683,7 +3606,7 @@
         <c:axId val="365907192"/>
         <c:axId val="365909112"/>
       </c:lineChart>
-      <c:dateAx>
+      <c:catAx>
         <c:axId val="365907192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -3710,9 +3633,12 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="it-IT"/>
-                  <a:t>Data</a:t>
+                  <a:rPr lang="it-IT" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Periodo</a:t>
                 </a:r>
+                <a:endParaRPr lang="it-IT"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3745,7 +3671,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="yyyy\-mm\-dd;@" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3785,11 +3711,10 @@
         <c:crossAx val="365909112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-        <c:majorUnit val="5"/>
-        <c:majorTimeUnit val="days"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
         <c:axId val="365909112"/>
         <c:scaling>
@@ -3917,23 +3842,24 @@
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:dateAx>
+      <c:catAx>
         <c:axId val="509342776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="yyyy\-mm\-dd;@" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="509339576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4120,44 +4046,40 @@
             <a:effectLst/>
           </c:spPr>
           <c:cat>
-            <c:numRef>
-              <c:f>Sviluppo!$C$137:$C$144</c:f>
-              <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
-                <c:ptCount val="8"/>
+            <c:strRef>
+              <c:f>Sviluppo!$C$137:$C$143</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>44265</c:v>
+                  <c:v>Incremento 5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44270</c:v>
+                  <c:v>Incremento 6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44275</c:v>
+                  <c:v>Incremento 7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44280</c:v>
+                  <c:v>Incremento 8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44285</c:v>
+                  <c:v>Incremento 9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44290</c:v>
+                  <c:v>Incremento 10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44295</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44300</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>PD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$F$137:$F$144</c:f>
+              <c:f>Sviluppo!$F$137:$F$143</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>15</c:v>
                 </c:pt>
@@ -4177,9 +4099,6 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
@@ -4232,44 +4151,40 @@
             <a:effectLst/>
           </c:spPr>
           <c:cat>
-            <c:numRef>
-              <c:f>Sviluppo!$C$137:$C$144</c:f>
-              <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
-                <c:ptCount val="8"/>
+            <c:strRef>
+              <c:f>Sviluppo!$C$137:$C$143</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>44265</c:v>
+                  <c:v>Incremento 5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44270</c:v>
+                  <c:v>Incremento 6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44275</c:v>
+                  <c:v>Incremento 7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44280</c:v>
+                  <c:v>Incremento 8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44285</c:v>
+                  <c:v>Incremento 9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44290</c:v>
+                  <c:v>Incremento 10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44295</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44300</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>PD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$E$137:$E$144</c:f>
+              <c:f>Sviluppo!$E$137:$E$143</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -4289,9 +4204,6 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -4414,44 +4326,40 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
-              <c:f>Sviluppo!$C$137:$C$144</c:f>
-              <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
-                <c:ptCount val="8"/>
+            <c:strRef>
+              <c:f>Sviluppo!$C$137:$C$143</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>44265</c:v>
+                  <c:v>Incremento 5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44270</c:v>
+                  <c:v>Incremento 6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44275</c:v>
+                  <c:v>Incremento 7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44280</c:v>
+                  <c:v>Incremento 8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44285</c:v>
+                  <c:v>Incremento 9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44290</c:v>
+                  <c:v>Incremento 10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44295</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44300</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>PD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$D$137:$D$144</c:f>
+              <c:f>Sviluppo!$D$137:$D$143</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1.8181818181818181</c:v>
                 </c:pt>
@@ -4471,9 +4379,6 @@
                   <c:v>1.5526315789473684</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3777777777777778</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>1.3777777777777778</c:v>
                 </c:pt>
               </c:numCache>
@@ -4499,7 +4404,7 @@
         <c:axId val="365907192"/>
         <c:axId val="365909112"/>
       </c:lineChart>
-      <c:dateAx>
+      <c:catAx>
         <c:axId val="365907192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -4526,9 +4431,12 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="it-IT"/>
-                  <a:t>Data</a:t>
+                  <a:rPr lang="it-IT" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Periodo</a:t>
                 </a:r>
+                <a:endParaRPr lang="it-IT"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -4561,7 +4469,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="yyyy\-mm\-dd;@" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4601,11 +4509,10 @@
         <c:crossAx val="365909112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-        <c:majorUnit val="5"/>
-        <c:majorTimeUnit val="days"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
         <c:axId val="365909112"/>
         <c:scaling>
@@ -4678,23 +4585,24 @@
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:dateAx>
+      <c:catAx>
         <c:axId val="509342776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="yyyy\-mm\-dd;@" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="509339576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4881,44 +4789,40 @@
             <a:effectLst/>
           </c:spPr>
           <c:cat>
-            <c:numRef>
-              <c:f>Sviluppo!$C$187:$C$194</c:f>
-              <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
-                <c:ptCount val="8"/>
+            <c:strRef>
+              <c:f>Sviluppo!$C$187:$C$193</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>44265</c:v>
+                  <c:v>Incremento 5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44270</c:v>
+                  <c:v>Incremento 6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44275</c:v>
+                  <c:v>Incremento 7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44280</c:v>
+                  <c:v>Incremento 8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44285</c:v>
+                  <c:v>Incremento 9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44290</c:v>
+                  <c:v>Incremento 10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44295</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44300</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>PD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$F$187:$F$194</c:f>
+              <c:f>Sviluppo!$F$187:$F$193</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>15</c:v>
                 </c:pt>
@@ -4938,9 +4842,6 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
@@ -4993,44 +4894,40 @@
             <a:effectLst/>
           </c:spPr>
           <c:cat>
-            <c:numRef>
-              <c:f>Sviluppo!$C$187:$C$194</c:f>
-              <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
-                <c:ptCount val="8"/>
+            <c:strRef>
+              <c:f>Sviluppo!$C$187:$C$193</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>44265</c:v>
+                  <c:v>Incremento 5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44270</c:v>
+                  <c:v>Incremento 6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44275</c:v>
+                  <c:v>Incremento 7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44280</c:v>
+                  <c:v>Incremento 8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44285</c:v>
+                  <c:v>Incremento 9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44290</c:v>
+                  <c:v>Incremento 10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44295</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44300</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>PD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$E$187:$E$194</c:f>
+              <c:f>Sviluppo!$E$187:$E$193</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -5050,9 +4947,6 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -5175,44 +5069,40 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
-              <c:f>Sviluppo!$C$187:$C$194</c:f>
-              <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
-                <c:ptCount val="8"/>
+            <c:strRef>
+              <c:f>Sviluppo!$C$187:$C$193</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>44265</c:v>
+                  <c:v>Incremento 5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44270</c:v>
+                  <c:v>Incremento 6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44275</c:v>
+                  <c:v>Incremento 7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44280</c:v>
+                  <c:v>Incremento 8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44285</c:v>
+                  <c:v>Incremento 9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44290</c:v>
+                  <c:v>Incremento 10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44295</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44300</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>PD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$D$187:$D$194</c:f>
+              <c:f>Sviluppo!$D$187:$D$193</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>11</c:v>
                 </c:pt>
@@ -5232,9 +5122,6 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
@@ -5260,7 +5147,7 @@
         <c:axId val="365907192"/>
         <c:axId val="365909112"/>
       </c:lineChart>
-      <c:dateAx>
+      <c:catAx>
         <c:axId val="365907192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -5287,9 +5174,12 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="it-IT"/>
-                  <a:t>Data</a:t>
+                  <a:rPr lang="it-IT" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Periodo</a:t>
                 </a:r>
+                <a:endParaRPr lang="it-IT"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -5322,7 +5212,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="yyyy\-mm\-dd;@" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5362,11 +5252,10 @@
         <c:crossAx val="365909112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-        <c:majorUnit val="5"/>
-        <c:majorTimeUnit val="days"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
         <c:axId val="365909112"/>
         <c:scaling>
@@ -5439,23 +5328,24 @@
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:dateAx>
+      <c:catAx>
         <c:axId val="509342776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="yyyy\-mm\-dd;@" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="509339576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5642,44 +5532,40 @@
             <a:effectLst/>
           </c:spPr>
           <c:cat>
-            <c:numRef>
-              <c:f>Sviluppo!$C$251:$C$258</c:f>
-              <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
-                <c:ptCount val="8"/>
+            <c:strRef>
+              <c:f>Sviluppo!$C$251:$C$257</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>44265</c:v>
+                  <c:v>Incremento 5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44270</c:v>
+                  <c:v>Incremento 6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44275</c:v>
+                  <c:v>Incremento 7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44280</c:v>
+                  <c:v>Incremento 8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44285</c:v>
+                  <c:v>Incremento 9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44290</c:v>
+                  <c:v>Incremento 10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44295</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44300</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>PD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$F$251:$F$258</c:f>
+              <c:f>Sviluppo!$F$251:$F$257</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -5699,9 +5585,6 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
@@ -5754,44 +5637,40 @@
             <a:effectLst/>
           </c:spPr>
           <c:cat>
-            <c:numRef>
-              <c:f>Sviluppo!$C$251:$C$258</c:f>
-              <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
-                <c:ptCount val="8"/>
+            <c:strRef>
+              <c:f>Sviluppo!$C$251:$C$257</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>44265</c:v>
+                  <c:v>Incremento 5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44270</c:v>
+                  <c:v>Incremento 6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44275</c:v>
+                  <c:v>Incremento 7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44280</c:v>
+                  <c:v>Incremento 8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44285</c:v>
+                  <c:v>Incremento 9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44290</c:v>
+                  <c:v>Incremento 10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44295</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44300</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>PD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$E$251:$E$258</c:f>
+              <c:f>Sviluppo!$E$251:$E$257</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -5811,9 +5690,6 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
@@ -5936,44 +5812,40 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
-              <c:f>Sviluppo!$C$251:$C$258</c:f>
-              <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
-                <c:ptCount val="8"/>
+            <c:strRef>
+              <c:f>Sviluppo!$C$251:$C$257</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>44265</c:v>
+                  <c:v>Incremento 5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44270</c:v>
+                  <c:v>Incremento 6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44275</c:v>
+                  <c:v>Incremento 7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44280</c:v>
+                  <c:v>Incremento 8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44285</c:v>
+                  <c:v>Incremento 9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44290</c:v>
+                  <c:v>Incremento 10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44295</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44300</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>PD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$D$251:$D$258</c:f>
+              <c:f>Sviluppo!$D$251:$D$257</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.70588235294117652</c:v>
                 </c:pt>
@@ -5994,9 +5866,6 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1.523076923076923</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.5074626865671641</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6021,7 +5890,7 @@
         <c:axId val="365907192"/>
         <c:axId val="365909112"/>
       </c:lineChart>
-      <c:dateAx>
+      <c:catAx>
         <c:axId val="365907192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -6048,9 +5917,12 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="it-IT"/>
-                  <a:t>Data</a:t>
+                  <a:rPr lang="it-IT" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Periodo</a:t>
                 </a:r>
+                <a:endParaRPr lang="it-IT"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -6083,7 +5955,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="yyyy\-mm\-dd;@" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6123,11 +5995,10 @@
         <c:crossAx val="365909112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-        <c:majorUnit val="5"/>
-        <c:majorTimeUnit val="days"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
         <c:axId val="365909112"/>
         <c:scaling>
@@ -6200,23 +6071,24 @@
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:dateAx>
+      <c:catAx>
         <c:axId val="509342776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="yyyy\-mm\-dd;@" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="509339576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -6403,44 +6275,40 @@
             <a:effectLst/>
           </c:spPr>
           <c:cat>
-            <c:numRef>
-              <c:f>Sviluppo!$C$308:$C$318</c:f>
-              <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
-                <c:ptCount val="11"/>
+            <c:strRef>
+              <c:f>Sviluppo!$C$308:$C$314</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>44265</c:v>
+                  <c:v>Incremento 5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44270</c:v>
+                  <c:v>Incremento 6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44275</c:v>
+                  <c:v>Incremento 7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44280</c:v>
+                  <c:v>Incremento 8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44285</c:v>
+                  <c:v>Incremento 9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44290</c:v>
+                  <c:v>Incremento 10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44295</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44300</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>PD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$F$308:$F$318</c:f>
+              <c:f>Sviluppo!$F$308:$F$314</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -6460,9 +6328,6 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
@@ -6515,44 +6380,40 @@
             <a:effectLst/>
           </c:spPr>
           <c:cat>
-            <c:numRef>
-              <c:f>Sviluppo!$C$308:$C$318</c:f>
-              <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
-                <c:ptCount val="11"/>
+            <c:strRef>
+              <c:f>Sviluppo!$C$308:$C$314</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>44265</c:v>
+                  <c:v>Incremento 5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44270</c:v>
+                  <c:v>Incremento 6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44275</c:v>
+                  <c:v>Incremento 7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44280</c:v>
+                  <c:v>Incremento 8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44285</c:v>
+                  <c:v>Incremento 9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44290</c:v>
+                  <c:v>Incremento 10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44295</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44300</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>PD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$E$308:$E$318</c:f>
+              <c:f>Sviluppo!$E$308:$E$314</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -6572,9 +6433,6 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
@@ -6697,44 +6555,40 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
-              <c:f>Sviluppo!$C$308:$C$318</c:f>
-              <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
-                <c:ptCount val="11"/>
+            <c:strRef>
+              <c:f>Sviluppo!$C$308:$C$314</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>44265</c:v>
+                  <c:v>Incremento 5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44270</c:v>
+                  <c:v>Incremento 6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44275</c:v>
+                  <c:v>Incremento 7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44280</c:v>
+                  <c:v>Incremento 8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44285</c:v>
+                  <c:v>Incremento 9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44290</c:v>
+                  <c:v>Incremento 10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44295</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44300</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>PD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$D$308:$D$318</c:f>
+              <c:f>Sviluppo!$D$308:$D$314</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.91304347826086951</c:v>
                 </c:pt>
@@ -6754,9 +6608,6 @@
                   <c:v>1.4098360655737705</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>1.5</c:v>
                 </c:pt>
               </c:numCache>
@@ -6782,7 +6633,7 @@
         <c:axId val="365907192"/>
         <c:axId val="365909112"/>
       </c:lineChart>
-      <c:dateAx>
+      <c:catAx>
         <c:axId val="365907192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -6809,9 +6660,12 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="it-IT"/>
-                  <a:t>Data</a:t>
+                  <a:rPr lang="it-IT" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Periodo</a:t>
                 </a:r>
+                <a:endParaRPr lang="it-IT"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -6844,7 +6698,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="yyyy\-mm\-dd;@" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6884,11 +6738,10 @@
         <c:crossAx val="365909112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-        <c:majorUnit val="5"/>
-        <c:majorTimeUnit val="days"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
         <c:axId val="365909112"/>
         <c:scaling>
@@ -6961,23 +6814,24 @@
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:dateAx>
+      <c:catAx>
         <c:axId val="509342776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="yyyy\-mm\-dd;@" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="509339576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -7164,44 +7018,40 @@
             <a:effectLst/>
           </c:spPr>
           <c:cat>
-            <c:numRef>
-              <c:f>Sviluppo!$C$369:$C$379</c:f>
-              <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
-                <c:ptCount val="11"/>
+            <c:strRef>
+              <c:f>Sviluppo!$C$369:$C$375</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>44265</c:v>
+                  <c:v>Incremento 5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44270</c:v>
+                  <c:v>Incremento 6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44275</c:v>
+                  <c:v>Incremento 7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44280</c:v>
+                  <c:v>Incremento 8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44285</c:v>
+                  <c:v>Incremento 9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44290</c:v>
+                  <c:v>Incremento 10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44295</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44300</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>PD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$F$369:$F$379</c:f>
+              <c:f>Sviluppo!$F$369:$F$375</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>8</c:v>
                 </c:pt>
@@ -7221,9 +7071,6 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
@@ -7276,44 +7123,40 @@
             <a:effectLst/>
           </c:spPr>
           <c:cat>
-            <c:numRef>
-              <c:f>Sviluppo!$C$369:$C$379</c:f>
-              <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
-                <c:ptCount val="11"/>
+            <c:strRef>
+              <c:f>Sviluppo!$C$369:$C$375</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>44265</c:v>
+                  <c:v>Incremento 5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44270</c:v>
+                  <c:v>Incremento 6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44275</c:v>
+                  <c:v>Incremento 7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44280</c:v>
+                  <c:v>Incremento 8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44285</c:v>
+                  <c:v>Incremento 9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44290</c:v>
+                  <c:v>Incremento 10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44295</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44300</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>PD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$E$369:$E$379</c:f>
+              <c:f>Sviluppo!$E$369:$E$375</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -7333,9 +7176,6 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
@@ -7458,44 +7298,40 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
-              <c:f>Sviluppo!$C$369:$C$379</c:f>
-              <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
-                <c:ptCount val="11"/>
+            <c:strRef>
+              <c:f>Sviluppo!$C$369:$C$375</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>44265</c:v>
+                  <c:v>Incremento 5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44270</c:v>
+                  <c:v>Incremento 6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44275</c:v>
+                  <c:v>Incremento 7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44280</c:v>
+                  <c:v>Incremento 8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44285</c:v>
+                  <c:v>Incremento 9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44290</c:v>
+                  <c:v>Incremento 10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44295</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44300</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>PD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$D$369:$D$379</c:f>
+              <c:f>Sviluppo!$D$369:$D$375</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -7509,15 +7345,12 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -7543,7 +7376,7 @@
         <c:axId val="365907192"/>
         <c:axId val="365909112"/>
       </c:lineChart>
-      <c:dateAx>
+      <c:catAx>
         <c:axId val="365907192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -7570,9 +7403,12 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="it-IT"/>
-                  <a:t>Data</a:t>
+                  <a:rPr lang="it-IT" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Periodo</a:t>
                 </a:r>
+                <a:endParaRPr lang="it-IT"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -7605,7 +7441,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="yyyy\-mm\-dd;@" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7645,11 +7481,10 @@
         <c:crossAx val="365909112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-        <c:majorUnit val="5"/>
-        <c:majorTimeUnit val="days"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
         <c:axId val="365909112"/>
         <c:scaling>
@@ -7777,23 +7612,24 @@
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:dateAx>
+      <c:catAx>
         <c:axId val="509342776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="yyyy\-mm\-dd;@" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="509339576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -15477,8 +15313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4F4DE7-87B1-4CD4-B318-8D739C70AC78}">
   <dimension ref="C6:L527"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A254" workbookViewId="0">
-      <selection activeCell="H557" sqref="H557"/>
+    <sheetView tabSelected="1" topLeftCell="A541" workbookViewId="0">
+      <selection activeCell="E563" sqref="E563"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15520,8 +15356,8 @@
       <c r="H7" s="7"/>
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C8" s="10">
-        <v>44265</v>
+      <c r="C8" s="16" t="s">
+        <v>85</v>
       </c>
       <c r="D8" s="6">
         <f>(1-F8/G8)</f>
@@ -15539,8 +15375,8 @@
       <c r="H8" s="8"/>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C9" s="10">
-        <v>44270</v>
+      <c r="C9" s="16" t="s">
+        <v>86</v>
       </c>
       <c r="D9" s="6">
         <f>(1-F9/G9)</f>
@@ -15558,8 +15394,8 @@
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C10" s="10">
-        <v>44275</v>
+      <c r="C10" s="16" t="s">
+        <v>87</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" ref="D10:D15" si="0">(1-F10/G10)</f>
@@ -15577,8 +15413,8 @@
       <c r="H10" s="8"/>
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C11" s="10">
-        <v>44280</v>
+      <c r="C11" s="16" t="s">
+        <v>88</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="0"/>
@@ -15596,8 +15432,8 @@
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C12" s="10">
-        <v>44285</v>
+      <c r="C12" s="16" t="s">
+        <v>89</v>
       </c>
       <c r="D12" s="6">
         <f t="shared" si="0"/>
@@ -15614,8 +15450,8 @@
       </c>
     </row>
     <row r="13" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C13" s="10">
-        <v>44290</v>
+      <c r="C13" s="25" t="s">
+        <v>90</v>
       </c>
       <c r="D13" s="6">
         <f t="shared" si="0"/>
@@ -15632,8 +15468,8 @@
       </c>
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C14" s="10">
-        <v>44295</v>
+      <c r="C14" s="25" t="s">
+        <v>74</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="0"/>
@@ -15717,8 +15553,8 @@
       </c>
     </row>
     <row r="46" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C46" s="10">
-        <v>44265</v>
+      <c r="C46" s="16" t="s">
+        <v>85</v>
       </c>
       <c r="D46" s="6">
         <f>(G46/H46)</f>
@@ -15738,8 +15574,8 @@
       </c>
     </row>
     <row r="47" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C47" s="10">
-        <v>44270</v>
+      <c r="C47" s="16" t="s">
+        <v>86</v>
       </c>
       <c r="D47" s="6">
         <f t="shared" ref="D47:D53" si="1">(G47/H47)</f>
@@ -15759,8 +15595,8 @@
       </c>
     </row>
     <row r="48" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C48" s="10">
-        <v>44275</v>
+      <c r="C48" s="16" t="s">
+        <v>87</v>
       </c>
       <c r="D48" s="6">
         <f t="shared" si="1"/>
@@ -15780,8 +15616,8 @@
       </c>
     </row>
     <row r="49" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C49" s="10">
-        <v>44280</v>
+      <c r="C49" s="16" t="s">
+        <v>88</v>
       </c>
       <c r="D49" s="6">
         <f t="shared" si="1"/>
@@ -15801,12 +15637,12 @@
       </c>
     </row>
     <row r="50" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C50" s="10">
-        <v>44285</v>
+      <c r="C50" s="16" t="s">
+        <v>89</v>
       </c>
       <c r="D50" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>(G50/H50)</f>
+        <v>4.8387096774193547E-2</v>
       </c>
       <c r="E50" s="6">
         <v>0</v>
@@ -15815,15 +15651,15 @@
         <v>0.15</v>
       </c>
       <c r="G50" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H50" s="9">
         <v>62</v>
       </c>
     </row>
     <row r="51" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C51" s="10">
-        <v>44290</v>
+      <c r="C51" s="25" t="s">
+        <v>90</v>
       </c>
       <c r="D51" s="6">
         <f t="shared" si="1"/>
@@ -15843,8 +15679,8 @@
       </c>
     </row>
     <row r="52" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C52" s="10">
-        <v>44295</v>
+      <c r="C52" s="25" t="s">
+        <v>74</v>
       </c>
       <c r="D52" s="6">
         <f t="shared" si="1"/>
@@ -15933,8 +15769,8 @@
       <c r="H89" s="7"/>
     </row>
     <row r="90" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C90" s="10">
-        <v>44265</v>
+      <c r="C90" s="16" t="s">
+        <v>85</v>
       </c>
       <c r="D90" s="9">
         <v>2</v>
@@ -15949,8 +15785,8 @@
       <c r="H90" s="11"/>
     </row>
     <row r="91" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C91" s="10">
-        <v>44270</v>
+      <c r="C91" s="16" t="s">
+        <v>86</v>
       </c>
       <c r="D91" s="9">
         <v>2</v>
@@ -15965,8 +15801,8 @@
       <c r="H91" s="11"/>
     </row>
     <row r="92" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C92" s="10">
-        <v>44275</v>
+      <c r="C92" s="16" t="s">
+        <v>87</v>
       </c>
       <c r="D92" s="9">
         <v>4</v>
@@ -15981,8 +15817,8 @@
       <c r="H92" s="11"/>
     </row>
     <row r="93" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C93" s="10">
-        <v>44280</v>
+      <c r="C93" s="16" t="s">
+        <v>88</v>
       </c>
       <c r="D93" s="9">
         <v>6</v>
@@ -15997,8 +15833,8 @@
       <c r="H93" s="11"/>
     </row>
     <row r="94" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C94" s="10">
-        <v>44285</v>
+      <c r="C94" s="16" t="s">
+        <v>89</v>
       </c>
       <c r="D94" s="9">
         <v>6</v>
@@ -16013,8 +15849,8 @@
       <c r="H94" s="11"/>
     </row>
     <row r="95" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C95" s="10">
-        <v>44290</v>
+      <c r="C95" s="25" t="s">
+        <v>90</v>
       </c>
       <c r="D95" s="9">
         <v>6</v>
@@ -16029,8 +15865,8 @@
       <c r="H95" s="11"/>
     </row>
     <row r="96" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C96" s="10">
-        <v>44295</v>
+      <c r="C96" s="25" t="s">
+        <v>74</v>
       </c>
       <c r="D96" s="9">
         <v>6</v>
@@ -16112,8 +15948,8 @@
       </c>
     </row>
     <row r="137" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C137" s="10">
-        <v>44265</v>
+      <c r="C137" s="16" t="s">
+        <v>85</v>
       </c>
       <c r="D137" s="9">
         <f>G137/H137</f>
@@ -16135,8 +15971,8 @@
       </c>
     </row>
     <row r="138" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C138" s="10">
-        <v>44270</v>
+      <c r="C138" s="16" t="s">
+        <v>86</v>
       </c>
       <c r="D138" s="9">
         <f t="shared" ref="D138:D144" si="2">G138/H138</f>
@@ -16158,8 +15994,8 @@
       </c>
     </row>
     <row r="139" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C139" s="10">
-        <v>44275</v>
+      <c r="C139" s="16" t="s">
+        <v>87</v>
       </c>
       <c r="D139" s="9">
         <f t="shared" si="2"/>
@@ -16181,8 +16017,8 @@
       </c>
     </row>
     <row r="140" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C140" s="10">
-        <v>44280</v>
+      <c r="C140" s="16" t="s">
+        <v>88</v>
       </c>
       <c r="D140" s="9">
         <f t="shared" si="2"/>
@@ -16204,8 +16040,8 @@
       </c>
     </row>
     <row r="141" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C141" s="10">
-        <v>44285</v>
+      <c r="C141" s="16" t="s">
+        <v>89</v>
       </c>
       <c r="D141" s="9">
         <f t="shared" si="2"/>
@@ -16227,8 +16063,8 @@
       </c>
     </row>
     <row r="142" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C142" s="10">
-        <v>44290</v>
+      <c r="C142" s="25" t="s">
+        <v>90</v>
       </c>
       <c r="D142" s="9">
         <f t="shared" si="2"/>
@@ -16250,8 +16086,8 @@
       </c>
     </row>
     <row r="143" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C143" s="10">
-        <v>44295</v>
+      <c r="C143" s="25" t="s">
+        <v>74</v>
       </c>
       <c r="D143" s="9">
         <f t="shared" si="2"/>
@@ -16559,8 +16395,8 @@
       </c>
     </row>
     <row r="187" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C187" s="10">
-        <v>44265</v>
+      <c r="C187" s="16" t="s">
+        <v>85</v>
       </c>
       <c r="D187" s="9">
         <f>G187/H187</f>
@@ -16588,8 +16424,8 @@
       </c>
     </row>
     <row r="188" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C188" s="10">
-        <v>44270</v>
+      <c r="C188" s="16" t="s">
+        <v>86</v>
       </c>
       <c r="D188" s="9">
         <f t="shared" ref="D188:D194" si="3">G188/H188</f>
@@ -16617,8 +16453,8 @@
       </c>
     </row>
     <row r="189" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C189" s="10">
-        <v>44275</v>
+      <c r="C189" s="16" t="s">
+        <v>87</v>
       </c>
       <c r="D189" s="9">
         <f t="shared" si="3"/>
@@ -16646,8 +16482,8 @@
       </c>
     </row>
     <row r="190" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C190" s="10">
-        <v>44280</v>
+      <c r="C190" s="16" t="s">
+        <v>88</v>
       </c>
       <c r="D190" s="9">
         <f t="shared" si="3"/>
@@ -16675,8 +16511,8 @@
       </c>
     </row>
     <row r="191" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C191" s="10">
-        <v>44285</v>
+      <c r="C191" s="16" t="s">
+        <v>89</v>
       </c>
       <c r="D191" s="9">
         <f t="shared" si="3"/>
@@ -16704,8 +16540,8 @@
       </c>
     </row>
     <row r="192" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C192" s="10">
-        <v>44290</v>
+      <c r="C192" s="25" t="s">
+        <v>90</v>
       </c>
       <c r="D192" s="9">
         <f t="shared" si="3"/>
@@ -16733,8 +16569,8 @@
       </c>
     </row>
     <row r="193" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C193" s="10">
-        <v>44295</v>
+      <c r="C193" s="25" t="s">
+        <v>74</v>
       </c>
       <c r="D193" s="9">
         <f t="shared" si="3"/>
@@ -16998,8 +16834,8 @@
       <c r="K250" s="7"/>
     </row>
     <row r="251" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C251" s="10">
-        <v>44265</v>
+      <c r="C251" s="16" t="s">
+        <v>85</v>
       </c>
       <c r="D251" s="9">
         <f>G251/H251</f>
@@ -17021,8 +16857,8 @@
       <c r="K251" s="11"/>
     </row>
     <row r="252" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C252" s="10">
-        <v>44270</v>
+      <c r="C252" s="16" t="s">
+        <v>86</v>
       </c>
       <c r="D252" s="9">
         <f t="shared" ref="D252:D258" si="4">G252/H252</f>
@@ -17044,8 +16880,8 @@
       <c r="K252" s="11"/>
     </row>
     <row r="253" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C253" s="10">
-        <v>44275</v>
+      <c r="C253" s="16" t="s">
+        <v>87</v>
       </c>
       <c r="D253" s="9">
         <f t="shared" si="4"/>
@@ -17069,8 +16905,8 @@
       <c r="K253" s="11"/>
     </row>
     <row r="254" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C254" s="10">
-        <v>44280</v>
+      <c r="C254" s="16" t="s">
+        <v>88</v>
       </c>
       <c r="D254" s="9">
         <f t="shared" si="4"/>
@@ -17094,8 +16930,8 @@
       <c r="K254" s="11"/>
     </row>
     <row r="255" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C255" s="10">
-        <v>44285</v>
+      <c r="C255" s="16" t="s">
+        <v>89</v>
       </c>
       <c r="D255" s="9">
         <f t="shared" si="4"/>
@@ -17119,8 +16955,8 @@
       <c r="K255" s="11"/>
     </row>
     <row r="256" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C256" s="10">
-        <v>44290</v>
+      <c r="C256" s="25" t="s">
+        <v>90</v>
       </c>
       <c r="D256" s="9">
         <f>G256/H256</f>
@@ -17144,8 +16980,8 @@
       <c r="K256" s="11"/>
     </row>
     <row r="257" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C257" s="10">
-        <v>44295</v>
+      <c r="C257" s="25" t="s">
+        <v>74</v>
       </c>
       <c r="D257" s="9">
         <f t="shared" si="4"/>
@@ -17253,8 +17089,8 @@
       <c r="K307" s="7"/>
     </row>
     <row r="308" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C308" s="10">
-        <v>44265</v>
+      <c r="C308" s="16" t="s">
+        <v>85</v>
       </c>
       <c r="D308" s="9">
         <f>G308/H308</f>
@@ -17276,8 +17112,8 @@
       <c r="K308" s="11"/>
     </row>
     <row r="309" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C309" s="10">
-        <v>44270</v>
+      <c r="C309" s="16" t="s">
+        <v>86</v>
       </c>
       <c r="D309" s="9">
         <f t="shared" ref="D309:D312" si="5">G309/H309</f>
@@ -17299,8 +17135,8 @@
       <c r="K309" s="11"/>
     </row>
     <row r="310" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C310" s="10">
-        <v>44275</v>
+      <c r="C310" s="16" t="s">
+        <v>87</v>
       </c>
       <c r="D310" s="9">
         <f t="shared" si="5"/>
@@ -17323,8 +17159,8 @@
       <c r="K310" s="11"/>
     </row>
     <row r="311" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C311" s="10">
-        <v>44280</v>
+      <c r="C311" s="16" t="s">
+        <v>88</v>
       </c>
       <c r="D311" s="9">
         <f t="shared" si="5"/>
@@ -17348,8 +17184,8 @@
       <c r="K311" s="11"/>
     </row>
     <row r="312" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C312" s="10">
-        <v>44285</v>
+      <c r="C312" s="16" t="s">
+        <v>89</v>
       </c>
       <c r="D312" s="9">
         <f t="shared" si="5"/>
@@ -17372,8 +17208,8 @@
       <c r="K312" s="11"/>
     </row>
     <row r="313" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C313" s="10">
-        <v>44290</v>
+      <c r="C313" s="25" t="s">
+        <v>90</v>
       </c>
       <c r="D313" s="9">
         <f>G313/H313</f>
@@ -17396,8 +17232,8 @@
       <c r="K313" s="11"/>
     </row>
     <row r="314" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C314" s="10">
-        <v>44295</v>
+      <c r="C314" s="25" t="s">
+        <v>74</v>
       </c>
       <c r="D314" s="9">
         <f t="shared" ref="D314:D315" si="6">G314/H314</f>
@@ -17493,8 +17329,8 @@
       </c>
     </row>
     <row r="369" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C369" s="10">
-        <v>44265</v>
+      <c r="C369" s="16" t="s">
+        <v>85</v>
       </c>
       <c r="D369" s="9">
         <v>6</v>
@@ -17507,8 +17343,8 @@
       </c>
     </row>
     <row r="370" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C370" s="10">
-        <v>44270</v>
+      <c r="C370" s="16" t="s">
+        <v>86</v>
       </c>
       <c r="D370" s="9">
         <v>7</v>
@@ -17521,8 +17357,8 @@
       </c>
     </row>
     <row r="371" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C371" s="10">
-        <v>44275</v>
+      <c r="C371" s="16" t="s">
+        <v>87</v>
       </c>
       <c r="D371" s="9">
         <v>4</v>
@@ -17535,8 +17371,8 @@
       </c>
     </row>
     <row r="372" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C372" s="10">
-        <v>44280</v>
+      <c r="C372" s="16" t="s">
+        <v>88</v>
       </c>
       <c r="D372" s="9">
         <v>3</v>
@@ -17549,11 +17385,11 @@
       </c>
     </row>
     <row r="373" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C373" s="10">
-        <v>44285</v>
+      <c r="C373" s="16" t="s">
+        <v>89</v>
       </c>
       <c r="D373" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E373" s="9">
         <v>6</v>
@@ -17563,8 +17399,8 @@
       </c>
     </row>
     <row r="374" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C374" s="10">
-        <v>44290</v>
+      <c r="C374" s="25" t="s">
+        <v>90</v>
       </c>
       <c r="D374" s="9">
         <v>2</v>
@@ -17577,8 +17413,8 @@
       </c>
     </row>
     <row r="375" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C375" s="10">
-        <v>44295</v>
+      <c r="C375" s="25" t="s">
+        <v>74</v>
       </c>
       <c r="D375" s="9">
         <v>2</v>
@@ -17805,8 +17641,8 @@
       </c>
     </row>
     <row r="465" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C465" s="10">
-        <v>44265</v>
+      <c r="C465" s="16" t="s">
+        <v>85</v>
       </c>
       <c r="D465" s="6">
         <f>G465/H465</f>
@@ -17826,8 +17662,8 @@
       </c>
     </row>
     <row r="466" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C466" s="10">
-        <v>44270</v>
+      <c r="C466" s="16" t="s">
+        <v>86</v>
       </c>
       <c r="D466" s="6">
         <f t="shared" ref="D466:D472" si="7">G466/H466</f>
@@ -17847,8 +17683,8 @@
       </c>
     </row>
     <row r="467" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C467" s="10">
-        <v>44275</v>
+      <c r="C467" s="16" t="s">
+        <v>87</v>
       </c>
       <c r="D467" s="6">
         <f t="shared" si="7"/>
@@ -17868,8 +17704,8 @@
       </c>
     </row>
     <row r="468" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C468" s="10">
-        <v>44280</v>
+      <c r="C468" s="16" t="s">
+        <v>88</v>
       </c>
       <c r="D468" s="6">
         <f t="shared" si="7"/>
@@ -17889,12 +17725,12 @@
       </c>
     </row>
     <row r="469" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C469" s="10">
-        <v>44285</v>
+      <c r="C469" s="16" t="s">
+        <v>89</v>
       </c>
       <c r="D469" s="6">
         <f t="shared" si="7"/>
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="E469" s="6">
         <v>0.2</v>
@@ -17906,12 +17742,12 @@
         <v>20</v>
       </c>
       <c r="H469" s="9">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="470" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C470" s="10">
-        <v>44290</v>
+      <c r="C470" s="25" t="s">
+        <v>90</v>
       </c>
       <c r="D470" s="6">
         <f t="shared" si="7"/>
@@ -17931,8 +17767,8 @@
       </c>
     </row>
     <row r="471" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C471" s="10">
-        <v>44295</v>
+      <c r="C471" s="25" t="s">
+        <v>74</v>
       </c>
       <c r="D471" s="6">
         <f t="shared" si="7"/>
@@ -18024,8 +17860,8 @@
       </c>
     </row>
     <row r="517" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C517" s="10">
-        <v>44265</v>
+      <c r="C517" s="16" t="s">
+        <v>85</v>
       </c>
       <c r="D517" s="6">
         <f>G517/H517</f>
@@ -18045,8 +17881,8 @@
       </c>
     </row>
     <row r="518" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C518" s="10">
-        <v>44270</v>
+      <c r="C518" s="16" t="s">
+        <v>86</v>
       </c>
       <c r="D518" s="6">
         <f t="shared" ref="D518:D524" si="8">G518/H518</f>
@@ -18066,8 +17902,8 @@
       </c>
     </row>
     <row r="519" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C519" s="10">
-        <v>44275</v>
+      <c r="C519" s="16" t="s">
+        <v>87</v>
       </c>
       <c r="D519" s="6">
         <f t="shared" si="8"/>
@@ -18087,12 +17923,12 @@
       </c>
     </row>
     <row r="520" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C520" s="10">
-        <v>44280</v>
+      <c r="C520" s="16" t="s">
+        <v>88</v>
       </c>
       <c r="D520" s="6">
         <f t="shared" si="8"/>
-        <v>0.17799999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="E520" s="6">
         <v>0.2</v>
@@ -18101,15 +17937,15 @@
         <v>0.1</v>
       </c>
       <c r="G520" s="9">
+        <v>35</v>
+      </c>
+      <c r="H520" s="9">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="521" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C521" s="16" t="s">
         <v>89</v>
-      </c>
-      <c r="H520" s="9">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="521" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C521" s="10">
-        <v>44285</v>
       </c>
       <c r="D521" s="6">
         <f t="shared" si="8"/>
@@ -18129,8 +17965,8 @@
       </c>
     </row>
     <row r="522" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C522" s="10">
-        <v>44290</v>
+      <c r="C522" s="25" t="s">
+        <v>90</v>
       </c>
       <c r="D522" s="6">
         <f t="shared" si="8"/>
@@ -18150,8 +17986,8 @@
       </c>
     </row>
     <row r="523" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C523" s="10">
-        <v>44295</v>
+      <c r="C523" s="25" t="s">
+        <v>74</v>
       </c>
       <c r="D523" s="6">
         <f t="shared" si="8"/>

--- a/DocumentazioneEsterna/PianoDiQualifica/res/ResocontoAttivitaDiVerifica/res/metriche/grafici/qualitàProdotto/qualitàProdotto.xlsx
+++ b/DocumentazioneEsterna/PianoDiQualifica/res/ResocontoAttivitaDiVerifica/res/metriche/grafici/qualitàProdotto/qualitàProdotto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Università\Terzo anno\SWE\Progetto\Documentazione\DocumentazioneEsterna\PianoDiQualifica\res\ResocontoAttivitaDiVerifica\res\metriche\grafici\qualitàProdotto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E84287-FB8B-4D73-B20E-C5CBF4A78417}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83CFEA73-8779-4638-B383-7969DDA1EC0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E6A987FF-90E1-49FC-8E34-192DB323E80C}"/>
   </bookViews>
@@ -632,9 +632,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sviluppo!$C$8:$C$14</c:f>
+              <c:f>Sviluppo!$C$8:$C$13</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -652,19 +652,16 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>PD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$D$8:$D$14</c:f>
+              <c:f>Sviluppo!$D$8:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.4</c:v>
                 </c:pt>
@@ -682,9 +679,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.92</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.95</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -738,9 +732,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sviluppo!$C$8:$C$14</c:f>
+              <c:f>Sviluppo!$C$8:$C$13</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -758,19 +752,16 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>PD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$E$8:$E$14</c:f>
+              <c:f>Sviluppo!$E$8:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -787,9 +778,6 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1241,9 +1229,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sviluppo!$C$465:$C$471</c:f>
+              <c:f>Sviluppo!$C$465:$C$470</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -1261,19 +1249,16 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>PD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$D$465:$D$471</c:f>
+              <c:f>Sviluppo!$D$465:$D$470</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.1</c:v>
                 </c:pt>
@@ -1290,10 +1275,7 @@
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.6207455429497569E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.9675850891410053E-2</c:v>
+                  <c:v>0.1053484602917342</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1333,9 +1315,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sviluppo!$C$465:$C$471</c:f>
+              <c:f>Sviluppo!$C$465:$C$470</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -1353,19 +1335,16 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>PD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$E$465:$E$471</c:f>
+              <c:f>Sviluppo!$E$465:$E$470</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.2</c:v>
                 </c:pt>
@@ -1382,9 +1361,6 @@
                   <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>0.2</c:v>
                 </c:pt>
               </c:numCache>
@@ -1425,9 +1401,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sviluppo!$C$465:$C$471</c:f>
+              <c:f>Sviluppo!$C$465:$C$470</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -1445,19 +1421,16 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>PD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$F$465:$F$471</c:f>
+              <c:f>Sviluppo!$F$465:$F$470</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.1</c:v>
                 </c:pt>
@@ -1474,9 +1447,6 @@
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>0.1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1931,9 +1901,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sviluppo!$C$517:$C$523</c:f>
+              <c:f>Sviluppo!$C$517:$C$522</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -1951,19 +1921,16 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>PD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$D$517:$D$523</c:f>
+              <c:f>Sviluppo!$D$517:$D$522</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.05</c:v>
                 </c:pt>
@@ -1974,15 +1941,12 @@
                   <c:v>0.12857142857142856</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1</c:v>
+                  <c:v>7.1428571428571425E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.9664053751399778E-2</c:v>
+                  <c:v>7.1428571428571425E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.7322239031770051E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>0.10337972166998012</c:v>
                 </c:pt>
               </c:numCache>
@@ -2023,9 +1987,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sviluppo!$C$517:$C$523</c:f>
+              <c:f>Sviluppo!$C$517:$C$522</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -2043,19 +2007,16 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>PD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$E$517:$E$523</c:f>
+              <c:f>Sviluppo!$E$517:$E$522</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.2</c:v>
                 </c:pt>
@@ -2072,9 +2033,6 @@
                   <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>0.2</c:v>
                 </c:pt>
               </c:numCache>
@@ -2115,9 +2073,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sviluppo!$C$517:$C$523</c:f>
+              <c:f>Sviluppo!$C$517:$C$522</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -2135,19 +2093,16 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>PD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$F$517:$F$523</c:f>
+              <c:f>Sviluppo!$F$517:$F$522</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.1</c:v>
                 </c:pt>
@@ -2164,9 +2119,6 @@
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>0.1</c:v>
                 </c:pt>
               </c:numCache>
@@ -2556,9 +2508,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sviluppo!$C$46:$C$52</c:f>
+              <c:f>Sviluppo!$C$46:$C$51</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -2576,19 +2528,16 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>PD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$F$46:$F$52</c:f>
+              <c:f>Sviluppo!$F$46:$F$51</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.15</c:v>
                 </c:pt>
@@ -2605,9 +2554,6 @@
                   <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>0.15</c:v>
                 </c:pt>
               </c:numCache>
@@ -2731,9 +2677,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sviluppo!$C$46:$C$52</c:f>
+              <c:f>Sviluppo!$C$46:$C$51</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -2751,19 +2697,16 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>PD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$D$46:$D$52</c:f>
+              <c:f>Sviluppo!$D$46:$D$51</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.1111111111111111</c:v>
                 </c:pt>
@@ -2780,9 +2723,6 @@
                   <c:v>4.8387096774193547E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.282051282051282E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2823,9 +2763,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sviluppo!$C$46:$C$52</c:f>
+              <c:f>Sviluppo!$C$46:$C$51</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -2843,19 +2783,16 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>PD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$E$46:$E$52</c:f>
+              <c:f>Sviluppo!$E$46:$E$51</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2872,9 +2809,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3249,9 +3183,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sviluppo!$C$90:$C$96</c:f>
+              <c:f>Sviluppo!$C$90:$C$95</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -3269,19 +3203,16 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>PD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$F$90:$F$96</c:f>
+              <c:f>Sviluppo!$F$90:$F$95</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>15</c:v>
                 </c:pt>
@@ -3298,9 +3229,6 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
@@ -3354,9 +3282,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sviluppo!$C$90:$C$96</c:f>
+              <c:f>Sviluppo!$C$90:$C$95</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -3374,19 +3302,16 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>PD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$E$90:$E$96</c:f>
+              <c:f>Sviluppo!$E$90:$E$95</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -3403,9 +3328,6 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -3529,9 +3451,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sviluppo!$C$90:$C$96</c:f>
+              <c:f>Sviluppo!$C$90:$C$95</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -3549,19 +3471,16 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>PD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$D$90:$D$96</c:f>
+              <c:f>Sviluppo!$D$90:$D$95</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -3578,9 +3497,6 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
@@ -4047,9 +3963,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sviluppo!$C$137:$C$143</c:f>
+              <c:f>Sviluppo!$C$137:$C$142</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -4067,19 +3983,16 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>PD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$F$137:$F$143</c:f>
+              <c:f>Sviluppo!$F$137:$F$142</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>15</c:v>
                 </c:pt>
@@ -4096,9 +4009,6 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
@@ -4152,9 +4062,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sviluppo!$C$137:$C$143</c:f>
+              <c:f>Sviluppo!$C$137:$C$142</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -4172,19 +4082,16 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>PD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$E$137:$E$143</c:f>
+              <c:f>Sviluppo!$E$137:$E$142</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -4201,9 +4108,6 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -4327,9 +4231,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sviluppo!$C$137:$C$143</c:f>
+              <c:f>Sviluppo!$C$137:$C$142</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -4347,19 +4251,16 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>PD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$D$137:$D$143</c:f>
+              <c:f>Sviluppo!$D$137:$D$142</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1.8181818181818181</c:v>
                 </c:pt>
@@ -4376,9 +4277,6 @@
                   <c:v>1.5714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5526315789473684</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>1.3777777777777778</c:v>
                 </c:pt>
               </c:numCache>
@@ -4790,9 +4688,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sviluppo!$C$187:$C$193</c:f>
+              <c:f>Sviluppo!$C$187:$C$192</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -4810,19 +4708,16 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>PD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$F$187:$F$193</c:f>
+              <c:f>Sviluppo!$F$187:$F$192</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>15</c:v>
                 </c:pt>
@@ -4839,9 +4734,6 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
@@ -4895,9 +4787,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sviluppo!$C$187:$C$193</c:f>
+              <c:f>Sviluppo!$C$187:$C$192</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -4915,19 +4807,16 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>PD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$E$187:$E$193</c:f>
+              <c:f>Sviluppo!$E$187:$E$192</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -4944,9 +4833,6 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -5070,9 +4956,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sviluppo!$C$187:$C$193</c:f>
+              <c:f>Sviluppo!$C$187:$C$192</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -5090,19 +4976,16 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>PD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$D$187:$D$193</c:f>
+              <c:f>Sviluppo!$D$187:$D$192</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>11</c:v>
                 </c:pt>
@@ -5119,9 +5002,6 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
@@ -5533,9 +5413,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sviluppo!$C$251:$C$257</c:f>
+              <c:f>Sviluppo!$C$251:$C$256</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -5553,19 +5433,16 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>PD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$F$251:$F$257</c:f>
+              <c:f>Sviluppo!$F$251:$F$256</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -5582,9 +5459,6 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
@@ -5638,9 +5512,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sviluppo!$C$251:$C$257</c:f>
+              <c:f>Sviluppo!$C$251:$C$256</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -5658,19 +5532,16 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>PD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$E$251:$E$257</c:f>
+              <c:f>Sviluppo!$E$251:$E$256</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -5687,9 +5558,6 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
@@ -5813,9 +5681,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sviluppo!$C$251:$C$257</c:f>
+              <c:f>Sviluppo!$C$251:$C$256</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -5833,19 +5701,16 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>PD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$D$251:$D$257</c:f>
+              <c:f>Sviluppo!$D$251:$D$256</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.70588235294117652</c:v>
                 </c:pt>
@@ -5863,9 +5728,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1.5614035087719298</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.523076923076923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6276,9 +6138,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sviluppo!$C$308:$C$314</c:f>
+              <c:f>Sviluppo!$C$308:$C$313</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -6296,19 +6158,16 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>PD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$F$308:$F$314</c:f>
+              <c:f>Sviluppo!$F$308:$F$313</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -6325,9 +6184,6 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
@@ -6381,9 +6237,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sviluppo!$C$308:$C$314</c:f>
+              <c:f>Sviluppo!$C$308:$C$313</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -6401,19 +6257,16 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>PD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$E$308:$E$314</c:f>
+              <c:f>Sviluppo!$E$308:$E$313</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -6430,9 +6283,6 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
@@ -6556,9 +6406,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sviluppo!$C$308:$C$314</c:f>
+              <c:f>Sviluppo!$C$308:$C$313</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -6576,19 +6426,16 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>PD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$D$308:$D$314</c:f>
+              <c:f>Sviluppo!$D$308:$D$313</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.91304347826086951</c:v>
                 </c:pt>
@@ -6605,9 +6452,6 @@
                   <c:v>1.4098360655737705</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4098360655737705</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>1.5</c:v>
                 </c:pt>
               </c:numCache>
@@ -7019,9 +6863,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sviluppo!$C$369:$C$375</c:f>
+              <c:f>Sviluppo!$C$369:$C$374</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -7039,19 +6883,16 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>PD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$F$369:$F$375</c:f>
+              <c:f>Sviluppo!$F$369:$F$374</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>8</c:v>
                 </c:pt>
@@ -7068,9 +6909,6 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
@@ -7124,9 +6962,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sviluppo!$C$369:$C$375</c:f>
+              <c:f>Sviluppo!$C$369:$C$374</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -7144,19 +6982,16 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>PD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$E$369:$E$375</c:f>
+              <c:f>Sviluppo!$E$369:$E$374</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -7173,9 +7008,6 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
@@ -7299,9 +7131,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sviluppo!$C$369:$C$375</c:f>
+              <c:f>Sviluppo!$C$369:$C$374</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -7319,19 +7151,16 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>PD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$D$369:$D$375</c:f>
+              <c:f>Sviluppo!$D$369:$D$374</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -7348,9 +7177,6 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -15313,8 +15139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4F4DE7-87B1-4CD4-B318-8D739C70AC78}">
   <dimension ref="C6:L527"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A541" workbookViewId="0">
-      <selection activeCell="E563" sqref="E563"/>
+    <sheetView tabSelected="1" topLeftCell="B322" workbookViewId="0">
+      <selection activeCell="F535" sqref="F535"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15662,8 +15488,8 @@
         <v>90</v>
       </c>
       <c r="D51" s="6">
-        <f t="shared" si="1"/>
-        <v>1.282051282051282E-2</v>
+        <f>(G51/H51)</f>
+        <v>0</v>
       </c>
       <c r="E51" s="6">
         <v>0</v>
@@ -15672,7 +15498,7 @@
         <v>0.15</v>
       </c>
       <c r="G51" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" s="9">
         <v>78</v>
@@ -16067,8 +15893,8 @@
         <v>90</v>
       </c>
       <c r="D142" s="9">
-        <f t="shared" si="2"/>
-        <v>1.5526315789473684</v>
+        <f t="shared" ref="D142" si="3">G142/H142</f>
+        <v>1.3777777777777778</v>
       </c>
       <c r="E142" s="9">
         <v>10</v>
@@ -16077,12 +15903,12 @@
         <v>15</v>
       </c>
       <c r="G142" s="9">
-        <f>SUM(L161:L198)</f>
-        <v>59</v>
+        <f>SUM(L160:L204)</f>
+        <v>62</v>
       </c>
       <c r="H142" s="9">
-        <f>COUNTA(K161:K198)</f>
-        <v>38</v>
+        <f>COUNTA(K160:K204)</f>
+        <v>45</v>
       </c>
     </row>
     <row r="143" spans="3:8" x14ac:dyDescent="0.3">
@@ -16428,7 +16254,7 @@
         <v>86</v>
       </c>
       <c r="D188" s="9">
-        <f t="shared" ref="D188:D194" si="3">G188/H188</f>
+        <f t="shared" ref="D188:D194" si="4">G188/H188</f>
         <v>11</v>
       </c>
       <c r="E188" s="9">
@@ -16457,7 +16283,7 @@
         <v>87</v>
       </c>
       <c r="D189" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.5</v>
       </c>
       <c r="E189" s="9">
@@ -16486,7 +16312,7 @@
         <v>88</v>
       </c>
       <c r="D190" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="E190" s="9">
@@ -16515,7 +16341,7 @@
         <v>89</v>
       </c>
       <c r="D191" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="E191" s="9">
@@ -16544,8 +16370,8 @@
         <v>90</v>
       </c>
       <c r="D192" s="9">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="E192" s="9">
         <v>10</v>
@@ -16554,12 +16380,12 @@
         <v>15</v>
       </c>
       <c r="G192" s="9">
-        <f>SUM(L210:L212)</f>
-        <v>15</v>
+        <f>SUM(L210:L214)</f>
+        <v>20</v>
       </c>
       <c r="H192" s="9">
-        <f>COUNTA(K210:K212)</f>
-        <v>3</v>
+        <f>COUNTA(K210:K214)</f>
+        <v>5</v>
       </c>
       <c r="K192" s="15" t="s">
         <v>54</v>
@@ -16573,7 +16399,7 @@
         <v>74</v>
       </c>
       <c r="D193" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="E193" s="9">
@@ -16602,7 +16428,7 @@
         <v>44300</v>
       </c>
       <c r="D194" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="E194" s="9">
@@ -16861,7 +16687,7 @@
         <v>86</v>
       </c>
       <c r="D252" s="9">
-        <f t="shared" ref="D252:D258" si="4">G252/H252</f>
+        <f t="shared" ref="D252:D258" si="5">G252/H252</f>
         <v>1.2857142857142858</v>
       </c>
       <c r="E252" s="9">
@@ -16884,7 +16710,7 @@
         <v>87</v>
       </c>
       <c r="D253" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.553191489361702</v>
       </c>
       <c r="E253" s="9">
@@ -16909,7 +16735,7 @@
         <v>88</v>
       </c>
       <c r="D254" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.56</v>
       </c>
       <c r="E254" s="9">
@@ -16934,7 +16760,7 @@
         <v>89</v>
       </c>
       <c r="D255" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5535714285714286</v>
       </c>
       <c r="E255" s="9">
@@ -16984,7 +16810,7 @@
         <v>74</v>
       </c>
       <c r="D257" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.523076923076923</v>
       </c>
       <c r="E257" s="9">
@@ -17009,7 +16835,7 @@
         <v>44300</v>
       </c>
       <c r="D258" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5074626865671641</v>
       </c>
       <c r="E258" s="9">
@@ -17116,7 +16942,7 @@
         <v>86</v>
       </c>
       <c r="D309" s="9">
-        <f t="shared" ref="D309:D312" si="5">G309/H309</f>
+        <f t="shared" ref="D309:D312" si="6">G309/H309</f>
         <v>1.0689655172413792</v>
       </c>
       <c r="E309" s="9">
@@ -17139,7 +16965,7 @@
         <v>87</v>
       </c>
       <c r="D310" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.91666666666666663</v>
       </c>
       <c r="E310" s="9">
@@ -17163,7 +16989,7 @@
         <v>88</v>
       </c>
       <c r="D311" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.4098360655737705</v>
       </c>
       <c r="E311" s="9">
@@ -17188,7 +17014,7 @@
         <v>89</v>
       </c>
       <c r="D312" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.4098360655737705</v>
       </c>
       <c r="E312" s="9">
@@ -17213,7 +17039,7 @@
       </c>
       <c r="D313" s="9">
         <f>G313/H313</f>
-        <v>1.4098360655737705</v>
+        <v>1.5</v>
       </c>
       <c r="E313" s="9">
         <v>3</v>
@@ -17222,11 +17048,11 @@
         <v>6</v>
       </c>
       <c r="G313" s="9">
-        <f>86</f>
-        <v>86</v>
+        <f>96</f>
+        <v>96</v>
       </c>
       <c r="H313" s="9">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J313" s="11"/>
       <c r="K313" s="11"/>
@@ -17236,7 +17062,7 @@
         <v>74</v>
       </c>
       <c r="D314" s="9">
-        <f t="shared" ref="D314:D315" si="6">G314/H314</f>
+        <f t="shared" ref="D314:D315" si="7">G314/H314</f>
         <v>1.5</v>
       </c>
       <c r="E314" s="9">
@@ -17259,7 +17085,7 @@
         <v>44300</v>
       </c>
       <c r="D315" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.5</v>
       </c>
       <c r="E315" s="9">
@@ -17666,7 +17492,7 @@
         <v>86</v>
       </c>
       <c r="D466" s="6">
-        <f t="shared" ref="D466:D472" si="7">G466/H466</f>
+        <f t="shared" ref="D466:D472" si="8">G466/H466</f>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="E466" s="6">
@@ -17687,7 +17513,7 @@
         <v>87</v>
       </c>
       <c r="D467" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.125</v>
       </c>
       <c r="E467" s="6">
@@ -17708,7 +17534,7 @@
         <v>88</v>
       </c>
       <c r="D468" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.1</v>
       </c>
       <c r="E468" s="6">
@@ -17729,7 +17555,7 @@
         <v>89</v>
       </c>
       <c r="D469" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.1</v>
       </c>
       <c r="E469" s="6">
@@ -17750,8 +17576,8 @@
         <v>90</v>
       </c>
       <c r="D470" s="6">
-        <f t="shared" si="7"/>
-        <v>1.6207455429497569E-2</v>
+        <f>G470/H470</f>
+        <v>0.1053484602917342</v>
       </c>
       <c r="E470" s="6">
         <v>0.2</v>
@@ -17760,7 +17586,7 @@
         <v>0.1</v>
       </c>
       <c r="G470" s="9">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="H470" s="9">
         <v>1234</v>
@@ -17771,7 +17597,7 @@
         <v>74</v>
       </c>
       <c r="D471" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9.9675850891410053E-2</v>
       </c>
       <c r="E471" s="6">
@@ -17792,7 +17618,7 @@
         <v>44300</v>
       </c>
       <c r="D472" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.13371150729335493</v>
       </c>
       <c r="E472" s="6">
@@ -17885,7 +17711,7 @@
         <v>86</v>
       </c>
       <c r="D518" s="6">
-        <f t="shared" ref="D518:D524" si="8">G518/H518</f>
+        <f t="shared" ref="D518:D524" si="9">G518/H518</f>
         <v>2.8571428571428571E-2</v>
       </c>
       <c r="E518" s="6">
@@ -17906,7 +17732,7 @@
         <v>87</v>
       </c>
       <c r="D519" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.12857142857142856</v>
       </c>
       <c r="E519" s="6">
@@ -17927,8 +17753,8 @@
         <v>88</v>
       </c>
       <c r="D520" s="6">
-        <f t="shared" si="8"/>
-        <v>0.1</v>
+        <f t="shared" si="9"/>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="E520" s="6">
         <v>0.2</v>
@@ -17937,7 +17763,7 @@
         <v>0.1</v>
       </c>
       <c r="G520" s="9">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H520" s="9">
         <v>350</v>
@@ -17948,8 +17774,8 @@
         <v>89</v>
       </c>
       <c r="D521" s="6">
-        <f t="shared" si="8"/>
-        <v>9.9664053751399778E-2</v>
+        <f t="shared" ref="D521" si="10">G521/H521</f>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="E521" s="6">
         <v>0.2</v>
@@ -17958,10 +17784,10 @@
         <v>0.1</v>
       </c>
       <c r="G521" s="9">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="H521" s="9">
-        <v>893</v>
+        <v>350</v>
       </c>
     </row>
     <row r="522" spans="3:8" x14ac:dyDescent="0.3">
@@ -17969,8 +17795,8 @@
         <v>90</v>
       </c>
       <c r="D522" s="6">
-        <f t="shared" si="8"/>
-        <v>6.7322239031770051E-2</v>
+        <f t="shared" ref="D522" si="11">G522/H522</f>
+        <v>0.10337972166998012</v>
       </c>
       <c r="E522" s="6">
         <v>0.2</v>
@@ -17979,10 +17805,10 @@
         <v>0.1</v>
       </c>
       <c r="G522" s="9">
-        <v>89</v>
+        <v>156</v>
       </c>
       <c r="H522" s="9">
-        <v>1322</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="523" spans="3:8" x14ac:dyDescent="0.3">
@@ -17990,7 +17816,7 @@
         <v>74</v>
       </c>
       <c r="D523" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.10337972166998012</v>
       </c>
       <c r="E523" s="6">
@@ -18011,7 +17837,7 @@
         <v>44300</v>
       </c>
       <c r="D524" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.11530815109343936</v>
       </c>
       <c r="E524" s="6">

--- a/DocumentazioneEsterna/PianoDiQualifica/res/ResocontoAttivitaDiVerifica/res/metriche/grafici/qualitàProdotto/qualitàProdotto.xlsx
+++ b/DocumentazioneEsterna/PianoDiQualifica/res/ResocontoAttivitaDiVerifica/res/metriche/grafici/qualitàProdotto/qualitàProdotto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Università\Terzo anno\SWE\Progetto\Documentazione\DocumentazioneEsterna\PianoDiQualifica\res\ResocontoAttivitaDiVerifica\res\metriche\grafici\qualitàProdotto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83CFEA73-8779-4638-B383-7969DDA1EC0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F18FACA7-8E09-41F1-92C0-35DC66E28418}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E6A987FF-90E1-49FC-8E34-192DB323E80C}"/>
   </bookViews>
@@ -15139,7 +15139,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4F4DE7-87B1-4CD4-B318-8D739C70AC78}">
   <dimension ref="C6:L527"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B322" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
       <selection activeCell="F535" sqref="F535"/>
     </sheetView>
   </sheetViews>

--- a/DocumentazioneEsterna/PianoDiQualifica/res/ResocontoAttivitaDiVerifica/res/metriche/grafici/qualitàProdotto/qualitàProdotto.xlsx
+++ b/DocumentazioneEsterna/PianoDiQualifica/res/ResocontoAttivitaDiVerifica/res/metriche/grafici/qualitàProdotto/qualitàProdotto.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Università\Terzo anno\SWE\Progetto\Documentazione\DocumentazioneEsterna\PianoDiQualifica\res\ResocontoAttivitaDiVerifica\res\metriche\grafici\qualitàProdotto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F18FACA7-8E09-41F1-92C0-35DC66E28418}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2360FBEE-406C-4192-983B-493FF16A7E22}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E6A987FF-90E1-49FC-8E34-192DB323E80C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="94">
   <si>
     <t>Periodo</t>
   </si>
@@ -307,6 +307,15 @@
   <si>
     <t>Incremento 10</t>
   </si>
+  <si>
+    <t>Incremento 11</t>
+  </si>
+  <si>
+    <t>Incremento 12</t>
+  </si>
+  <si>
+    <t>Incremento 13</t>
+  </si>
 </sst>
 </file>
 
@@ -317,7 +326,7 @@
     <numFmt numFmtId="165" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -337,6 +346,12 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -419,7 +434,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -443,8 +458,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -632,9 +645,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sviluppo!$C$8:$C$13</c:f>
+              <c:f>Sviluppo!$C$8:$C$16</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -652,16 +665,25 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Incremento 11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Incremento 12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Incremento 13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$D$8:$D$13</c:f>
+              <c:f>Sviluppo!$D$8:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.4</c:v>
                 </c:pt>
@@ -678,6 +700,15 @@
                   <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.92</c:v>
                 </c:pt>
               </c:numCache>
@@ -732,9 +763,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sviluppo!$C$8:$C$13</c:f>
+              <c:f>Sviluppo!$C$8:$C$16</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -752,16 +783,25 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Incremento 11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Incremento 12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Incremento 13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$E$8:$E$13</c:f>
+              <c:f>Sviluppo!$E$8:$E$16</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -778,6 +818,15 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1229,9 +1278,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sviluppo!$C$465:$C$470</c:f>
+              <c:f>Sviluppo!$C$465:$C$473</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -1249,16 +1298,25 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Incremento 11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Incremento 12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Incremento 13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$D$465:$D$470</c:f>
+              <c:f>Sviluppo!$D$465:$D$473</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.1</c:v>
                 </c:pt>
@@ -1275,6 +1333,15 @@
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.1053484602917342</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1053484602917342</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1053484602917342</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.1053484602917342</c:v>
                 </c:pt>
               </c:numCache>
@@ -1315,9 +1382,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sviluppo!$C$465:$C$470</c:f>
+              <c:f>Sviluppo!$C$465:$C$473</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -1335,16 +1402,25 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Incremento 11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Incremento 12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Incremento 13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$E$465:$E$470</c:f>
+              <c:f>Sviluppo!$E$465:$E$473</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.2</c:v>
                 </c:pt>
@@ -1361,6 +1437,15 @@
                   <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.2</c:v>
                 </c:pt>
               </c:numCache>
@@ -1401,9 +1486,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sviluppo!$C$465:$C$470</c:f>
+              <c:f>Sviluppo!$C$465:$C$473</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -1421,16 +1506,25 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Incremento 11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Incremento 12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Incremento 13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$F$465:$F$470</c:f>
+              <c:f>Sviluppo!$F$465:$F$473</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.1</c:v>
                 </c:pt>
@@ -1447,6 +1541,15 @@
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1901,9 +2004,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sviluppo!$C$517:$C$522</c:f>
+              <c:f>Sviluppo!$C$517:$C$525</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -1921,16 +2024,25 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Incremento 11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Incremento 12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Incremento 13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$D$517:$D$522</c:f>
+              <c:f>Sviluppo!$D$517:$D$525</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.05</c:v>
                 </c:pt>
@@ -1947,6 +2059,15 @@
                   <c:v>7.1428571428571425E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.10337972166998012</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.10337972166998012</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.10337972166998012</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.10337972166998012</c:v>
                 </c:pt>
               </c:numCache>
@@ -1987,9 +2108,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sviluppo!$C$517:$C$522</c:f>
+              <c:f>Sviluppo!$C$517:$C$525</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -2007,16 +2128,25 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Incremento 11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Incremento 12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Incremento 13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$E$517:$E$522</c:f>
+              <c:f>Sviluppo!$E$517:$E$525</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.2</c:v>
                 </c:pt>
@@ -2033,6 +2163,15 @@
                   <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.2</c:v>
                 </c:pt>
               </c:numCache>
@@ -2073,9 +2212,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sviluppo!$C$517:$C$522</c:f>
+              <c:f>Sviluppo!$C$517:$C$525</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -2093,16 +2232,25 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Incremento 11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Incremento 12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Incremento 13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$F$517:$F$522</c:f>
+              <c:f>Sviluppo!$F$517:$F$525</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.1</c:v>
                 </c:pt>
@@ -2119,6 +2267,15 @@
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.1</c:v>
                 </c:pt>
               </c:numCache>
@@ -2508,9 +2665,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sviluppo!$C$46:$C$51</c:f>
+              <c:f>Sviluppo!$C$46:$C$54</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -2528,16 +2685,25 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Incremento 11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Incremento 12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Incremento 13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$F$46:$F$51</c:f>
+              <c:f>Sviluppo!$F$46:$F$54</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.15</c:v>
                 </c:pt>
@@ -2554,6 +2720,15 @@
                   <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.15</c:v>
                 </c:pt>
               </c:numCache>
@@ -2677,9 +2852,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sviluppo!$C$46:$C$51</c:f>
+              <c:f>Sviluppo!$C$46:$C$54</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -2697,16 +2872,25 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Incremento 11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Incremento 12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Incremento 13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$D$46:$D$51</c:f>
+              <c:f>Sviluppo!$D$46:$D$54</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.1111111111111111</c:v>
                 </c:pt>
@@ -2723,6 +2907,15 @@
                   <c:v>4.8387096774193547E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2763,9 +2956,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sviluppo!$C$46:$C$51</c:f>
+              <c:f>Sviluppo!$C$46:$C$54</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -2783,6 +2976,15 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Incremento 11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Incremento 12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Incremento 13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3183,9 +3385,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sviluppo!$C$90:$C$95</c:f>
+              <c:f>Sviluppo!$C$90:$C$98</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -3203,16 +3405,25 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Incremento 11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Incremento 12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Incremento 13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$F$90:$F$95</c:f>
+              <c:f>Sviluppo!$F$90:$F$98</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>15</c:v>
                 </c:pt>
@@ -3229,6 +3440,15 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
@@ -3282,9 +3502,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sviluppo!$C$90:$C$95</c:f>
+              <c:f>Sviluppo!$C$90:$C$98</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -3302,16 +3522,25 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Incremento 11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Incremento 12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Incremento 13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$E$90:$E$95</c:f>
+              <c:f>Sviluppo!$E$90:$E$98</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -3328,6 +3557,15 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -3451,9 +3689,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sviluppo!$C$90:$C$95</c:f>
+              <c:f>Sviluppo!$C$90:$C$98</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -3471,16 +3709,25 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Incremento 11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Incremento 12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Incremento 13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$D$90:$D$95</c:f>
+              <c:f>Sviluppo!$D$90:$D$98</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -3497,6 +3744,15 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
@@ -3963,9 +4219,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sviluppo!$C$137:$C$142</c:f>
+              <c:f>Sviluppo!$C$137:$C$145</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -3983,16 +4239,25 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Incremento 11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Incremento 12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Incremento 13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$F$137:$F$142</c:f>
+              <c:f>Sviluppo!$F$137:$F$145</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>15</c:v>
                 </c:pt>
@@ -4009,6 +4274,15 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
@@ -4062,9 +4336,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sviluppo!$C$137:$C$142</c:f>
+              <c:f>Sviluppo!$C$137:$C$145</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -4082,16 +4356,25 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Incremento 11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Incremento 12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Incremento 13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$E$137:$E$142</c:f>
+              <c:f>Sviluppo!$E$137:$E$145</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -4108,6 +4391,15 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -4231,9 +4523,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sviluppo!$C$137:$C$142</c:f>
+              <c:f>Sviluppo!$C$137:$C$145</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -4251,16 +4543,25 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Incremento 11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Incremento 12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Incremento 13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$D$137:$D$142</c:f>
+              <c:f>Sviluppo!$D$137:$D$145</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1.8181818181818181</c:v>
                 </c:pt>
@@ -4278,6 +4579,15 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1.3777777777777778</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3777777777777778</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2727272727272727</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2790697674418605</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4688,9 +4998,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sviluppo!$C$187:$C$192</c:f>
+              <c:f>Sviluppo!$C$187:$C$195</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -4708,16 +5018,25 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Incremento 11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Incremento 12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Incremento 13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$F$187:$F$192</c:f>
+              <c:f>Sviluppo!$F$187:$F$195</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>15</c:v>
                 </c:pt>
@@ -4734,6 +5053,15 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
@@ -4787,9 +5115,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sviluppo!$C$187:$C$192</c:f>
+              <c:f>Sviluppo!$C$187:$C$195</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -4807,16 +5135,25 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Incremento 11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Incremento 12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Incremento 13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$E$187:$E$192</c:f>
+              <c:f>Sviluppo!$E$187:$E$195</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -4833,6 +5170,15 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -4956,9 +5302,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sviluppo!$C$187:$C$192</c:f>
+              <c:f>Sviluppo!$C$187:$C$195</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -4976,16 +5322,25 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Incremento 11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Incremento 12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Incremento 13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$D$187:$D$192</c:f>
+              <c:f>Sviluppo!$D$187:$D$195</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>11</c:v>
                 </c:pt>
@@ -5003,6 +5358,15 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.3333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5413,9 +5777,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sviluppo!$C$251:$C$256</c:f>
+              <c:f>Sviluppo!$C$251:$C$259</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -5433,16 +5797,25 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Incremento 11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Incremento 12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Incremento 13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$F$251:$F$256</c:f>
+              <c:f>Sviluppo!$F$251:$F$259</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -5459,6 +5832,15 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
@@ -5512,9 +5894,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sviluppo!$C$251:$C$256</c:f>
+              <c:f>Sviluppo!$C$251:$C$259</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -5532,16 +5914,25 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Incremento 11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Incremento 12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Incremento 13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$E$251:$E$256</c:f>
+              <c:f>Sviluppo!$E$251:$E$259</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -5558,6 +5949,15 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
@@ -5681,9 +6081,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sviluppo!$C$251:$C$256</c:f>
+              <c:f>Sviluppo!$C$251:$C$259</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -5701,16 +6101,25 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Incremento 11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Incremento 12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Incremento 13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$D$251:$D$256</c:f>
+              <c:f>Sviluppo!$D$251:$D$259</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.70588235294117652</c:v>
                 </c:pt>
@@ -5727,6 +6136,15 @@
                   <c:v>1.5535714285714286</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>1.5614035087719298</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5614035087719298</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5614035087719298</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>1.5614035087719298</c:v>
                 </c:pt>
               </c:numCache>
@@ -6138,9 +6556,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sviluppo!$C$308:$C$313</c:f>
+              <c:f>Sviluppo!$C$308:$C$316</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -6158,16 +6576,25 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Incremento 11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Incremento 12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Incremento 13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$F$308:$F$313</c:f>
+              <c:f>Sviluppo!$F$308:$F$316</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -6184,6 +6611,15 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
@@ -6237,9 +6673,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sviluppo!$C$308:$C$313</c:f>
+              <c:f>Sviluppo!$C$308:$C$316</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -6257,16 +6693,25 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Incremento 11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Incremento 12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Incremento 13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$E$308:$E$313</c:f>
+              <c:f>Sviluppo!$E$308:$E$316</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -6283,6 +6728,15 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
@@ -6406,9 +6860,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sviluppo!$C$308:$C$313</c:f>
+              <c:f>Sviluppo!$C$308:$C$316</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -6426,16 +6880,25 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Incremento 11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Incremento 12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Incremento 13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$D$308:$D$313</c:f>
+              <c:f>Sviluppo!$D$308:$D$316</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.91304347826086951</c:v>
                 </c:pt>
@@ -6453,6 +6916,15 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.476923076923077</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4545454545454546</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4328358208955223</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6863,9 +7335,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sviluppo!$C$369:$C$374</c:f>
+              <c:f>Sviluppo!$C$369:$C$377</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -6883,16 +7355,25 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Incremento 11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Incremento 12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Incremento 13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$F$369:$F$374</c:f>
+              <c:f>Sviluppo!$F$369:$F$377</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>8</c:v>
                 </c:pt>
@@ -6909,6 +7390,15 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
@@ -6962,9 +7452,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sviluppo!$C$369:$C$374</c:f>
+              <c:f>Sviluppo!$C$369:$C$377</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -6982,16 +7472,25 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Incremento 11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Incremento 12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Incremento 13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$E$369:$E$374</c:f>
+              <c:f>Sviluppo!$E$369:$E$377</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -7008,6 +7507,15 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
@@ -7131,9 +7639,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sviluppo!$C$369:$C$374</c:f>
+              <c:f>Sviluppo!$C$369:$C$377</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -7151,16 +7659,25 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Incremento 11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Incremento 12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Incremento 13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$D$369:$D$374</c:f>
+              <c:f>Sviluppo!$D$369:$D$377</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -7177,6 +7694,15 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -15139,8 +15665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4F4DE7-87B1-4CD4-B318-8D739C70AC78}">
   <dimension ref="C6:L527"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="F535" sqref="F535"/>
+    <sheetView tabSelected="1" topLeftCell="B586" workbookViewId="0">
+      <selection activeCell="G522" sqref="F522:G526"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15276,7 +15802,7 @@
       </c>
     </row>
     <row r="13" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="23" t="s">
         <v>90</v>
       </c>
       <c r="D13" s="6">
@@ -15294,47 +15820,58 @@
       </c>
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C14" s="25" t="s">
-        <v>74</v>
+      <c r="C14" s="23" t="s">
+        <v>91</v>
       </c>
       <c r="D14" s="6">
-        <f t="shared" si="0"/>
-        <v>0.95</v>
+        <f t="shared" ref="D14:D16" si="1">(1-F14/G14)</f>
+        <v>0.92</v>
       </c>
       <c r="E14" s="6">
         <v>1</v>
       </c>
       <c r="F14" s="9">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G14" s="9">
         <v>100</v>
       </c>
     </row>
     <row r="15" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C15" s="10">
-        <v>44300</v>
+      <c r="C15" s="23" t="s">
+        <v>92</v>
       </c>
       <c r="D15" s="6">
-        <f t="shared" si="0"/>
-        <v>0.95</v>
+        <f t="shared" si="1"/>
+        <v>0.92</v>
       </c>
       <c r="E15" s="6">
         <v>1</v>
       </c>
       <c r="F15" s="9">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G15" s="9">
         <v>100</v>
       </c>
     </row>
     <row r="16" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C16" s="12"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
+      <c r="C16" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="6">
+        <f t="shared" si="1"/>
+        <v>0.92</v>
+      </c>
+      <c r="E16" s="6">
+        <v>1</v>
+      </c>
+      <c r="F16" s="9">
+        <v>8</v>
+      </c>
+      <c r="G16" s="9">
+        <v>100</v>
+      </c>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C17" s="14"/>
@@ -15404,7 +15941,7 @@
         <v>86</v>
       </c>
       <c r="D47" s="6">
-        <f t="shared" ref="D47:D53" si="1">(G47/H47)</f>
+        <f t="shared" ref="D47:D53" si="2">(G47/H47)</f>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="E47" s="6">
@@ -15425,7 +15962,7 @@
         <v>87</v>
       </c>
       <c r="D48" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.6774193548387094E-2</v>
       </c>
       <c r="E48" s="6">
@@ -15446,7 +15983,7 @@
         <v>88</v>
       </c>
       <c r="D49" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.8387096774193547E-2</v>
       </c>
       <c r="E49" s="6">
@@ -15484,7 +16021,7 @@
       </c>
     </row>
     <row r="51" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C51" s="25" t="s">
+      <c r="C51" s="23" t="s">
         <v>90</v>
       </c>
       <c r="D51" s="6">
@@ -15505,11 +16042,11 @@
       </c>
     </row>
     <row r="52" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C52" s="25" t="s">
-        <v>74</v>
+      <c r="C52" s="23" t="s">
+        <v>91</v>
       </c>
       <c r="D52" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D52:D54" si="3">(G52/H52)</f>
         <v>0</v>
       </c>
       <c r="E52" s="6">
@@ -15526,12 +16063,12 @@
       </c>
     </row>
     <row r="53" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C53" s="10">
-        <v>44300</v>
+      <c r="C53" s="23" t="s">
+        <v>92</v>
       </c>
       <c r="D53" s="6">
-        <f t="shared" si="1"/>
-        <v>2.2222222222222223E-2</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="E53" s="6">
         <v>0</v>
@@ -15540,19 +16077,32 @@
         <v>0.15</v>
       </c>
       <c r="G53" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H53" s="9">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C54" s="10"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
+      <c r="C54" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D54" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E54" s="6">
+        <v>0</v>
+      </c>
+      <c r="F54" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="G54" s="9">
+        <v>0</v>
+      </c>
+      <c r="H54" s="9">
+        <v>78</v>
+      </c>
     </row>
     <row r="55" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C55" s="10"/>
@@ -15675,7 +16225,7 @@
       <c r="H94" s="11"/>
     </row>
     <row r="95" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C95" s="25" t="s">
+      <c r="C95" s="23" t="s">
         <v>90</v>
       </c>
       <c r="D95" s="9">
@@ -15691,8 +16241,8 @@
       <c r="H95" s="11"/>
     </row>
     <row r="96" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C96" s="25" t="s">
-        <v>74</v>
+      <c r="C96" s="23" t="s">
+        <v>91</v>
       </c>
       <c r="D96" s="9">
         <v>6</v>
@@ -15707,26 +16257,34 @@
       <c r="H96" s="11"/>
     </row>
     <row r="97" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C97" s="23">
-        <v>44300</v>
-      </c>
-      <c r="D97" s="24">
-        <v>7</v>
-      </c>
-      <c r="E97" s="24">
+      <c r="C97" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D97" s="9">
+        <v>6</v>
+      </c>
+      <c r="E97" s="9">
         <v>10</v>
       </c>
-      <c r="F97" s="24">
+      <c r="F97" s="9">
         <v>15</v>
       </c>
       <c r="G97" s="11"/>
       <c r="H97" s="11"/>
     </row>
     <row r="98" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C98" s="21"/>
-      <c r="D98" s="22"/>
-      <c r="E98" s="22"/>
-      <c r="F98" s="22"/>
+      <c r="C98" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D98" s="9">
+        <v>6</v>
+      </c>
+      <c r="E98" s="9">
+        <v>10</v>
+      </c>
+      <c r="F98" s="9">
+        <v>15</v>
+      </c>
       <c r="G98" s="11"/>
       <c r="H98" s="11"/>
     </row>
@@ -15801,7 +16359,7 @@
         <v>86</v>
       </c>
       <c r="D138" s="9">
-        <f t="shared" ref="D138:D144" si="2">G138/H138</f>
+        <f t="shared" ref="D138:D144" si="4">G138/H138</f>
         <v>1.6923076923076923</v>
       </c>
       <c r="E138" s="9">
@@ -15824,7 +16382,7 @@
         <v>87</v>
       </c>
       <c r="D139" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.7333333333333334</v>
       </c>
       <c r="E139" s="9">
@@ -15847,7 +16405,7 @@
         <v>88</v>
       </c>
       <c r="D140" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.6818181818181819</v>
       </c>
       <c r="E140" s="9">
@@ -15870,7 +16428,7 @@
         <v>89</v>
       </c>
       <c r="D141" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.5714285714285714</v>
       </c>
       <c r="E141" s="9">
@@ -15889,11 +16447,11 @@
       </c>
     </row>
     <row r="142" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C142" s="25" t="s">
+      <c r="C142" s="23" t="s">
         <v>90</v>
       </c>
       <c r="D142" s="9">
-        <f t="shared" ref="D142" si="3">G142/H142</f>
+        <f t="shared" ref="D142" si="5">G142/H142</f>
         <v>1.3777777777777778</v>
       </c>
       <c r="E142" s="9">
@@ -15912,11 +16470,11 @@
       </c>
     </row>
     <row r="143" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C143" s="25" t="s">
-        <v>74</v>
+      <c r="C143" s="23" t="s">
+        <v>91</v>
       </c>
       <c r="D143" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="D143:D145" si="6">G143/H143</f>
         <v>1.3777777777777778</v>
       </c>
       <c r="E143" s="9">
@@ -15926,21 +16484,21 @@
         <v>15</v>
       </c>
       <c r="G143" s="9">
-        <f>SUM(L161:L205)</f>
+        <f t="shared" ref="G143:G145" si="7">SUM(L161:L205)</f>
         <v>62</v>
       </c>
       <c r="H143" s="9">
-        <f>COUNTA(K161:K205)</f>
+        <f t="shared" ref="H143:H145" si="8">COUNTA(K161:K205)</f>
         <v>45</v>
       </c>
     </row>
     <row r="144" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C144" s="10">
-        <v>44300</v>
+      <c r="C144" s="23" t="s">
+        <v>92</v>
       </c>
       <c r="D144" s="9">
-        <f t="shared" si="2"/>
-        <v>1.3777777777777778</v>
+        <f t="shared" si="6"/>
+        <v>1.2727272727272727</v>
       </c>
       <c r="E144" s="9">
         <v>10</v>
@@ -15949,21 +16507,36 @@
         <v>15</v>
       </c>
       <c r="G144" s="9">
-        <f>SUM(L161:L205)</f>
-        <v>62</v>
+        <f t="shared" si="7"/>
+        <v>56</v>
       </c>
       <c r="H144" s="9">
-        <f>COUNTA(K161:K205)</f>
-        <v>45</v>
+        <f t="shared" si="8"/>
+        <v>44</v>
       </c>
     </row>
     <row r="145" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C145" s="10"/>
-      <c r="D145" s="9"/>
-      <c r="E145" s="9"/>
-      <c r="F145" s="9"/>
-      <c r="G145" s="9"/>
-      <c r="H145" s="9"/>
+      <c r="C145" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D145" s="9">
+        <f t="shared" si="6"/>
+        <v>1.2790697674418605</v>
+      </c>
+      <c r="E145" s="9">
+        <v>10</v>
+      </c>
+      <c r="F145" s="9">
+        <v>15</v>
+      </c>
+      <c r="G145" s="9">
+        <f t="shared" si="7"/>
+        <v>55</v>
+      </c>
+      <c r="H145" s="9">
+        <f t="shared" si="8"/>
+        <v>43</v>
+      </c>
     </row>
     <row r="146" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C146" s="10"/>
@@ -16254,7 +16827,7 @@
         <v>86</v>
       </c>
       <c r="D188" s="9">
-        <f t="shared" ref="D188:D194" si="4">G188/H188</f>
+        <f t="shared" ref="D188:D194" si="9">G188/H188</f>
         <v>11</v>
       </c>
       <c r="E188" s="9">
@@ -16283,7 +16856,7 @@
         <v>87</v>
       </c>
       <c r="D189" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>6.5</v>
       </c>
       <c r="E189" s="9">
@@ -16312,7 +16885,7 @@
         <v>88</v>
       </c>
       <c r="D190" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="E190" s="9">
@@ -16341,7 +16914,7 @@
         <v>89</v>
       </c>
       <c r="D191" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="E191" s="9">
@@ -16366,11 +16939,11 @@
       </c>
     </row>
     <row r="192" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C192" s="25" t="s">
+      <c r="C192" s="23" t="s">
         <v>90</v>
       </c>
       <c r="D192" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="E192" s="9">
@@ -16395,12 +16968,12 @@
       </c>
     </row>
     <row r="193" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C193" s="25" t="s">
-        <v>74</v>
+      <c r="C193" s="23" t="s">
+        <v>91</v>
       </c>
       <c r="D193" s="9">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f t="shared" ref="D193:D195" si="10">G193/H193</f>
+        <v>2.25</v>
       </c>
       <c r="E193" s="9">
         <v>10</v>
@@ -16409,12 +16982,12 @@
         <v>15</v>
       </c>
       <c r="G193" s="9">
-        <f>SUM(L210:L214)</f>
-        <v>20</v>
+        <f t="shared" ref="G193:G195" si="11">SUM(L211:L215)</f>
+        <v>9</v>
       </c>
       <c r="H193" s="9">
-        <f>COUNTA(K210:K214)</f>
-        <v>5</v>
+        <f t="shared" ref="H193:H195" si="12">COUNTA(K211:K215)</f>
+        <v>4</v>
       </c>
       <c r="K193" s="15" t="s">
         <v>55</v>
@@ -16424,12 +16997,12 @@
       </c>
     </row>
     <row r="194" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C194" s="10">
-        <v>44300</v>
+      <c r="C194" s="23" t="s">
+        <v>92</v>
       </c>
       <c r="D194" s="9">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f t="shared" si="10"/>
+        <v>2.3333333333333335</v>
       </c>
       <c r="E194" s="9">
         <v>10</v>
@@ -16438,12 +17011,12 @@
         <v>15</v>
       </c>
       <c r="G194" s="9">
-        <f>SUM(L210:L214)</f>
-        <v>20</v>
+        <f t="shared" si="11"/>
+        <v>7</v>
       </c>
       <c r="H194" s="9">
-        <f>COUNTA(K210:K214)</f>
-        <v>5</v>
+        <f t="shared" si="12"/>
+        <v>3</v>
       </c>
       <c r="K194" s="15" t="s">
         <v>56</v>
@@ -16453,12 +17026,27 @@
       </c>
     </row>
     <row r="195" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C195" s="10"/>
-      <c r="D195" s="9"/>
-      <c r="E195" s="9"/>
-      <c r="F195" s="9"/>
-      <c r="G195" s="9"/>
-      <c r="H195" s="9"/>
+      <c r="C195" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D195" s="9">
+        <f t="shared" si="10"/>
+        <v>2.5</v>
+      </c>
+      <c r="E195" s="9">
+        <v>10</v>
+      </c>
+      <c r="F195" s="9">
+        <v>15</v>
+      </c>
+      <c r="G195" s="9">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="H195" s="9">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
       <c r="K195" s="15" t="s">
         <v>57</v>
       </c>
@@ -16687,7 +17275,7 @@
         <v>86</v>
       </c>
       <c r="D252" s="9">
-        <f t="shared" ref="D252:D258" si="5">G252/H252</f>
+        <f t="shared" ref="D252:D258" si="13">G252/H252</f>
         <v>1.2857142857142858</v>
       </c>
       <c r="E252" s="9">
@@ -16710,7 +17298,7 @@
         <v>87</v>
       </c>
       <c r="D253" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>1.553191489361702</v>
       </c>
       <c r="E253" s="9">
@@ -16735,7 +17323,7 @@
         <v>88</v>
       </c>
       <c r="D254" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>1.56</v>
       </c>
       <c r="E254" s="9">
@@ -16760,7 +17348,7 @@
         <v>89</v>
       </c>
       <c r="D255" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>1.5535714285714286</v>
       </c>
       <c r="E255" s="9">
@@ -16781,7 +17369,7 @@
       <c r="K255" s="11"/>
     </row>
     <row r="256" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C256" s="25" t="s">
+      <c r="C256" s="23" t="s">
         <v>90</v>
       </c>
       <c r="D256" s="9">
@@ -16806,12 +17394,12 @@
       <c r="K256" s="11"/>
     </row>
     <row r="257" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C257" s="25" t="s">
-        <v>74</v>
+      <c r="C257" s="23" t="s">
+        <v>91</v>
       </c>
       <c r="D257" s="9">
-        <f t="shared" si="5"/>
-        <v>1.523076923076923</v>
+        <f t="shared" ref="D257:D259" si="14">G257/H257</f>
+        <v>1.5614035087719298</v>
       </c>
       <c r="E257" s="9">
         <v>3</v>
@@ -16820,23 +17408,23 @@
         <v>6</v>
       </c>
       <c r="G257" s="9">
-        <f>99</f>
-        <v>99</v>
+        <f>89</f>
+        <v>89</v>
       </c>
       <c r="H257" s="9">
-        <f>57+8</f>
-        <v>65</v>
+        <f>57</f>
+        <v>57</v>
       </c>
       <c r="J257" s="11"/>
       <c r="K257" s="11"/>
     </row>
     <row r="258" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C258" s="10">
-        <v>44300</v>
+      <c r="C258" s="23" t="s">
+        <v>92</v>
       </c>
       <c r="D258" s="9">
-        <f t="shared" si="5"/>
-        <v>1.5074626865671641</v>
+        <f t="shared" si="14"/>
+        <v>1.5614035087719298</v>
       </c>
       <c r="E258" s="9">
         <v>3</v>
@@ -16845,23 +17433,38 @@
         <v>6</v>
       </c>
       <c r="G258" s="9">
-        <f>101</f>
-        <v>101</v>
+        <f>89</f>
+        <v>89</v>
       </c>
       <c r="H258" s="9">
-        <f>67</f>
-        <v>67</v>
+        <f>57</f>
+        <v>57</v>
       </c>
       <c r="J258" s="11"/>
       <c r="K258" s="11"/>
     </row>
     <row r="259" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C259" s="10"/>
-      <c r="D259" s="9"/>
-      <c r="E259" s="9"/>
-      <c r="F259" s="9"/>
-      <c r="G259" s="9"/>
-      <c r="H259" s="9"/>
+      <c r="C259" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D259" s="9">
+        <f t="shared" si="14"/>
+        <v>1.5614035087719298</v>
+      </c>
+      <c r="E259" s="9">
+        <v>3</v>
+      </c>
+      <c r="F259" s="9">
+        <v>6</v>
+      </c>
+      <c r="G259" s="9">
+        <f>89</f>
+        <v>89</v>
+      </c>
+      <c r="H259" s="9">
+        <f>57</f>
+        <v>57</v>
+      </c>
       <c r="J259" s="11"/>
       <c r="K259" s="11"/>
     </row>
@@ -16942,7 +17545,7 @@
         <v>86</v>
       </c>
       <c r="D309" s="9">
-        <f t="shared" ref="D309:D312" si="6">G309/H309</f>
+        <f t="shared" ref="D309:D312" si="15">G309/H309</f>
         <v>1.0689655172413792</v>
       </c>
       <c r="E309" s="9">
@@ -16965,7 +17568,7 @@
         <v>87</v>
       </c>
       <c r="D310" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0.91666666666666663</v>
       </c>
       <c r="E310" s="9">
@@ -16989,7 +17592,7 @@
         <v>88</v>
       </c>
       <c r="D311" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>1.4098360655737705</v>
       </c>
       <c r="E311" s="9">
@@ -17014,7 +17617,7 @@
         <v>89</v>
       </c>
       <c r="D312" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>1.4098360655737705</v>
       </c>
       <c r="E312" s="9">
@@ -17034,7 +17637,7 @@
       <c r="K312" s="11"/>
     </row>
     <row r="313" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C313" s="25" t="s">
+      <c r="C313" s="23" t="s">
         <v>90</v>
       </c>
       <c r="D313" s="9">
@@ -17058,12 +17661,12 @@
       <c r="K313" s="11"/>
     </row>
     <row r="314" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C314" s="25" t="s">
-        <v>74</v>
+      <c r="C314" s="23" t="s">
+        <v>91</v>
       </c>
       <c r="D314" s="9">
-        <f t="shared" ref="D314:D315" si="7">G314/H314</f>
-        <v>1.5</v>
+        <f t="shared" ref="D314:D316" si="16">G314/H314</f>
+        <v>1.476923076923077</v>
       </c>
       <c r="E314" s="9">
         <v>3</v>
@@ -17072,21 +17675,22 @@
         <v>6</v>
       </c>
       <c r="G314" s="9">
+        <f>96</f>
         <v>96</v>
       </c>
       <c r="H314" s="9">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J314" s="11"/>
       <c r="K314" s="11"/>
     </row>
     <row r="315" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C315" s="10">
-        <v>44300</v>
+      <c r="C315" s="23" t="s">
+        <v>92</v>
       </c>
       <c r="D315" s="9">
-        <f t="shared" si="7"/>
-        <v>1.5</v>
+        <f t="shared" si="16"/>
+        <v>1.4545454545454546</v>
       </c>
       <c r="E315" s="9">
         <v>3</v>
@@ -17095,21 +17699,36 @@
         <v>6</v>
       </c>
       <c r="G315" s="9">
+        <f>96</f>
         <v>96</v>
       </c>
       <c r="H315" s="9">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J315" s="11"/>
       <c r="K315" s="11"/>
     </row>
     <row r="316" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C316" s="10"/>
-      <c r="D316" s="9"/>
-      <c r="E316" s="9"/>
-      <c r="F316" s="9"/>
-      <c r="G316" s="9"/>
-      <c r="H316" s="9"/>
+      <c r="C316" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D316" s="9">
+        <f t="shared" si="16"/>
+        <v>1.4328358208955223</v>
+      </c>
+      <c r="E316" s="9">
+        <v>3</v>
+      </c>
+      <c r="F316" s="9">
+        <v>6</v>
+      </c>
+      <c r="G316" s="9">
+        <f>96</f>
+        <v>96</v>
+      </c>
+      <c r="H316" s="9">
+        <v>67</v>
+      </c>
       <c r="J316" s="11"/>
       <c r="K316" s="11"/>
     </row>
@@ -17225,7 +17844,7 @@
       </c>
     </row>
     <row r="374" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C374" s="25" t="s">
+      <c r="C374" s="23" t="s">
         <v>90</v>
       </c>
       <c r="D374" s="9">
@@ -17239,8 +17858,8 @@
       </c>
     </row>
     <row r="375" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C375" s="25" t="s">
-        <v>74</v>
+      <c r="C375" s="23" t="s">
+        <v>91</v>
       </c>
       <c r="D375" s="9">
         <v>2</v>
@@ -17253,8 +17872,8 @@
       </c>
     </row>
     <row r="376" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C376" s="10">
-        <v>44300</v>
+      <c r="C376" s="23" t="s">
+        <v>92</v>
       </c>
       <c r="D376" s="9">
         <v>2</v>
@@ -17267,10 +17886,18 @@
       </c>
     </row>
     <row r="377" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C377" s="10"/>
-      <c r="D377" s="9"/>
-      <c r="E377" s="9"/>
-      <c r="F377" s="9"/>
+      <c r="C377" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D377" s="9">
+        <v>2</v>
+      </c>
+      <c r="E377" s="9">
+        <v>6</v>
+      </c>
+      <c r="F377" s="9">
+        <v>8</v>
+      </c>
     </row>
     <row r="378" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C378" s="10"/>
@@ -17492,7 +18119,7 @@
         <v>86</v>
       </c>
       <c r="D466" s="6">
-        <f t="shared" ref="D466:D472" si="8">G466/H466</f>
+        <f t="shared" ref="D466:D472" si="17">G466/H466</f>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="E466" s="6">
@@ -17513,7 +18140,7 @@
         <v>87</v>
       </c>
       <c r="D467" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>0.125</v>
       </c>
       <c r="E467" s="6">
@@ -17534,7 +18161,7 @@
         <v>88</v>
       </c>
       <c r="D468" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>0.1</v>
       </c>
       <c r="E468" s="6">
@@ -17555,7 +18182,7 @@
         <v>89</v>
       </c>
       <c r="D469" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>0.1</v>
       </c>
       <c r="E469" s="6">
@@ -17572,7 +18199,7 @@
       </c>
     </row>
     <row r="470" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C470" s="25" t="s">
+      <c r="C470" s="23" t="s">
         <v>90</v>
       </c>
       <c r="D470" s="6">
@@ -17593,12 +18220,12 @@
       </c>
     </row>
     <row r="471" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C471" s="25" t="s">
-        <v>74</v>
+      <c r="C471" s="23" t="s">
+        <v>91</v>
       </c>
       <c r="D471" s="6">
-        <f t="shared" si="8"/>
-        <v>9.9675850891410053E-2</v>
+        <f t="shared" ref="D471:D473" si="18">G471/H471</f>
+        <v>0.1053484602917342</v>
       </c>
       <c r="E471" s="6">
         <v>0.2</v>
@@ -17607,19 +18234,19 @@
         <v>0.1</v>
       </c>
       <c r="G471" s="9">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="H471" s="9">
         <v>1234</v>
       </c>
     </row>
     <row r="472" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C472" s="10">
-        <v>44300</v>
+      <c r="C472" s="23" t="s">
+        <v>92</v>
       </c>
       <c r="D472" s="6">
-        <f t="shared" si="8"/>
-        <v>0.13371150729335493</v>
+        <f t="shared" si="18"/>
+        <v>0.1053484602917342</v>
       </c>
       <c r="E472" s="6">
         <v>0.2</v>
@@ -17628,19 +18255,32 @@
         <v>0.1</v>
       </c>
       <c r="G472" s="9">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="H472" s="9">
         <v>1234</v>
       </c>
     </row>
     <row r="473" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C473" s="10"/>
-      <c r="D473" s="9"/>
-      <c r="E473" s="9"/>
-      <c r="F473" s="9"/>
-      <c r="G473" s="9"/>
-      <c r="H473" s="9"/>
+      <c r="C473" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D473" s="6">
+        <f t="shared" si="18"/>
+        <v>0.1053484602917342</v>
+      </c>
+      <c r="E473" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="F473" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="G473" s="9">
+        <v>130</v>
+      </c>
+      <c r="H473" s="9">
+        <v>1234</v>
+      </c>
     </row>
     <row r="474" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C474" s="10"/>
@@ -17711,7 +18351,7 @@
         <v>86</v>
       </c>
       <c r="D518" s="6">
-        <f t="shared" ref="D518:D524" si="9">G518/H518</f>
+        <f t="shared" ref="D518:D524" si="19">G518/H518</f>
         <v>2.8571428571428571E-2</v>
       </c>
       <c r="E518" s="6">
@@ -17732,7 +18372,7 @@
         <v>87</v>
       </c>
       <c r="D519" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>0.12857142857142856</v>
       </c>
       <c r="E519" s="6">
@@ -17753,7 +18393,7 @@
         <v>88</v>
       </c>
       <c r="D520" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>7.1428571428571425E-2</v>
       </c>
       <c r="E520" s="6">
@@ -17774,7 +18414,7 @@
         <v>89</v>
       </c>
       <c r="D521" s="6">
-        <f t="shared" ref="D521" si="10">G521/H521</f>
+        <f t="shared" ref="D521" si="20">G521/H521</f>
         <v>7.1428571428571425E-2</v>
       </c>
       <c r="E521" s="6">
@@ -17791,11 +18431,11 @@
       </c>
     </row>
     <row r="522" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C522" s="25" t="s">
+      <c r="C522" s="23" t="s">
         <v>90</v>
       </c>
       <c r="D522" s="6">
-        <f t="shared" ref="D522" si="11">G522/H522</f>
+        <f t="shared" ref="D522" si="21">G522/H522</f>
         <v>0.10337972166998012</v>
       </c>
       <c r="E522" s="6">
@@ -17812,11 +18452,11 @@
       </c>
     </row>
     <row r="523" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C523" s="25" t="s">
-        <v>74</v>
+      <c r="C523" s="23" t="s">
+        <v>91</v>
       </c>
       <c r="D523" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="D523:D525" si="22">G523/H523</f>
         <v>0.10337972166998012</v>
       </c>
       <c r="E523" s="6">
@@ -17833,12 +18473,12 @@
       </c>
     </row>
     <row r="524" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C524" s="10">
-        <v>44300</v>
+      <c r="C524" s="23" t="s">
+        <v>92</v>
       </c>
       <c r="D524" s="6">
-        <f t="shared" si="9"/>
-        <v>0.11530815109343936</v>
+        <f t="shared" si="22"/>
+        <v>0.10337972166998012</v>
       </c>
       <c r="E524" s="6">
         <v>0.2</v>
@@ -17847,19 +18487,32 @@
         <v>0.1</v>
       </c>
       <c r="G524" s="9">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="H524" s="9">
         <v>1509</v>
       </c>
     </row>
     <row r="525" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C525" s="10"/>
-      <c r="D525" s="9"/>
-      <c r="E525" s="9"/>
-      <c r="F525" s="9"/>
-      <c r="G525" s="9"/>
-      <c r="H525" s="9"/>
+      <c r="C525" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D525" s="6">
+        <f t="shared" si="22"/>
+        <v>0.10337972166998012</v>
+      </c>
+      <c r="E525" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="F525" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="G525" s="9">
+        <v>156</v>
+      </c>
+      <c r="H525" s="9">
+        <v>1509</v>
+      </c>
     </row>
     <row r="526" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C526" s="10"/>
@@ -17878,6 +18531,7 @@
       <c r="H527" s="9"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/DocumentazioneEsterna/PianoDiQualifica/res/ResocontoAttivitaDiVerifica/res/metriche/grafici/qualitàProdotto/qualitàProdotto.xlsx
+++ b/DocumentazioneEsterna/PianoDiQualifica/res/ResocontoAttivitaDiVerifica/res/metriche/grafici/qualitàProdotto/qualitàProdotto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Università\Terzo anno\SWE\Progetto\Documentazione\DocumentazioneEsterna\PianoDiQualifica\res\ResocontoAttivitaDiVerifica\res\metriche\grafici\qualitàProdotto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2360FBEE-406C-4192-983B-493FF16A7E22}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3977BB1-B679-4202-9422-4E19769D872B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E6A987FF-90E1-49FC-8E34-192DB323E80C}"/>
   </bookViews>
@@ -703,13 +703,13 @@
                   <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.92</c:v>
+                  <c:v>0.98</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.92</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.92</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2062,7 +2062,7 @@
                   <c:v>0.10337972166998012</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.10337972166998012</c:v>
+                  <c:v>9.2776673293571907E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.10337972166998012</c:v>
@@ -2910,7 +2910,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>3.8461538461538464E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -2991,10 +2991,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$E$46:$E$51</c:f>
+              <c:f>Sviluppo!$E$46:$E$54</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3011,6 +3011,15 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3747,13 +3756,13 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5360,13 +5369,13 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.25</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.3333333333333335</c:v>
+                  <c:v>2.6666666666666665</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.5</c:v>
+                  <c:v>2.6666666666666665</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6921,10 +6930,10 @@
                   <c:v>1.476923076923077</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.4545454545454546</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.4328358208955223</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8141,9 +8150,6 @@
         <c:ser>
           <c:idx val="5"/>
           <c:order val="5"/>
-          <c:tx>
-            <c:v>Accettabile</c:v>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent5">
@@ -8175,10 +8181,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$I$418:$I$420</c:f>
+              <c:f>Sviluppo!$I$418:$I$421</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>8</c:v>
                 </c:pt>
@@ -8186,6 +8192,9 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
@@ -8214,9 +8223,6 @@
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
-          <c:tx>
-            <c:v>Ottimale</c:v>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent6">
@@ -8248,10 +8254,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$H$418:$H$420</c:f>
+              <c:f>Sviluppo!$H$418:$H$421</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -8259,6 +8265,9 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
@@ -8288,9 +8297,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>A</c:v>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -8336,9 +8342,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>PA</c:v>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent2"/>
@@ -8384,9 +8387,6 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
-          <c:tx>
-            <c:v>PD</c:v>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent3"/>
@@ -8498,9 +8498,6 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
-          <c:tx>
-            <c:v>VC</c:v>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent4"/>
@@ -8511,6 +8508,63 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sviluppo!$C$418:$C$420</c:f>
@@ -8534,6 +8588,15 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8552,7 +8615,6 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="500"/>
-        <c:overlap val="100"/>
         <c:axId val="365907192"/>
         <c:axId val="365909112"/>
       </c:barChart>
@@ -15252,13 +15314,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>586740</xdr:colOff>
+      <xdr:colOff>518160</xdr:colOff>
       <xdr:row>427</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1310640</xdr:colOff>
+      <xdr:colOff>1242060</xdr:colOff>
       <xdr:row>446</xdr:row>
       <xdr:rowOff>140970</xdr:rowOff>
     </xdr:to>
@@ -15665,8 +15727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4F4DE7-87B1-4CD4-B318-8D739C70AC78}">
   <dimension ref="C6:L527"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B586" workbookViewId="0">
-      <selection activeCell="G522" sqref="F522:G526"/>
+    <sheetView tabSelected="1" topLeftCell="A594" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="K428" sqref="K428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15750,7 +15812,7 @@
         <v>87</v>
       </c>
       <c r="D10" s="6">
-        <f t="shared" ref="D10:D15" si="0">(1-F10/G10)</f>
+        <f t="shared" ref="D10:D13" si="0">(1-F10/G10)</f>
         <v>0.53</v>
       </c>
       <c r="E10" s="6">
@@ -15806,7 +15868,7 @@
         <v>90</v>
       </c>
       <c r="D13" s="6">
-        <f t="shared" si="0"/>
+        <f>(1-F13/G13)</f>
         <v>0.92</v>
       </c>
       <c r="E13" s="6">
@@ -15825,13 +15887,13 @@
       </c>
       <c r="D14" s="6">
         <f t="shared" ref="D14:D16" si="1">(1-F14/G14)</f>
-        <v>0.92</v>
+        <v>0.98</v>
       </c>
       <c r="E14" s="6">
         <v>1</v>
       </c>
       <c r="F14" s="9">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G14" s="9">
         <v>100</v>
@@ -15842,14 +15904,14 @@
         <v>92</v>
       </c>
       <c r="D15" s="6">
-        <f t="shared" si="1"/>
-        <v>0.92</v>
+        <f>(1-F15/G15)</f>
+        <v>1</v>
       </c>
       <c r="E15" s="6">
         <v>1</v>
       </c>
       <c r="F15" s="9">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G15" s="9">
         <v>100</v>
@@ -15861,13 +15923,13 @@
       </c>
       <c r="D16" s="6">
         <f t="shared" si="1"/>
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="E16" s="6">
         <v>1</v>
       </c>
       <c r="F16" s="9">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G16" s="9">
         <v>100</v>
@@ -15941,7 +16003,7 @@
         <v>86</v>
       </c>
       <c r="D47" s="6">
-        <f t="shared" ref="D47:D53" si="2">(G47/H47)</f>
+        <f t="shared" ref="D47:D49" si="2">(G47/H47)</f>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="E47" s="6">
@@ -16046,8 +16108,8 @@
         <v>91</v>
       </c>
       <c r="D52" s="6">
-        <f t="shared" ref="D52:D54" si="3">(G52/H52)</f>
-        <v>0</v>
+        <f>(G52/H52)</f>
+        <v>3.8461538461538464E-2</v>
       </c>
       <c r="E52" s="6">
         <v>0</v>
@@ -16056,7 +16118,7 @@
         <v>0.15</v>
       </c>
       <c r="G52" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H52" s="9">
         <v>78</v>
@@ -16067,7 +16129,7 @@
         <v>92</v>
       </c>
       <c r="D53" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="D52:D54" si="3">(G53/H53)</f>
         <v>0</v>
       </c>
       <c r="E53" s="6">
@@ -16245,7 +16307,7 @@
         <v>91</v>
       </c>
       <c r="D96" s="9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E96" s="9">
         <v>10</v>
@@ -16261,7 +16323,7 @@
         <v>92</v>
       </c>
       <c r="D97" s="9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E97" s="9">
         <v>10</v>
@@ -16277,7 +16339,7 @@
         <v>93</v>
       </c>
       <c r="D98" s="9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E98" s="9">
         <v>10</v>
@@ -16359,7 +16421,7 @@
         <v>86</v>
       </c>
       <c r="D138" s="9">
-        <f t="shared" ref="D138:D144" si="4">G138/H138</f>
+        <f t="shared" ref="D138:D141" si="4">G138/H138</f>
         <v>1.6923076923076923</v>
       </c>
       <c r="E138" s="9">
@@ -16827,7 +16889,7 @@
         <v>86</v>
       </c>
       <c r="D188" s="9">
-        <f t="shared" ref="D188:D194" si="9">G188/H188</f>
+        <f t="shared" ref="D188:D192" si="9">G188/H188</f>
         <v>11</v>
       </c>
       <c r="E188" s="9">
@@ -16972,8 +17034,8 @@
         <v>91</v>
       </c>
       <c r="D193" s="9">
-        <f t="shared" ref="D193:D195" si="10">G193/H193</f>
-        <v>2.25</v>
+        <f>G193/H193</f>
+        <v>3</v>
       </c>
       <c r="E193" s="9">
         <v>10</v>
@@ -16982,12 +17044,12 @@
         <v>15</v>
       </c>
       <c r="G193" s="9">
-        <f t="shared" ref="G193:G195" si="11">SUM(L211:L215)</f>
+        <f>SUM(L211:L215)</f>
         <v>9</v>
       </c>
       <c r="H193" s="9">
-        <f t="shared" ref="H193:H195" si="12">COUNTA(K211:K215)</f>
-        <v>4</v>
+        <f>3</f>
+        <v>3</v>
       </c>
       <c r="K193" s="15" t="s">
         <v>55</v>
@@ -17001,8 +17063,8 @@
         <v>92</v>
       </c>
       <c r="D194" s="9">
-        <f t="shared" si="10"/>
-        <v>2.3333333333333335</v>
+        <f>G194/H194</f>
+        <v>2.6666666666666665</v>
       </c>
       <c r="E194" s="9">
         <v>10</v>
@@ -17011,11 +17073,11 @@
         <v>15</v>
       </c>
       <c r="G194" s="9">
-        <f t="shared" si="11"/>
-        <v>7</v>
+        <f>8</f>
+        <v>8</v>
       </c>
       <c r="H194" s="9">
-        <f t="shared" si="12"/>
+        <f>3</f>
         <v>3</v>
       </c>
       <c r="K194" s="15" t="s">
@@ -17030,8 +17092,8 @@
         <v>93</v>
       </c>
       <c r="D195" s="9">
-        <f t="shared" si="10"/>
-        <v>2.5</v>
+        <f t="shared" ref="D193:D195" si="10">G195/H195</f>
+        <v>2.6666666666666665</v>
       </c>
       <c r="E195" s="9">
         <v>10</v>
@@ -17040,12 +17102,12 @@
         <v>15</v>
       </c>
       <c r="G195" s="9">
-        <f t="shared" si="11"/>
-        <v>5</v>
+        <f>8</f>
+        <v>8</v>
       </c>
       <c r="H195" s="9">
-        <f t="shared" si="12"/>
-        <v>2</v>
+        <f>3</f>
+        <v>3</v>
       </c>
       <c r="K195" s="15" t="s">
         <v>57</v>
@@ -17275,7 +17337,7 @@
         <v>86</v>
       </c>
       <c r="D252" s="9">
-        <f t="shared" ref="D252:D258" si="13">G252/H252</f>
+        <f t="shared" ref="D252:D255" si="11">G252/H252</f>
         <v>1.2857142857142858</v>
       </c>
       <c r="E252" s="9">
@@ -17298,7 +17360,7 @@
         <v>87</v>
       </c>
       <c r="D253" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>1.553191489361702</v>
       </c>
       <c r="E253" s="9">
@@ -17323,7 +17385,7 @@
         <v>88</v>
       </c>
       <c r="D254" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>1.56</v>
       </c>
       <c r="E254" s="9">
@@ -17348,7 +17410,7 @@
         <v>89</v>
       </c>
       <c r="D255" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>1.5535714285714286</v>
       </c>
       <c r="E255" s="9">
@@ -17398,7 +17460,7 @@
         <v>91</v>
       </c>
       <c r="D257" s="9">
-        <f t="shared" ref="D257:D259" si="14">G257/H257</f>
+        <f t="shared" ref="D257:D259" si="12">G257/H257</f>
         <v>1.5614035087719298</v>
       </c>
       <c r="E257" s="9">
@@ -17423,7 +17485,7 @@
         <v>92</v>
       </c>
       <c r="D258" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>1.5614035087719298</v>
       </c>
       <c r="E258" s="9">
@@ -17448,7 +17510,7 @@
         <v>93</v>
       </c>
       <c r="D259" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>1.5614035087719298</v>
       </c>
       <c r="E259" s="9">
@@ -17545,7 +17607,7 @@
         <v>86</v>
       </c>
       <c r="D309" s="9">
-        <f t="shared" ref="D309:D312" si="15">G309/H309</f>
+        <f t="shared" ref="D309:D312" si="13">G309/H309</f>
         <v>1.0689655172413792</v>
       </c>
       <c r="E309" s="9">
@@ -17568,7 +17630,7 @@
         <v>87</v>
       </c>
       <c r="D310" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0.91666666666666663</v>
       </c>
       <c r="E310" s="9">
@@ -17592,7 +17654,7 @@
         <v>88</v>
       </c>
       <c r="D311" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>1.4098360655737705</v>
       </c>
       <c r="E311" s="9">
@@ -17617,7 +17679,7 @@
         <v>89</v>
       </c>
       <c r="D312" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>1.4098360655737705</v>
       </c>
       <c r="E312" s="9">
@@ -17665,7 +17727,7 @@
         <v>91</v>
       </c>
       <c r="D314" s="9">
-        <f t="shared" ref="D314:D316" si="16">G314/H314</f>
+        <f t="shared" ref="D314:D316" si="14">G314/H314</f>
         <v>1.476923076923077</v>
       </c>
       <c r="E314" s="9">
@@ -17689,8 +17751,8 @@
         <v>92</v>
       </c>
       <c r="D315" s="9">
-        <f t="shared" si="16"/>
-        <v>1.4545454545454546</v>
+        <f>2</f>
+        <v>2</v>
       </c>
       <c r="E315" s="9">
         <v>3</v>
@@ -17713,8 +17775,8 @@
         <v>93</v>
       </c>
       <c r="D316" s="9">
-        <f t="shared" si="16"/>
-        <v>1.4328358208955223</v>
+        <f>2</f>
+        <v>2</v>
       </c>
       <c r="E316" s="9">
         <v>3</v>
@@ -17943,7 +18005,9 @@
       <c r="F418" s="17">
         <v>4</v>
       </c>
-      <c r="G418" s="17"/>
+      <c r="G418" s="17">
+        <v>4</v>
+      </c>
       <c r="H418" s="17">
         <v>5</v>
       </c>
@@ -17960,7 +18024,9 @@
       <c r="F419" s="17">
         <v>4</v>
       </c>
-      <c r="G419" s="17"/>
+      <c r="G419" s="17">
+        <v>4</v>
+      </c>
       <c r="H419" s="17">
         <v>5</v>
       </c>
@@ -17977,7 +18043,9 @@
       <c r="F420" s="17">
         <v>4</v>
       </c>
-      <c r="G420" s="19"/>
+      <c r="G420" s="19">
+        <v>4</v>
+      </c>
       <c r="H420" s="19">
         <v>5</v>
       </c>
@@ -17991,8 +18059,12 @@
       <c r="E421" s="20"/>
       <c r="F421" s="20"/>
       <c r="G421" s="20"/>
-      <c r="H421" s="19"/>
-      <c r="I421" s="20"/>
+      <c r="H421" s="19">
+        <v>5</v>
+      </c>
+      <c r="I421" s="19">
+        <v>8</v>
+      </c>
     </row>
     <row r="422" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C422" s="7"/>
@@ -18119,7 +18191,7 @@
         <v>86</v>
       </c>
       <c r="D466" s="6">
-        <f t="shared" ref="D466:D472" si="17">G466/H466</f>
+        <f t="shared" ref="D466:D469" si="15">G466/H466</f>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="E466" s="6">
@@ -18140,7 +18212,7 @@
         <v>87</v>
       </c>
       <c r="D467" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0.125</v>
       </c>
       <c r="E467" s="6">
@@ -18161,7 +18233,7 @@
         <v>88</v>
       </c>
       <c r="D468" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0.1</v>
       </c>
       <c r="E468" s="6">
@@ -18182,7 +18254,7 @@
         <v>89</v>
       </c>
       <c r="D469" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0.1</v>
       </c>
       <c r="E469" s="6">
@@ -18224,7 +18296,7 @@
         <v>91</v>
       </c>
       <c r="D471" s="6">
-        <f t="shared" ref="D471:D473" si="18">G471/H471</f>
+        <f t="shared" ref="D471:D473" si="16">G471/H471</f>
         <v>0.1053484602917342</v>
       </c>
       <c r="E471" s="6">
@@ -18245,7 +18317,7 @@
         <v>92</v>
       </c>
       <c r="D472" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0.1053484602917342</v>
       </c>
       <c r="E472" s="6">
@@ -18266,7 +18338,7 @@
         <v>93</v>
       </c>
       <c r="D473" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0.1053484602917342</v>
       </c>
       <c r="E473" s="6">
@@ -18351,7 +18423,7 @@
         <v>86</v>
       </c>
       <c r="D518" s="6">
-        <f t="shared" ref="D518:D524" si="19">G518/H518</f>
+        <f t="shared" ref="D518:D520" si="17">G518/H518</f>
         <v>2.8571428571428571E-2</v>
       </c>
       <c r="E518" s="6">
@@ -18372,7 +18444,7 @@
         <v>87</v>
       </c>
       <c r="D519" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0.12857142857142856</v>
       </c>
       <c r="E519" s="6">
@@ -18393,7 +18465,7 @@
         <v>88</v>
       </c>
       <c r="D520" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>7.1428571428571425E-2</v>
       </c>
       <c r="E520" s="6">
@@ -18414,7 +18486,7 @@
         <v>89</v>
       </c>
       <c r="D521" s="6">
-        <f t="shared" ref="D521" si="20">G521/H521</f>
+        <f t="shared" ref="D521" si="18">G521/H521</f>
         <v>7.1428571428571425E-2</v>
       </c>
       <c r="E521" s="6">
@@ -18435,7 +18507,7 @@
         <v>90</v>
       </c>
       <c r="D522" s="6">
-        <f t="shared" ref="D522" si="21">G522/H522</f>
+        <f t="shared" ref="D522" si="19">G522/H522</f>
         <v>0.10337972166998012</v>
       </c>
       <c r="E522" s="6">
@@ -18456,8 +18528,8 @@
         <v>91</v>
       </c>
       <c r="D523" s="6">
-        <f t="shared" ref="D523:D525" si="22">G523/H523</f>
-        <v>0.10337972166998012</v>
+        <f t="shared" ref="D523:D525" si="20">G523/H523</f>
+        <v>9.2776673293571907E-2</v>
       </c>
       <c r="E523" s="6">
         <v>0.2</v>
@@ -18466,7 +18538,7 @@
         <v>0.1</v>
       </c>
       <c r="G523" s="9">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="H523" s="9">
         <v>1509</v>
@@ -18477,7 +18549,7 @@
         <v>92</v>
       </c>
       <c r="D524" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>0.10337972166998012</v>
       </c>
       <c r="E524" s="6">
@@ -18498,7 +18570,7 @@
         <v>93</v>
       </c>
       <c r="D525" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>0.10337972166998012</v>
       </c>
       <c r="E525" s="6">

--- a/DocumentazioneEsterna/PianoDiQualifica/res/ResocontoAttivitaDiVerifica/res/metriche/grafici/qualitàProdotto/qualitàProdotto.xlsx
+++ b/DocumentazioneEsterna/PianoDiQualifica/res/ResocontoAttivitaDiVerifica/res/metriche/grafici/qualitàProdotto/qualitàProdotto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Università\Terzo anno\SWE\Progetto\Documentazione\DocumentazioneEsterna\PianoDiQualifica\res\ResocontoAttivitaDiVerifica\res\metriche\grafici\qualitàProdotto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3977BB1-B679-4202-9422-4E19769D872B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E093A9E-3AD8-420E-9F2A-E5E0C94EC600}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E6A987FF-90E1-49FC-8E34-192DB323E80C}"/>
   </bookViews>
@@ -8148,8 +8148,11 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Accettabile</c:v>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent5">
@@ -8181,10 +8184,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$I$418:$I$421</c:f>
+              <c:f>Sviluppo!$I$418:$I$420</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>8</c:v>
                 </c:pt>
@@ -8192,9 +8195,6 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
@@ -8202,7 +8202,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-226D-4965-9E16-F2F95E63B02D}"/>
+              <c16:uniqueId val="{00000003-226D-4965-9E16-F2F95E63B02D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8221,8 +8221,11 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Ottimale</c:v>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent6">
@@ -8254,10 +8257,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sviluppo!$H$418:$H$421</c:f>
+              <c:f>Sviluppo!$H$418:$H$420</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -8265,9 +8268,6 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
@@ -8275,7 +8275,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-226D-4965-9E16-F2F95E63B02D}"/>
+              <c16:uniqueId val="{00000002-226D-4965-9E16-F2F95E63B02D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8287,8 +8287,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="498492048"/>
-        <c:axId val="498490768"/>
+        <c:axId val="520527544"/>
+        <c:axId val="520530744"/>
       </c:areaChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -8297,96 +8297,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sviluppo!$C$418:$C$420</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Sito per utente non loggato</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Sito per cliente</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Sito per venditore</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sviluppo!$D$418:$D$420</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-226D-4965-9E16-F2F95E63B02D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sviluppo!$C$418:$C$420</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Sito per utente non loggato</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Sito per cliente</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Sito per venditore</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sviluppo!$E$418:$E$420</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-226D-4965-9E16-F2F95E63B02D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:tx>
+            <c:v>PD</c:v>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent3"/>
@@ -8491,13 +8404,16 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-226D-4965-9E16-F2F95E63B02D}"/>
+              <c16:uniqueId val="{00000000-226D-4965-9E16-F2F95E63B02D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>VC</c:v>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent4"/>
@@ -8602,7 +8518,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-226D-4965-9E16-F2F95E63B02D}"/>
+              <c16:uniqueId val="{00000001-226D-4965-9E16-F2F95E63B02D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8781,22 +8697,50 @@
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="498490768"/>
+        <c:axId val="520530744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="9"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="498492048"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="520527544"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="498492048"/>
+        <c:axId val="520527544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8806,8 +8750,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="498490768"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="520530744"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -15352,13 +15295,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>484</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1583766</xdr:colOff>
       <xdr:row>502</xdr:row>
       <xdr:rowOff>156960</xdr:rowOff>
     </xdr:to>
@@ -15395,8 +15338,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1606176</xdr:colOff>
       <xdr:row>559</xdr:row>
       <xdr:rowOff>156960</xdr:rowOff>
     </xdr:to>
@@ -15727,8 +15670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4F4DE7-87B1-4CD4-B318-8D739C70AC78}">
   <dimension ref="C6:L527"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A594" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="K428" sqref="K428"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="I443" sqref="I443"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15812,7 +15755,7 @@
         <v>87</v>
       </c>
       <c r="D10" s="6">
-        <f t="shared" ref="D10:D13" si="0">(1-F10/G10)</f>
+        <f t="shared" ref="D10:D12" si="0">(1-F10/G10)</f>
         <v>0.53</v>
       </c>
       <c r="E10" s="6">
@@ -16129,7 +16072,7 @@
         <v>92</v>
       </c>
       <c r="D53" s="6">
-        <f t="shared" ref="D52:D54" si="3">(G53/H53)</f>
+        <f t="shared" ref="D53:D54" si="3">(G53/H53)</f>
         <v>0</v>
       </c>
       <c r="E53" s="6">
@@ -17092,7 +17035,7 @@
         <v>93</v>
       </c>
       <c r="D195" s="9">
-        <f t="shared" ref="D193:D195" si="10">G195/H195</f>
+        <f t="shared" ref="D195" si="10">G195/H195</f>
         <v>2.6666666666666665</v>
       </c>
       <c r="E195" s="9">
@@ -17727,7 +17670,7 @@
         <v>91</v>
       </c>
       <c r="D314" s="9">
-        <f t="shared" ref="D314:D316" si="14">G314/H314</f>
+        <f t="shared" ref="D314" si="14">G314/H314</f>
         <v>1.476923076923077</v>
       </c>
       <c r="E314" s="9">

--- a/DocumentazioneEsterna/PianoDiQualifica/res/ResocontoAttivitaDiVerifica/res/metriche/grafici/qualitàProdotto/qualitàProdotto.xlsx
+++ b/DocumentazioneEsterna/PianoDiQualifica/res/ResocontoAttivitaDiVerifica/res/metriche/grafici/qualitàProdotto/qualitàProdotto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Università\Terzo anno\SWE\Progetto\Documentazione\DocumentazioneEsterna\PianoDiQualifica\res\ResocontoAttivitaDiVerifica\res\metriche\grafici\qualitàProdotto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E093A9E-3AD8-420E-9F2A-E5E0C94EC600}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{184715FF-D08A-4EFA-8B0D-E1155193D442}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E6A987FF-90E1-49FC-8E34-192DB323E80C}"/>
   </bookViews>
@@ -8702,39 +8702,12 @@
           <c:orientation val="minMax"/>
           <c:max val="9"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="520527544"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
@@ -8751,6 +8724,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="520530744"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -15257,15 +15231,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>518160</xdr:colOff>
+      <xdr:colOff>518161</xdr:colOff>
       <xdr:row>427</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1242060</xdr:colOff>
+      <xdr:colOff>203678</xdr:colOff>
       <xdr:row>446</xdr:row>
-      <xdr:rowOff>140970</xdr:rowOff>
+      <xdr:rowOff>145052</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15670,8 +15644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4F4DE7-87B1-4CD4-B318-8D739C70AC78}">
   <dimension ref="C6:L527"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="I443" sqref="I443"/>
+    <sheetView tabSelected="1" topLeftCell="A538" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="H439" sqref="H439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
